--- a/faults.xlsx
+++ b/faults.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spc/Cirilla/Projects/OTF_relocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF0780-14A0-C040-8FB5-2B10797DE5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE2095-9171-3A42-8D49-DB79721DB3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19300" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12700" yWindow="460" windowWidth="24860" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fault-observe2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fault-observe2'!$A$1:$AP$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fault-observe2'!$A$1:$AP$140</definedName>
     <definedName name="fault2" localSheetId="0">'fault-observe2'!$B$1:$V$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="196">
   <si>
     <t>key</t>
   </si>
@@ -611,6 +611,18 @@
   <si>
     <t>Heemskerck</t>
   </si>
+  <si>
+    <t>Chile 38S</t>
+  </si>
+  <si>
+    <t>Chile 39S</t>
+  </si>
+  <si>
+    <t>Shakleton</t>
+  </si>
+  <si>
+    <t>South Scotia Ridge</t>
+  </si>
 </sst>
 </file>
 
@@ -669,7 +681,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,6 +748,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -749,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,6 +1136,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,19 +1354,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AP1000"/>
+  <dimension ref="A1:AP1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="126" bestFit="1" customWidth="1"/>
@@ -1504,7 +1524,7 @@
         <v>-9.1</v>
       </c>
       <c r="F2" s="23">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="G2" s="52">
         <v>115.4</v>
@@ -1570,7 +1590,7 @@
       <c r="AO2" s="29"/>
       <c r="AP2" s="29"/>
     </row>
-    <row r="3" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1587,7 +1607,7 @@
         <v>-33.4</v>
       </c>
       <c r="F3" s="23">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G3" s="52">
         <v>279.18</v>
@@ -1652,7 +1672,7 @@
       <c r="AO3" s="29"/>
       <c r="AP3" s="29"/>
     </row>
-    <row r="4" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>-30.9</v>
       </c>
       <c r="F4" s="23">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G4" s="52">
         <v>95.77</v>
@@ -1753,7 +1773,7 @@
         <v>-35.6</v>
       </c>
       <c r="F5" s="23">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G5" s="52">
         <v>101.22</v>
@@ -1838,7 +1858,7 @@
         <v>-38.6</v>
       </c>
       <c r="F6" s="23">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G6" s="52">
         <v>100.18</v>
@@ -1920,7 +1940,7 @@
         <v>-42.4</v>
       </c>
       <c r="F7" s="23">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G7" s="52">
         <v>96.51</v>
@@ -2002,7 +2022,7 @@
         <v>-45.6</v>
       </c>
       <c r="F8" s="23">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G8" s="52">
         <v>100.93</v>
@@ -2067,7 +2087,7 @@
       <c r="AO8" s="29"/>
       <c r="AP8" s="29"/>
     </row>
-    <row r="9" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>-45.8</v>
       </c>
       <c r="F9" s="23">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G9" s="52">
         <v>95.46</v>
@@ -2149,7 +2169,7 @@
       <c r="AO9" s="29"/>
       <c r="AP9" s="29"/>
     </row>
-    <row r="10" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -2166,7 +2186,7 @@
         <v>-42.3</v>
       </c>
       <c r="F10" s="23">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="G10" s="52">
         <v>91.98</v>
@@ -2248,7 +2268,7 @@
         <v>-36.9</v>
       </c>
       <c r="F11" s="23">
-        <v>650</v>
+        <v>774</v>
       </c>
       <c r="G11" s="52">
         <v>93.91</v>
@@ -2332,7 +2352,7 @@
         <v>-27.6</v>
       </c>
       <c r="F12" s="23">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="G12" s="52">
         <v>84.19</v>
@@ -2414,7 +2434,7 @@
         <v>-20.6</v>
       </c>
       <c r="F13" s="23">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="G13" s="52">
         <v>80.16</v>
@@ -2479,7 +2499,7 @@
       <c r="AO13" s="29"/>
       <c r="AP13" s="29"/>
     </row>
-    <row r="14" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -2496,7 +2516,7 @@
         <v>-14.5</v>
       </c>
       <c r="F14" s="23">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G14" s="52">
         <v>73.77</v>
@@ -2561,7 +2581,7 @@
       <c r="AO14" s="29"/>
       <c r="AP14" s="29"/>
     </row>
-    <row r="15" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -2578,7 +2598,7 @@
         <v>-13.7</v>
       </c>
       <c r="F15" s="23">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="G15" s="52">
         <v>75.819999999999993</v>
@@ -2643,7 +2663,7 @@
       <c r="AO15" s="29"/>
       <c r="AP15" s="29"/>
     </row>
-    <row r="16" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>-16.5</v>
       </c>
       <c r="F16" s="23">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G16" s="52">
         <v>79.58</v>
@@ -2725,7 +2745,7 @@
       <c r="AO16" s="29"/>
       <c r="AP16" s="29"/>
     </row>
-    <row r="17" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -2742,7 +2762,7 @@
         <v>-11.9</v>
       </c>
       <c r="F17" s="23">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="G17" s="52">
         <v>78.38</v>
@@ -2824,7 +2844,7 @@
         <v>-128.5</v>
       </c>
       <c r="F18" s="56">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="G18" s="108">
         <v>114.49</v>
@@ -2906,7 +2926,7 @@
         <v>-107.4</v>
       </c>
       <c r="F19" s="80">
-        <v>460</v>
+        <v>374</v>
       </c>
       <c r="G19" s="102">
         <v>109.53</v>
@@ -3008,7 +3028,7 @@
         <v>-105</v>
       </c>
       <c r="F20" s="80">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="102">
         <v>71.819999999999993</v>
@@ -3112,7 +3132,7 @@
         <v>-104</v>
       </c>
       <c r="F21" s="80">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G21" s="102">
         <v>81.19</v>
@@ -3216,7 +3236,7 @@
         <v>-103.5</v>
       </c>
       <c r="F22" s="80">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G22" s="102">
         <v>85.33</v>
@@ -3320,7 +3340,7 @@
         <v>-103.2</v>
       </c>
       <c r="F23" s="80">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G23" s="102">
         <v>95.7</v>
@@ -3422,7 +3442,7 @@
         <v>-104.2</v>
       </c>
       <c r="F24" s="80">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G24" s="102">
         <v>95.22</v>
@@ -3528,7 +3548,7 @@
         <v>-105.4</v>
       </c>
       <c r="F25" s="80">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G25" s="84">
         <v>100</v>
@@ -3632,7 +3652,7 @@
         <v>-107.2</v>
       </c>
       <c r="F26" s="80">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G26" s="102">
         <v>98.42</v>
@@ -3734,7 +3754,7 @@
         <v>-109</v>
       </c>
       <c r="F27" s="80">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G27" s="102">
         <v>98.59</v>
@@ -3838,7 +3858,7 @@
         <v>-111.8</v>
       </c>
       <c r="F28" s="80">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G28" s="102">
         <v>99.06</v>
@@ -3942,7 +3962,7 @@
         <v>-103.2</v>
       </c>
       <c r="F29" s="72">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="G29" s="110">
         <v>106.46</v>
@@ -4024,7 +4044,7 @@
         <v>-88.8</v>
       </c>
       <c r="F30" s="72">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="G30" s="110">
         <v>82.92</v>
@@ -4090,7 +4110,7 @@
       <c r="AO30" s="29"/>
       <c r="AP30" s="29"/>
     </row>
-    <row r="31" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="90">
         <v>30</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>-115.3</v>
       </c>
       <c r="F31" s="90">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G31" s="99">
         <v>107.31</v>
@@ -4209,7 +4229,7 @@
         <v>-118.2</v>
       </c>
       <c r="F32" s="90">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G32" s="99">
         <v>112.27</v>
@@ -4296,7 +4316,7 @@
       <c r="AO32" s="29"/>
       <c r="AP32" s="29"/>
     </row>
-    <row r="33" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="90">
         <v>32</v>
       </c>
@@ -4313,7 +4333,7 @@
         <v>-119.5</v>
       </c>
       <c r="F33" s="90">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G33" s="99">
         <v>111.81</v>
@@ -4415,7 +4435,7 @@
         <v>-124.5</v>
       </c>
       <c r="F34" s="90">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="G34" s="99">
         <v>116.35</v>
@@ -4517,7 +4537,7 @@
         <v>-131</v>
       </c>
       <c r="F35" s="90">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="G35" s="99">
         <v>115.52</v>
@@ -4617,7 +4637,7 @@
         <v>-136.1</v>
       </c>
       <c r="F36" s="90">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" s="99">
         <v>115.52</v>
@@ -4719,7 +4739,7 @@
         <v>-139.19999999999999</v>
       </c>
       <c r="F37" s="90">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G37" s="99">
         <v>118.87</v>
@@ -4821,7 +4841,7 @@
         <v>-142.4</v>
       </c>
       <c r="F38" s="90">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="G38" s="99">
         <v>118.87</v>
@@ -4906,7 +4926,7 @@
       <c r="AO38" s="29"/>
       <c r="AP38" s="29"/>
     </row>
-    <row r="39" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64">
         <v>38</v>
       </c>
@@ -4923,7 +4943,7 @@
         <v>-17.2</v>
       </c>
       <c r="F39" s="64">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G39" s="88">
         <v>88.41</v>
@@ -4988,7 +5008,7 @@
       <c r="AO39" s="29"/>
       <c r="AP39" s="29"/>
     </row>
-    <row r="40" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64">
         <v>39</v>
       </c>
@@ -5005,7 +5025,7 @@
         <v>-11.9</v>
       </c>
       <c r="F40" s="64">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="G40" s="88">
         <v>86.86</v>
@@ -5068,7 +5088,7 @@
       <c r="AO40" s="29"/>
       <c r="AP40" s="29"/>
     </row>
-    <row r="41" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64">
         <v>40</v>
       </c>
@@ -5085,7 +5105,7 @@
         <v>-3.3</v>
       </c>
       <c r="F41" s="64">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G41" s="88">
         <v>87.23</v>
@@ -5150,7 +5170,7 @@
       <c r="AO41" s="29"/>
       <c r="AP41" s="29"/>
     </row>
-    <row r="42" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44">
         <v>41</v>
       </c>
@@ -5167,7 +5187,7 @@
         <v>1.9</v>
       </c>
       <c r="F42" s="44">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G42" s="51">
         <v>48.27</v>
@@ -5232,7 +5252,7 @@
       <c r="AO42" s="29"/>
       <c r="AP42" s="29"/>
     </row>
-    <row r="43" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44">
         <v>42</v>
       </c>
@@ -5249,7 +5269,7 @@
         <v>6.1</v>
       </c>
       <c r="F43" s="44">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G43" s="51">
         <v>41.49</v>
@@ -5333,7 +5353,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F44" s="44">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G44" s="51">
         <v>38.99</v>
@@ -5415,7 +5435,7 @@
         <v>25.5</v>
       </c>
       <c r="F45" s="44">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G45" s="51">
         <v>22.05</v>
@@ -5497,7 +5517,7 @@
         <v>30</v>
       </c>
       <c r="F46" s="44">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="G46" s="51">
         <v>23.02</v>
@@ -5581,7 +5601,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="F47" s="44">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G47" s="51">
         <v>18.440000000000001</v>
@@ -5648,7 +5668,7 @@
       <c r="AO47" s="29"/>
       <c r="AP47" s="29"/>
     </row>
-    <row r="48" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44">
         <v>47</v>
       </c>
@@ -5665,7 +5685,7 @@
         <v>35.1</v>
       </c>
       <c r="F48" s="44">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G48" s="51">
         <v>18.16</v>
@@ -5730,7 +5750,7 @@
       <c r="AO48" s="29"/>
       <c r="AP48" s="29"/>
     </row>
-    <row r="49" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <v>48</v>
       </c>
@@ -5747,7 +5767,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="F49" s="44">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G49" s="51">
         <v>15.51</v>
@@ -5814,7 +5834,7 @@
       <c r="AO49" s="29"/>
       <c r="AP49" s="29"/>
     </row>
-    <row r="50" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="44">
         <v>49</v>
       </c>
@@ -5831,7 +5851,7 @@
         <v>41.6</v>
       </c>
       <c r="F50" s="44">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G50" s="51">
         <v>14.66</v>
@@ -5896,7 +5916,7 @@
       <c r="AO50" s="29"/>
       <c r="AP50" s="29"/>
     </row>
-    <row r="51" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="44">
         <v>50</v>
       </c>
@@ -5913,7 +5933,7 @@
         <v>42.5</v>
       </c>
       <c r="F51" s="44">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G51" s="51">
         <v>9.5299999999999994</v>
@@ -5978,7 +5998,7 @@
       <c r="AO51" s="29"/>
       <c r="AP51" s="29"/>
     </row>
-    <row r="52" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="44">
         <v>51</v>
       </c>
@@ -5995,7 +6015,7 @@
         <v>46.1</v>
       </c>
       <c r="F52" s="44">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G52" s="51">
         <v>4.6500000000000004</v>
@@ -6075,7 +6095,7 @@
         <v>57</v>
       </c>
       <c r="F53" s="44">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G53" s="51">
         <v>2.0499999999999998</v>
@@ -6140,7 +6160,7 @@
       <c r="AO53" s="29"/>
       <c r="AP53" s="29"/>
     </row>
-    <row r="54" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30">
         <v>53</v>
       </c>
@@ -6157,7 +6177,7 @@
         <v>69.2</v>
       </c>
       <c r="F54" s="30">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G54" s="35">
         <v>48.05</v>
@@ -6220,7 +6240,7 @@
       <c r="AO54" s="29"/>
       <c r="AP54" s="29"/>
     </row>
-    <row r="55" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30">
         <v>54</v>
       </c>
@@ -6237,7 +6257,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="F55" s="30">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G55" s="35">
         <v>59.35</v>
@@ -6302,7 +6322,7 @@
       <c r="AO55" s="29"/>
       <c r="AP55" s="29"/>
     </row>
-    <row r="56" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30">
         <v>55</v>
       </c>
@@ -6319,7 +6339,7 @@
         <v>66.3</v>
       </c>
       <c r="F56" s="30">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G56" s="35">
         <v>54.38</v>
@@ -6384,7 +6404,7 @@
       <c r="AO56" s="29"/>
       <c r="AP56" s="29"/>
     </row>
-    <row r="57" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>56</v>
       </c>
@@ -6401,7 +6421,7 @@
         <v>65.7</v>
       </c>
       <c r="F57" s="30">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="G57" s="35">
         <v>56.42</v>
@@ -6483,7 +6503,7 @@
         <v>67.5</v>
       </c>
       <c r="F58" s="30">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="G58" s="35">
         <v>49.6</v>
@@ -6548,7 +6568,7 @@
       <c r="AO58" s="29"/>
       <c r="AP58" s="29"/>
     </row>
-    <row r="59" spans="1:42" s="15" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -6565,7 +6585,7 @@
         <v>51.7</v>
       </c>
       <c r="F59" s="29">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G59" s="120">
         <v>299.60000000000002</v>
@@ -6636,7 +6656,7 @@
       <c r="AO59" s="29"/>
       <c r="AP59" s="29"/>
     </row>
-    <row r="60" spans="1:42" s="15" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -6653,7 +6673,7 @@
         <v>57.5</v>
       </c>
       <c r="F60" s="29">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="G60" s="120">
         <v>24.52</v>
@@ -6741,7 +6761,7 @@
         <v>77.8</v>
       </c>
       <c r="F61" s="37">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G61" s="43">
         <v>45.23</v>
@@ -6845,7 +6865,7 @@
         <v>78.5</v>
       </c>
       <c r="F62" s="37">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G62" s="43">
         <v>41.01</v>
@@ -6932,7 +6952,7 @@
       <c r="AO62" s="29"/>
       <c r="AP62" s="29"/>
     </row>
-    <row r="63" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -6949,7 +6969,7 @@
         <v>78.599999999999994</v>
       </c>
       <c r="F63" s="37">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G63" s="43">
         <v>42.1</v>
@@ -7034,7 +7054,7 @@
       <c r="AO63" s="29"/>
       <c r="AP63" s="29"/>
     </row>
-    <row r="64" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -7051,7 +7071,7 @@
         <v>78.2</v>
       </c>
       <c r="F64" s="37">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G64" s="43">
         <v>43.75</v>
@@ -7155,7 +7175,7 @@
         <v>78.599999999999994</v>
       </c>
       <c r="F65" s="37">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G65" s="43">
         <v>53.15</v>
@@ -7240,7 +7260,7 @@
       <c r="AO65" s="29"/>
       <c r="AP65" s="29"/>
     </row>
-    <row r="66" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -7257,7 +7277,7 @@
         <v>80.2</v>
       </c>
       <c r="F66" s="37">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G66" s="43">
         <v>40.409999999999997</v>
@@ -7342,7 +7362,7 @@
       <c r="AO66" s="29"/>
       <c r="AP66" s="29"/>
     </row>
-    <row r="67" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -7359,7 +7379,7 @@
         <v>85</v>
       </c>
       <c r="F67" s="37">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="G67" s="43">
         <v>40.409999999999997</v>
@@ -7461,7 +7481,7 @@
         <v>88.3</v>
       </c>
       <c r="F68" s="37">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G68" s="43">
         <v>41.79</v>
@@ -7563,7 +7583,7 @@
         <v>96.1</v>
       </c>
       <c r="F69" s="37">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G69" s="43">
         <v>30.15</v>
@@ -7665,7 +7685,7 @@
         <v>95.9</v>
       </c>
       <c r="F70" s="37">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G70" s="43">
         <v>28.32</v>
@@ -7767,7 +7787,7 @@
         <v>99.8</v>
       </c>
       <c r="F71" s="37">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G71" s="43">
         <v>32.86</v>
@@ -8073,7 +8093,7 @@
         <v>126.1</v>
       </c>
       <c r="F74" s="37">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G74" s="43">
         <v>21.2</v>
@@ -8175,7 +8195,7 @@
         <v>127.4</v>
       </c>
       <c r="F75" s="37">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G75" s="43">
         <v>6.65</v>
@@ -8260,7 +8280,7 @@
       <c r="AO75" s="29"/>
       <c r="AP75" s="29"/>
     </row>
-    <row r="76" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="37">
         <v>75</v>
       </c>
@@ -8277,7 +8297,7 @@
         <v>139.80000000000001</v>
       </c>
       <c r="F76" s="37">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="G76" s="43">
         <v>356.3</v>
@@ -8360,7 +8380,7 @@
       <c r="AO76" s="29"/>
       <c r="AP76" s="29"/>
     </row>
-    <row r="77" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="37">
         <v>76</v>
       </c>
@@ -8477,7 +8497,7 @@
         <v>147.69999999999999</v>
       </c>
       <c r="F78" s="37">
-        <v>690</v>
+        <v>625</v>
       </c>
       <c r="G78" s="43">
         <v>168</v>
@@ -8562,7 +8582,7 @@
       <c r="AO78" s="29"/>
       <c r="AP78" s="29"/>
     </row>
-    <row r="79" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="37">
         <v>78</v>
       </c>
@@ -8679,7 +8699,7 @@
         <v>-130</v>
       </c>
       <c r="F80" s="58">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G80" s="62">
         <v>110</v>
@@ -8742,7 +8762,7 @@
       <c r="AO80" s="29"/>
       <c r="AP80" s="29"/>
     </row>
-    <row r="81" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="111">
         <v>80</v>
       </c>
@@ -8861,37 +8881,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C83" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="113">
-        <v>-43.0261</v>
+        <v>-38.3337</v>
       </c>
       <c r="E83" s="113">
-        <v>-83.081299999999999</v>
+        <v>-93.625500000000002</v>
       </c>
       <c r="F83" s="111">
-        <v>61</v>
-      </c>
-      <c r="G83" s="117">
-        <v>79.53</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G83" s="117"/>
       <c r="H83" s="112">
-        <v>47.82</v>
-      </c>
-      <c r="I83" s="113">
-        <v>-43.314869000000002</v>
-      </c>
-      <c r="J83" s="113">
-        <v>-42.810836000000002</v>
-      </c>
-      <c r="K83" s="113">
-        <v>-83.886109000000005</v>
-      </c>
-      <c r="L83" s="113">
-        <v>-82.548794999999998</v>
+        <v>46.85</v>
       </c>
       <c r="M83" s="112"/>
       <c r="N83" s="115"/>
@@ -8899,14 +8905,12 @@
       <c r="P83" s="115"/>
       <c r="Q83" s="115"/>
       <c r="R83" s="115"/>
-      <c r="S83" s="117">
-        <v>1</v>
-      </c>
+      <c r="S83" s="117"/>
       <c r="T83" s="115"/>
-      <c r="U83" s="115"/>
-      <c r="V83" s="103"/>
-      <c r="W83" s="103"/>
-      <c r="X83" s="118"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="14"/>
       <c r="Z83" s="29"/>
       <c r="AF83" s="29"/>
       <c r="AG83" s="29"/>
@@ -8920,28 +8924,28 @@
       <c r="AO83" s="29"/>
       <c r="AP83" s="29"/>
     </row>
-    <row r="84" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="111">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C84" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="113">
-        <v>-45.895200000000003</v>
+        <v>-38.411900000000003</v>
       </c>
       <c r="E84" s="113">
-        <v>-76.369299999999996</v>
+        <v>-92.981700000000004</v>
       </c>
       <c r="F84" s="111">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G84" s="117"/>
       <c r="H84" s="112">
-        <v>48.3</v>
+        <v>46.98</v>
       </c>
       <c r="M84" s="112"/>
       <c r="N84" s="115"/>
@@ -8949,12 +8953,10 @@
       <c r="P84" s="115"/>
       <c r="Q84" s="115"/>
       <c r="R84" s="115"/>
-      <c r="S84" s="117">
-        <v>0</v>
-      </c>
+      <c r="S84" s="117"/>
       <c r="T84" s="115"/>
-      <c r="U84" s="115"/>
-      <c r="V84" s="103"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="14"/>
       <c r="Z84" s="29"/>
@@ -8970,27 +8972,42 @@
       <c r="AO84" s="29"/>
       <c r="AP84" s="29"/>
     </row>
-    <row r="85" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="111">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C85" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="113">
-        <v>-45.6952</v>
+        <v>-43.0261</v>
       </c>
       <c r="E85" s="113">
-        <v>-77.370099999999994</v>
+        <v>-83.081299999999999</v>
       </c>
       <c r="F85" s="111">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="G85" s="117">
+        <v>79.53</v>
       </c>
       <c r="H85" s="112">
-        <v>48.27</v>
+        <v>47.82</v>
+      </c>
+      <c r="I85" s="113">
+        <v>-43.314869000000002</v>
+      </c>
+      <c r="J85" s="113">
+        <v>-42.810836000000002</v>
+      </c>
+      <c r="K85" s="113">
+        <v>-83.886109000000005</v>
+      </c>
+      <c r="L85" s="113">
+        <v>-82.548794999999998</v>
       </c>
       <c r="M85" s="112"/>
       <c r="N85" s="115"/>
@@ -8999,7 +9016,7 @@
       <c r="Q85" s="115"/>
       <c r="R85" s="115"/>
       <c r="S85" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" s="115"/>
       <c r="U85" s="115"/>
@@ -9024,37 +9041,23 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C86" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="113">
-        <v>-44.6952</v>
+        <v>-45.895200000000003</v>
       </c>
       <c r="E86" s="113">
-        <v>-80.148600000000002</v>
+        <v>-76.369299999999996</v>
       </c>
       <c r="F86" s="111">
-        <v>286</v>
-      </c>
-      <c r="G86" s="117">
-        <v>78.290000000000006</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G86" s="117"/>
       <c r="H86" s="112">
-        <v>48.1</v>
-      </c>
-      <c r="I86" s="113">
-        <v>-45.288536999999998</v>
-      </c>
-      <c r="J86" s="113">
-        <v>-44.138500999999998</v>
-      </c>
-      <c r="K86" s="113">
-        <v>-82.373878000000005</v>
-      </c>
-      <c r="L86" s="113">
-        <v>-78.012844999999999</v>
+        <v>48.3</v>
       </c>
       <c r="M86" s="112"/>
       <c r="N86" s="115"/>
@@ -9063,13 +9066,13 @@
       <c r="Q86" s="115"/>
       <c r="R86" s="115"/>
       <c r="S86" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="115"/>
       <c r="U86" s="115"/>
       <c r="V86" s="103"/>
-      <c r="W86" s="103"/>
-      <c r="X86" s="118"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="14"/>
       <c r="Z86" s="29"/>
       <c r="AF86" s="29"/>
       <c r="AG86" s="29"/>
@@ -9083,27 +9086,27 @@
       <c r="AO86" s="29"/>
       <c r="AP86" s="29"/>
     </row>
-    <row r="87" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="111">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="100" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="C87" s="72" t="s">
+        <v>20</v>
       </c>
       <c r="D87" s="113">
-        <v>-10.0862</v>
+        <v>-45.6952</v>
       </c>
       <c r="E87" s="113">
-        <v>66.558599999999998</v>
+        <v>-77.370099999999994</v>
       </c>
       <c r="F87" s="111">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H87" s="112">
-        <v>30.95</v>
+        <v>48.27</v>
       </c>
       <c r="M87" s="112"/>
       <c r="N87" s="115"/>
@@ -9132,27 +9135,42 @@
       <c r="AO87" s="29"/>
       <c r="AP87" s="29"/>
     </row>
-    <row r="88" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="111">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="100" t="s">
-        <v>13</v>
+        <v>132</v>
+      </c>
+      <c r="C88" s="72" t="s">
+        <v>20</v>
       </c>
       <c r="D88" s="113">
-        <v>-16.2942</v>
+        <v>-44.6952</v>
       </c>
       <c r="E88" s="113">
-        <v>66.973799999999997</v>
+        <v>-80.148600000000002</v>
       </c>
       <c r="F88" s="111">
-        <v>110</v>
+        <v>286</v>
+      </c>
+      <c r="G88" s="117">
+        <v>78.290000000000006</v>
       </c>
       <c r="H88" s="112">
-        <v>35.58</v>
+        <v>48.1</v>
+      </c>
+      <c r="I88" s="113">
+        <v>-45.288536999999998</v>
+      </c>
+      <c r="J88" s="113">
+        <v>-44.138500999999998</v>
+      </c>
+      <c r="K88" s="113">
+        <v>-82.373878000000005</v>
+      </c>
+      <c r="L88" s="113">
+        <v>-78.012844999999999</v>
       </c>
       <c r="M88" s="112"/>
       <c r="N88" s="115"/>
@@ -9161,7 +9179,7 @@
       <c r="Q88" s="115"/>
       <c r="R88" s="115"/>
       <c r="S88" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" s="115"/>
       <c r="U88" s="115"/>
@@ -9181,28 +9199,27 @@
       <c r="AO88" s="29"/>
       <c r="AP88" s="29"/>
     </row>
-    <row r="89" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="111">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C89" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="113">
-        <v>-1.1860999999999999</v>
+        <v>-10.0862</v>
       </c>
       <c r="E89" s="113">
-        <v>67.523200000000003</v>
+        <v>66.558599999999998</v>
       </c>
       <c r="F89" s="111">
-        <v>50</v>
-      </c>
-      <c r="G89" s="117"/>
+        <v>76</v>
+      </c>
       <c r="H89" s="112">
-        <v>29.87</v>
+        <v>30.95</v>
       </c>
       <c r="M89" s="112"/>
       <c r="N89" s="115"/>
@@ -9231,28 +9248,27 @@
       <c r="AO89" s="29"/>
       <c r="AP89" s="29"/>
     </row>
-    <row r="90" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="111">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C90" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="113">
-        <v>-4.7309000000000001</v>
+        <v>-16.2942</v>
       </c>
       <c r="E90" s="113">
-        <v>68.5886</v>
+        <v>66.973799999999997</v>
       </c>
       <c r="F90" s="111">
-        <v>49</v>
-      </c>
-      <c r="G90" s="117"/>
+        <v>110</v>
+      </c>
       <c r="H90" s="112">
-        <v>31</v>
+        <v>35.58</v>
       </c>
       <c r="M90" s="112"/>
       <c r="N90" s="115"/>
@@ -9281,28 +9297,28 @@
       <c r="AO90" s="29"/>
       <c r="AP90" s="29"/>
     </row>
-    <row r="91" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="111">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C91" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="113">
-        <v>-6.8331</v>
+        <v>-1.1860999999999999</v>
       </c>
       <c r="E91" s="113">
-        <v>68.237799999999993</v>
+        <v>67.523200000000003</v>
       </c>
       <c r="F91" s="111">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G91" s="117"/>
       <c r="H91" s="112">
-        <v>31.35</v>
+        <v>29.87</v>
       </c>
       <c r="M91" s="112"/>
       <c r="N91" s="115"/>
@@ -9331,28 +9347,28 @@
       <c r="AO91" s="29"/>
       <c r="AP91" s="29"/>
     </row>
-    <row r="92" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="111">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C92" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="113">
-        <v>-7.6132999999999997</v>
+        <v>-4.7309000000000001</v>
       </c>
       <c r="E92" s="113">
-        <v>68.079400000000007</v>
+        <v>68.5886</v>
       </c>
       <c r="F92" s="111">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G92" s="117"/>
       <c r="H92" s="112">
-        <v>30.17</v>
+        <v>31</v>
       </c>
       <c r="M92" s="112"/>
       <c r="N92" s="115"/>
@@ -9381,28 +9397,28 @@
       <c r="AO92" s="29"/>
       <c r="AP92" s="29"/>
     </row>
-    <row r="93" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="111">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="113">
-        <v>-20.134699999999999</v>
+        <v>-6.8331</v>
       </c>
       <c r="E93" s="113">
-        <v>66.579499999999996</v>
+        <v>68.237799999999993</v>
       </c>
       <c r="F93" s="111">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="G93" s="117"/>
       <c r="H93" s="112">
-        <v>38.130000000000003</v>
+        <v>31.35</v>
       </c>
       <c r="M93" s="112"/>
       <c r="N93" s="115"/>
@@ -9431,28 +9447,28 @@
       <c r="AO93" s="29"/>
       <c r="AP93" s="29"/>
     </row>
-    <row r="94" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="111">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="113">
-        <v>-20.244700000000002</v>
+        <v>-7.6132999999999997</v>
       </c>
       <c r="E94" s="113">
-        <v>67.259799999999998</v>
+        <v>68.079400000000007</v>
       </c>
       <c r="F94" s="111">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G94" s="117"/>
       <c r="H94" s="112">
-        <v>38.479999999999997</v>
+        <v>30.17</v>
       </c>
       <c r="M94" s="112"/>
       <c r="N94" s="115"/>
@@ -9481,28 +9497,28 @@
       <c r="AO94" s="29"/>
       <c r="AP94" s="29"/>
     </row>
-    <row r="95" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="111">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="113">
-        <v>-3.0415000000000001</v>
+        <v>-20.134699999999999</v>
       </c>
       <c r="E95" s="113">
-        <v>68.121200000000002</v>
+        <v>66.579499999999996</v>
       </c>
       <c r="F95" s="111">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G95" s="117"/>
       <c r="H95" s="112">
-        <v>30.48</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="M95" s="112"/>
       <c r="N95" s="115"/>
@@ -9531,28 +9547,28 @@
       <c r="AO95" s="29"/>
       <c r="AP95" s="29"/>
     </row>
-    <row r="96" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="111">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="113">
-        <v>-3.8788999999999998</v>
+        <v>-20.244700000000002</v>
       </c>
       <c r="E96" s="113">
-        <v>68.474000000000004</v>
+        <v>67.259799999999998</v>
       </c>
       <c r="F96" s="111">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G96" s="117"/>
       <c r="H96" s="112">
-        <v>30.78</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="M96" s="112"/>
       <c r="N96" s="115"/>
@@ -9581,28 +9597,28 @@
       <c r="AO96" s="29"/>
       <c r="AP96" s="29"/>
     </row>
-    <row r="97" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="111">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C97" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="113">
-        <v>-5.6877000000000004</v>
+        <v>-3.0415000000000001</v>
       </c>
       <c r="E97" s="113">
-        <v>68.368499999999997</v>
+        <v>68.121200000000002</v>
       </c>
       <c r="F97" s="111">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="G97" s="117"/>
       <c r="H97" s="112">
-        <v>31.14</v>
+        <v>30.48</v>
       </c>
       <c r="M97" s="112"/>
       <c r="N97" s="115"/>
@@ -9636,37 +9652,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="80" t="s">
-        <v>22</v>
+        <v>142</v>
+      </c>
+      <c r="C98" s="100" t="s">
+        <v>13</v>
       </c>
       <c r="D98" s="113">
-        <v>24.242999999999999</v>
+        <v>-3.8788999999999998</v>
       </c>
       <c r="E98" s="113">
-        <v>-109.04810000000001</v>
+        <v>68.474000000000004</v>
       </c>
       <c r="F98" s="111">
-        <v>124</v>
-      </c>
-      <c r="G98" s="117">
-        <v>128.22</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G98" s="117"/>
       <c r="H98" s="112">
-        <v>50.37</v>
-      </c>
-      <c r="I98" s="113">
-        <v>24.094611</v>
-      </c>
-      <c r="J98" s="113">
-        <v>24.491913</v>
-      </c>
-      <c r="K98" s="113">
-        <v>-109.44328</v>
-      </c>
-      <c r="L98" s="113">
-        <v>-108.085868</v>
+        <v>30.78</v>
       </c>
       <c r="M98" s="112"/>
       <c r="N98" s="115"/>
@@ -9675,7 +9677,7 @@
       <c r="Q98" s="115"/>
       <c r="R98" s="115"/>
       <c r="S98" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" s="115"/>
       <c r="U98" s="115"/>
@@ -9700,37 +9702,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="80" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="C99" s="100" t="s">
+        <v>13</v>
       </c>
       <c r="D99" s="113">
-        <v>24.983699999999999</v>
+        <v>-5.6877000000000004</v>
       </c>
       <c r="E99" s="113">
-        <v>-109.517</v>
+        <v>68.368499999999997</v>
       </c>
       <c r="F99" s="111">
-        <v>119</v>
-      </c>
-      <c r="G99" s="117">
-        <v>127.26</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G99" s="117"/>
       <c r="H99" s="112">
-        <v>49.85</v>
-      </c>
-      <c r="I99" s="113">
-        <v>24.402274999999999</v>
-      </c>
-      <c r="J99" s="113">
-        <v>25.497565999999999</v>
-      </c>
-      <c r="K99" s="113">
-        <v>-110.06993799999999</v>
-      </c>
-      <c r="L99" s="113">
-        <v>-108.802103</v>
+        <v>31.14</v>
       </c>
       <c r="M99" s="112"/>
       <c r="N99" s="115"/>
@@ -9739,7 +9727,7 @@
       <c r="Q99" s="115"/>
       <c r="R99" s="115"/>
       <c r="S99" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" s="115"/>
       <c r="U99" s="115"/>
@@ -9764,37 +9752,37 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="113">
-        <v>23.077999999999999</v>
+        <v>24.242999999999999</v>
       </c>
       <c r="E100" s="113">
-        <v>-108.3355</v>
+        <v>-109.04810000000001</v>
       </c>
       <c r="F100" s="111">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="G100" s="117">
-        <v>119.24</v>
+        <v>128.22</v>
       </c>
       <c r="H100" s="112">
-        <v>50.95</v>
+        <v>50.37</v>
       </c>
       <c r="I100" s="113">
-        <v>22.592437</v>
+        <v>24.094611</v>
       </c>
       <c r="J100" s="113">
-        <v>23.399840999999999</v>
+        <v>24.491913</v>
       </c>
       <c r="K100" s="113">
-        <v>-108.85167300000001</v>
+        <v>-109.44328</v>
       </c>
       <c r="L100" s="113">
-        <v>-107.840991</v>
+        <v>-108.085868</v>
       </c>
       <c r="M100" s="112"/>
       <c r="N100" s="115"/>
@@ -9828,37 +9816,37 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C101" s="125" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>22</v>
       </c>
       <c r="D101" s="113">
-        <v>40.3735</v>
+        <v>24.983699999999999</v>
       </c>
       <c r="E101" s="113">
-        <v>-126.039</v>
+        <v>-109.517</v>
       </c>
       <c r="F101" s="111">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="G101" s="117">
-        <v>89.51</v>
+        <v>127.26</v>
       </c>
       <c r="H101" s="112">
-        <v>49.48</v>
+        <v>49.85</v>
       </c>
       <c r="I101" s="113">
-        <v>40.137867999999997</v>
+        <v>24.402274999999999</v>
       </c>
       <c r="J101" s="113">
-        <v>40.497298000000001</v>
+        <v>25.497565999999999</v>
       </c>
       <c r="K101" s="113">
-        <v>-129.78747300000001</v>
+        <v>-110.06993799999999</v>
       </c>
       <c r="L101" s="113">
-        <v>-124.41086</v>
+        <v>-108.802103</v>
       </c>
       <c r="M101" s="112"/>
       <c r="N101" s="115"/>
@@ -9887,28 +9875,42 @@
       <c r="AO101" s="29"/>
       <c r="AP101" s="29"/>
     </row>
-    <row r="102" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="111">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>34</v>
+        <v>146</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>22</v>
       </c>
       <c r="D102" s="113">
-        <v>-12.2462</v>
+        <v>23.077999999999999</v>
       </c>
       <c r="E102" s="113">
-        <v>-14.5907</v>
+        <v>-108.3355</v>
       </c>
       <c r="F102" s="111">
-        <v>56</v>
-      </c>
-      <c r="G102" s="117"/>
+        <v>65</v>
+      </c>
+      <c r="G102" s="117">
+        <v>119.24</v>
+      </c>
       <c r="H102" s="112">
-        <v>30.02</v>
+        <v>50.95</v>
+      </c>
+      <c r="I102" s="113">
+        <v>22.592437</v>
+      </c>
+      <c r="J102" s="113">
+        <v>23.399840999999999</v>
+      </c>
+      <c r="K102" s="113">
+        <v>-108.85167300000001</v>
+      </c>
+      <c r="L102" s="113">
+        <v>-107.840991</v>
       </c>
       <c r="M102" s="112"/>
       <c r="N102" s="115"/>
@@ -9917,7 +9919,7 @@
       <c r="Q102" s="115"/>
       <c r="R102" s="115"/>
       <c r="S102" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" s="115"/>
       <c r="U102" s="115"/>
@@ -9937,28 +9939,42 @@
       <c r="AO102" s="29"/>
       <c r="AP102" s="29"/>
     </row>
-    <row r="103" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="111">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>34</v>
+        <v>147</v>
+      </c>
+      <c r="C103" s="125" t="s">
+        <v>148</v>
       </c>
       <c r="D103" s="113">
-        <v>-39.790999999999997</v>
+        <v>40.3735</v>
       </c>
       <c r="E103" s="113">
-        <v>-16.229900000000001</v>
+        <v>-126.039</v>
       </c>
       <c r="F103" s="111">
-        <v>56</v>
-      </c>
-      <c r="G103" s="117"/>
-      <c r="H103" s="113">
-        <v>28.98</v>
+        <v>237</v>
+      </c>
+      <c r="G103" s="117">
+        <v>89.51</v>
+      </c>
+      <c r="H103" s="112">
+        <v>49.48</v>
+      </c>
+      <c r="I103" s="113">
+        <v>40.137867999999997</v>
+      </c>
+      <c r="J103" s="113">
+        <v>40.497298000000001</v>
+      </c>
+      <c r="K103" s="113">
+        <v>-129.78747300000001</v>
+      </c>
+      <c r="L103" s="113">
+        <v>-124.41086</v>
       </c>
       <c r="M103" s="112"/>
       <c r="N103" s="115"/>
@@ -9967,7 +9983,7 @@
       <c r="Q103" s="115"/>
       <c r="R103" s="115"/>
       <c r="S103" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T103" s="115"/>
       <c r="U103" s="115"/>
@@ -9987,28 +10003,28 @@
       <c r="AO103" s="29"/>
       <c r="AP103" s="29"/>
     </row>
-    <row r="104" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="111">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="113">
-        <v>-17.721</v>
+        <v>-12.2462</v>
       </c>
       <c r="E104" s="113">
-        <v>-13.3749</v>
+        <v>-14.5907</v>
       </c>
       <c r="F104" s="111">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="G104" s="117"/>
       <c r="H104" s="112">
-        <v>30.34</v>
+        <v>30.02</v>
       </c>
       <c r="M104" s="112"/>
       <c r="N104" s="115"/>
@@ -10037,28 +10053,28 @@
       <c r="AO104" s="29"/>
       <c r="AP104" s="29"/>
     </row>
-    <row r="105" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="111">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C105" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D105" s="113">
-        <v>-21.23</v>
+        <v>-39.790999999999997</v>
       </c>
       <c r="E105" s="113">
-        <v>-11.718999999999999</v>
+        <v>-16.229900000000001</v>
       </c>
       <c r="F105" s="111">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G105" s="117"/>
-      <c r="H105" s="112">
-        <v>30.4</v>
+      <c r="H105" s="113">
+        <v>28.98</v>
       </c>
       <c r="M105" s="112"/>
       <c r="N105" s="115"/>
@@ -10092,37 +10108,23 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D106" s="113">
-        <v>-22.815799999999999</v>
+        <v>-17.721</v>
       </c>
       <c r="E106" s="113">
-        <v>-13.258800000000001</v>
+        <v>-13.3749</v>
       </c>
       <c r="F106" s="111">
-        <v>193</v>
-      </c>
-      <c r="G106" s="117">
-        <v>79.150000000000006</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G106" s="117"/>
       <c r="H106" s="112">
-        <v>30.4</v>
-      </c>
-      <c r="I106" s="113">
-        <v>-23.027025999999999</v>
-      </c>
-      <c r="J106" s="113">
-        <v>-22.608485999999999</v>
-      </c>
-      <c r="K106" s="113">
-        <v>-13.755476</v>
-      </c>
-      <c r="L106" s="113">
-        <v>-12.727986</v>
+        <v>30.34</v>
       </c>
       <c r="M106" s="112"/>
       <c r="N106" s="115"/>
@@ -10131,7 +10133,7 @@
       <c r="Q106" s="115"/>
       <c r="R106" s="115"/>
       <c r="S106" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T106" s="115"/>
       <c r="U106" s="115"/>
@@ -10156,37 +10158,23 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C107" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="113">
-        <v>-25.658200000000001</v>
+        <v>-21.23</v>
       </c>
       <c r="E107" s="113">
-        <v>-13.742599999999999</v>
+        <v>-11.718999999999999</v>
       </c>
       <c r="F107" s="111">
-        <v>39</v>
-      </c>
-      <c r="G107" s="117">
-        <v>82.46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G107" s="117"/>
       <c r="H107" s="112">
-        <v>30.32</v>
-      </c>
-      <c r="I107" s="113">
-        <v>-25.869555999999999</v>
-      </c>
-      <c r="J107" s="113">
-        <v>-25.351098</v>
-      </c>
-      <c r="K107" s="113">
-        <v>-14.031795000000001</v>
-      </c>
-      <c r="L107" s="113">
-        <v>-12.645614</v>
+        <v>30.4</v>
       </c>
       <c r="M107" s="112"/>
       <c r="N107" s="115"/>
@@ -10195,7 +10183,7 @@
       <c r="Q107" s="115"/>
       <c r="R107" s="115"/>
       <c r="S107" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T107" s="115"/>
       <c r="U107" s="115"/>
@@ -10220,37 +10208,37 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="113">
-        <v>-24.898499999999999</v>
+        <v>-22.815799999999999</v>
       </c>
       <c r="E108" s="113">
-        <v>-13.552</v>
+        <v>-13.258800000000001</v>
       </c>
       <c r="F108" s="111">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G108" s="117">
-        <v>77.23</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="H108" s="112">
-        <v>30.35</v>
+        <v>30.4</v>
       </c>
       <c r="I108" s="113">
-        <v>-25.01951</v>
+        <v>-23.027025999999999</v>
       </c>
       <c r="J108" s="113">
-        <v>-24.786788000000001</v>
+        <v>-22.608485999999999</v>
       </c>
       <c r="K108" s="113">
-        <v>-13.802485000000001</v>
+        <v>-13.755476</v>
       </c>
       <c r="L108" s="113">
-        <v>-13.404313999999999</v>
+        <v>-12.727986</v>
       </c>
       <c r="M108" s="112"/>
       <c r="N108" s="115"/>
@@ -10284,37 +10272,37 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D109" s="113">
-        <v>-29.7608</v>
+        <v>-25.658200000000001</v>
       </c>
       <c r="E109" s="113">
-        <v>-13.7662</v>
+        <v>-13.742599999999999</v>
       </c>
       <c r="F109" s="111">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G109" s="117">
-        <v>80.44</v>
+        <v>82.46</v>
       </c>
       <c r="H109" s="112">
-        <v>30.1</v>
+        <v>30.32</v>
       </c>
       <c r="I109" s="113">
-        <v>-29.873222999999999</v>
+        <v>-25.869555999999999</v>
       </c>
       <c r="J109" s="113">
-        <v>-29.632574000000002</v>
+        <v>-25.351098</v>
       </c>
       <c r="K109" s="113">
-        <v>-14.011687999999999</v>
+        <v>-14.031795000000001</v>
       </c>
       <c r="L109" s="113">
-        <v>-13.542899999999999</v>
+        <v>-12.645614</v>
       </c>
       <c r="M109" s="112"/>
       <c r="N109" s="115"/>
@@ -10348,37 +10336,37 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C110" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D110" s="113">
-        <v>-29.191299999999998</v>
+        <v>-24.898499999999999</v>
       </c>
       <c r="E110" s="113">
-        <v>-13.4457</v>
+        <v>-13.552</v>
       </c>
       <c r="F110" s="111">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="G110" s="117">
-        <v>79.959999999999994</v>
+        <v>77.23</v>
       </c>
       <c r="H110" s="112">
-        <v>30.14</v>
+        <v>30.35</v>
       </c>
       <c r="I110" s="113">
-        <v>-29.347930999999999</v>
+        <v>-25.01951</v>
       </c>
       <c r="J110" s="113">
-        <v>-29.015419000000001</v>
+        <v>-24.786788000000001</v>
       </c>
       <c r="K110" s="113">
-        <v>-13.859335</v>
+        <v>-13.802485000000001</v>
       </c>
       <c r="L110" s="113">
-        <v>-12.938413000000001</v>
+        <v>-13.404313999999999</v>
       </c>
       <c r="M110" s="112"/>
       <c r="N110" s="115"/>
@@ -10412,37 +10400,37 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="113">
-        <v>-32.497700000000002</v>
+        <v>-29.7608</v>
       </c>
       <c r="E111" s="113">
-        <v>-14.4246</v>
+        <v>-13.7662</v>
       </c>
       <c r="F111" s="111">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="G111" s="117">
-        <v>79.66</v>
+        <v>80.44</v>
       </c>
       <c r="H111" s="112">
-        <v>29.89</v>
+        <v>30.1</v>
       </c>
       <c r="I111" s="113">
-        <v>-32.694743000000003</v>
+        <v>-29.873222999999999</v>
       </c>
       <c r="J111" s="113">
-        <v>-31.958203999999999</v>
+        <v>-29.632574000000002</v>
       </c>
       <c r="K111" s="113">
-        <v>-14.817643</v>
+        <v>-14.011687999999999</v>
       </c>
       <c r="L111" s="113">
-        <v>-13.252698000000001</v>
+        <v>-13.542899999999999</v>
       </c>
       <c r="M111" s="112"/>
       <c r="N111" s="115"/>
@@ -10476,37 +10464,37 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C112" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D112" s="113">
-        <v>-34.160499999999999</v>
+        <v>-29.191299999999998</v>
       </c>
       <c r="E112" s="113">
-        <v>-14.8348</v>
+        <v>-13.4457</v>
       </c>
       <c r="F112" s="111">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="G112" s="117">
-        <v>78.989999999999995</v>
+        <v>79.959999999999994</v>
       </c>
       <c r="H112" s="112">
-        <v>29.71</v>
+        <v>30.14</v>
       </c>
       <c r="I112" s="113">
-        <v>-34.370764000000001</v>
+        <v>-29.347930999999999</v>
       </c>
       <c r="J112" s="113">
-        <v>-33.958728000000001</v>
+        <v>-29.015419000000001</v>
       </c>
       <c r="K112" s="113">
-        <v>-14.917623000000001</v>
+        <v>-13.859335</v>
       </c>
       <c r="L112" s="113">
-        <v>-14.280203</v>
+        <v>-12.938413000000001</v>
       </c>
       <c r="M112" s="112"/>
       <c r="N112" s="115"/>
@@ -10535,28 +10523,42 @@
       <c r="AO112" s="29"/>
       <c r="AP112" s="29"/>
     </row>
-    <row r="113" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="111">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C113" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D113" s="113">
-        <v>-35.396299999999997</v>
+        <v>-32.497700000000002</v>
       </c>
       <c r="E113" s="113">
-        <v>-16.511900000000001</v>
+        <v>-14.4246</v>
       </c>
       <c r="F113" s="111">
-        <v>250</v>
-      </c>
-      <c r="G113" s="117"/>
+        <v>109</v>
+      </c>
+      <c r="G113" s="117">
+        <v>79.66</v>
+      </c>
       <c r="H113" s="112">
-        <v>29.6</v>
+        <v>29.89</v>
+      </c>
+      <c r="I113" s="113">
+        <v>-32.694743000000003</v>
+      </c>
+      <c r="J113" s="113">
+        <v>-31.958203999999999</v>
+      </c>
+      <c r="K113" s="113">
+        <v>-14.817643</v>
+      </c>
+      <c r="L113" s="113">
+        <v>-13.252698000000001</v>
       </c>
       <c r="M113" s="112"/>
       <c r="N113" s="115"/>
@@ -10565,7 +10567,7 @@
       <c r="Q113" s="115"/>
       <c r="R113" s="115"/>
       <c r="S113" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" s="115"/>
       <c r="U113" s="115"/>
@@ -10585,28 +10587,42 @@
       <c r="AO113" s="29"/>
       <c r="AP113" s="29"/>
     </row>
-    <row r="114" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="111">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D114" s="113">
-        <v>-40.350299999999997</v>
+        <v>-34.160499999999999</v>
       </c>
       <c r="E114" s="113">
-        <v>-16.639199999999999</v>
+        <v>-14.8348</v>
       </c>
       <c r="F114" s="111">
-        <v>40</v>
-      </c>
-      <c r="G114" s="117"/>
+        <v>69</v>
+      </c>
+      <c r="G114" s="117">
+        <v>78.989999999999995</v>
+      </c>
       <c r="H114" s="112">
-        <v>28.9</v>
+        <v>29.71</v>
+      </c>
+      <c r="I114" s="113">
+        <v>-34.370764000000001</v>
+      </c>
+      <c r="J114" s="113">
+        <v>-33.958728000000001</v>
+      </c>
+      <c r="K114" s="113">
+        <v>-14.917623000000001</v>
+      </c>
+      <c r="L114" s="113">
+        <v>-14.280203</v>
       </c>
       <c r="M114" s="112"/>
       <c r="N114" s="115"/>
@@ -10615,7 +10631,7 @@
       <c r="Q114" s="115"/>
       <c r="R114" s="115"/>
       <c r="S114" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" s="115"/>
       <c r="U114" s="115"/>
@@ -10635,28 +10651,28 @@
       <c r="AO114" s="29"/>
       <c r="AP114" s="29"/>
     </row>
-    <row r="115" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="111">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D115" s="113">
-        <v>-49.126600000000003</v>
+        <v>-35.396299999999997</v>
       </c>
       <c r="E115" s="113">
-        <v>-9.1361000000000008</v>
+        <v>-16.511900000000001</v>
       </c>
       <c r="F115" s="111">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G115" s="117"/>
       <c r="H115" s="112">
-        <v>26.9</v>
+        <v>29.6</v>
       </c>
       <c r="M115" s="112"/>
       <c r="N115" s="115"/>
@@ -10685,28 +10701,28 @@
       <c r="AO115" s="29"/>
       <c r="AP115" s="29"/>
     </row>
-    <row r="116" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="111">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D116" s="113">
-        <v>-5.0358000000000001</v>
+        <v>-40.350299999999997</v>
       </c>
       <c r="E116" s="113">
-        <v>-11.9376</v>
+        <v>-16.639199999999999</v>
       </c>
       <c r="F116" s="111">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="G116" s="117"/>
       <c r="H116" s="112">
-        <v>29.27</v>
+        <v>28.9</v>
       </c>
       <c r="M116" s="112"/>
       <c r="N116" s="115"/>
@@ -10740,37 +10756,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C117" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D117" s="113">
-        <v>12.6388</v>
+        <v>-49.126600000000003</v>
       </c>
       <c r="E117" s="113">
-        <v>-44.4649</v>
+        <v>-9.1361000000000008</v>
       </c>
       <c r="F117" s="111">
-        <v>88</v>
-      </c>
-      <c r="G117" s="117">
-        <v>93.84</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G117" s="117"/>
       <c r="H117" s="112">
-        <v>24.41</v>
-      </c>
-      <c r="I117" s="113">
-        <v>12.566572000000001</v>
-      </c>
-      <c r="J117" s="113">
-        <v>12.719567</v>
-      </c>
-      <c r="K117" s="113">
-        <v>-44.921723999999998</v>
-      </c>
-      <c r="L117" s="113">
-        <v>-43.766984999999998</v>
+        <v>26.9</v>
       </c>
       <c r="M117" s="112"/>
       <c r="N117" s="115"/>
@@ -10779,7 +10781,7 @@
       <c r="Q117" s="115"/>
       <c r="R117" s="115"/>
       <c r="S117" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T117" s="115"/>
       <c r="U117" s="115"/>
@@ -10804,37 +10806,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C118" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D118" s="113">
-        <v>-28.230599999999999</v>
+        <v>-5.0358000000000001</v>
       </c>
       <c r="E118" s="113">
-        <v>-12.9412</v>
+        <v>-11.9376</v>
       </c>
       <c r="F118" s="111">
-        <v>57</v>
-      </c>
-      <c r="G118" s="117">
-        <v>78.819999999999993</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G118" s="117"/>
       <c r="H118" s="112">
-        <v>30.19</v>
-      </c>
-      <c r="I118" s="113">
-        <v>-28.424333000000001</v>
-      </c>
-      <c r="J118" s="113">
-        <v>-28.046081000000001</v>
-      </c>
-      <c r="K118" s="113">
-        <v>-13.302659999999999</v>
-      </c>
-      <c r="L118" s="113">
-        <v>-12.521929999999999</v>
+        <v>29.27</v>
       </c>
       <c r="M118" s="112"/>
       <c r="N118" s="115"/>
@@ -10843,7 +10831,7 @@
       <c r="Q118" s="115"/>
       <c r="R118" s="115"/>
       <c r="S118" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" s="115"/>
       <c r="U118" s="115"/>
@@ -10868,37 +10856,37 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D119" s="113">
-        <v>3.9422999999999999</v>
+        <v>12.6388</v>
       </c>
       <c r="E119" s="113">
-        <v>-32.078699999999998</v>
+        <v>-44.4649</v>
       </c>
       <c r="F119" s="111">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G119" s="117">
-        <v>86.16</v>
+        <v>93.84</v>
       </c>
       <c r="H119" s="112">
-        <v>26.96</v>
+        <v>24.41</v>
       </c>
       <c r="I119" s="113">
-        <v>3.6907109999999999</v>
+        <v>12.566572000000001</v>
       </c>
       <c r="J119" s="113">
-        <v>4.1168329999999997</v>
+        <v>12.719567</v>
       </c>
       <c r="K119" s="113">
-        <v>-32.739522999999998</v>
+        <v>-44.921723999999998</v>
       </c>
       <c r="L119" s="113">
-        <v>-31.558160000000001</v>
+        <v>-43.766984999999998</v>
       </c>
       <c r="M119" s="112"/>
       <c r="N119" s="115"/>
@@ -10927,28 +10915,42 @@
       <c r="AO119" s="29"/>
       <c r="AP119" s="29"/>
     </row>
-    <row r="120" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="111">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="113">
-        <v>-16.253599999999999</v>
+        <v>-28.230599999999999</v>
       </c>
       <c r="E120" s="113">
-        <v>-13.749499999999999</v>
+        <v>-12.9412</v>
       </c>
       <c r="F120" s="111">
-        <v>123</v>
-      </c>
-      <c r="G120" s="117"/>
+        <v>57</v>
+      </c>
+      <c r="G120" s="117">
+        <v>78.819999999999993</v>
+      </c>
       <c r="H120" s="112">
-        <v>30.28</v>
+        <v>30.19</v>
+      </c>
+      <c r="I120" s="113">
+        <v>-28.424333000000001</v>
+      </c>
+      <c r="J120" s="113">
+        <v>-28.046081000000001</v>
+      </c>
+      <c r="K120" s="113">
+        <v>-13.302659999999999</v>
+      </c>
+      <c r="L120" s="113">
+        <v>-12.521929999999999</v>
       </c>
       <c r="M120" s="112"/>
       <c r="N120" s="115"/>
@@ -10957,7 +10959,7 @@
       <c r="Q120" s="115"/>
       <c r="R120" s="115"/>
       <c r="S120" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120" s="115"/>
       <c r="U120" s="115"/>
@@ -10977,28 +10979,42 @@
       <c r="AO120" s="29"/>
       <c r="AP120" s="29"/>
     </row>
-    <row r="121" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="111">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C121" s="90" t="s">
-        <v>51</v>
+        <v>166</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D121" s="113">
-        <v>-59.645899999999997</v>
+        <v>3.9422999999999999</v>
       </c>
       <c r="E121" s="113">
-        <v>-150.852</v>
+        <v>-32.078699999999998</v>
       </c>
       <c r="F121" s="111">
-        <v>56</v>
-      </c>
-      <c r="G121" s="117"/>
+        <v>108</v>
+      </c>
+      <c r="G121" s="117">
+        <v>86.16</v>
+      </c>
       <c r="H121" s="112">
-        <v>68.94</v>
+        <v>26.96</v>
+      </c>
+      <c r="I121" s="113">
+        <v>3.6907109999999999</v>
+      </c>
+      <c r="J121" s="113">
+        <v>4.1168329999999997</v>
+      </c>
+      <c r="K121" s="113">
+        <v>-32.739522999999998</v>
+      </c>
+      <c r="L121" s="113">
+        <v>-31.558160000000001</v>
       </c>
       <c r="M121" s="112"/>
       <c r="N121" s="115"/>
@@ -11007,7 +11023,7 @@
       <c r="Q121" s="115"/>
       <c r="R121" s="115"/>
       <c r="S121" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121" s="115"/>
       <c r="U121" s="115"/>
@@ -11027,28 +11043,28 @@
       <c r="AO121" s="29"/>
       <c r="AP121" s="29"/>
     </row>
-    <row r="122" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="111">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122" s="90" t="s">
-        <v>51</v>
+        <v>167</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D122" s="113">
-        <v>-57.625100000000003</v>
+        <v>-16.253599999999999</v>
       </c>
       <c r="E122" s="113">
-        <v>-147.495</v>
+        <v>-13.749499999999999</v>
       </c>
       <c r="F122" s="111">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="G122" s="117"/>
       <c r="H122" s="112">
-        <v>71.900000000000006</v>
+        <v>30.28</v>
       </c>
       <c r="M122" s="112"/>
       <c r="N122" s="115"/>
@@ -11077,27 +11093,28 @@
       <c r="AO122" s="29"/>
       <c r="AP122" s="29"/>
     </row>
-    <row r="123" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="111">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C123" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D123" s="113">
-        <v>-61.7789</v>
+        <v>-59.645899999999997</v>
       </c>
       <c r="E123" s="113">
-        <v>161.50450000000001</v>
+        <v>-150.852</v>
       </c>
       <c r="F123" s="111">
-        <v>77</v>
-      </c>
-      <c r="H123" s="113">
-        <v>45.98</v>
+        <v>56</v>
+      </c>
+      <c r="G123" s="117"/>
+      <c r="H123" s="112">
+        <v>68.94</v>
       </c>
       <c r="M123" s="112"/>
       <c r="N123" s="115"/>
@@ -11126,28 +11143,28 @@
       <c r="AO123" s="29"/>
       <c r="AP123" s="29"/>
     </row>
-    <row r="124" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="111">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C124" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="113">
-        <v>-62.095599999999997</v>
+        <v>-57.625100000000003</v>
       </c>
       <c r="E124" s="113">
-        <v>163.35849999999999</v>
+        <v>-147.495</v>
       </c>
       <c r="F124" s="111">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G124" s="117"/>
       <c r="H124" s="112">
-        <v>46.71</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="M124" s="112"/>
       <c r="N124" s="115"/>
@@ -11176,28 +11193,27 @@
       <c r="AO124" s="29"/>
       <c r="AP124" s="29"/>
     </row>
-    <row r="125" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="111">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C125" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D125" s="113">
-        <v>-62.383499999999998</v>
+        <v>-61.7789</v>
       </c>
       <c r="E125" s="113">
-        <v>165.46100000000001</v>
+        <v>161.50450000000001</v>
       </c>
       <c r="F125" s="111">
-        <v>89</v>
-      </c>
-      <c r="G125" s="117"/>
-      <c r="H125" s="112">
-        <v>47.58</v>
+        <v>77</v>
+      </c>
+      <c r="H125" s="113">
+        <v>45.98</v>
       </c>
       <c r="M125" s="112"/>
       <c r="N125" s="115"/>
@@ -11231,37 +11247,23 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C126" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D126" s="113">
-        <v>-64.5321</v>
+        <v>-62.095599999999997</v>
       </c>
       <c r="E126" s="113">
-        <v>-170.779</v>
+        <v>163.35849999999999</v>
       </c>
       <c r="F126" s="111">
-        <v>71</v>
-      </c>
-      <c r="G126" s="117">
-        <v>135.78</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G126" s="117"/>
       <c r="H126" s="112">
-        <v>56.74</v>
-      </c>
-      <c r="I126" s="113">
-        <v>-64.412834000000004</v>
-      </c>
-      <c r="J126" s="113">
-        <v>-64.114982999999995</v>
-      </c>
-      <c r="K126" s="113">
-        <v>-171.91574</v>
-      </c>
-      <c r="L126" s="113">
-        <v>-170.316698</v>
+        <v>46.71</v>
       </c>
       <c r="M126" s="112"/>
       <c r="N126" s="115"/>
@@ -11270,7 +11272,7 @@
       <c r="Q126" s="115"/>
       <c r="R126" s="115"/>
       <c r="S126" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126" s="115"/>
       <c r="U126" s="115"/>
@@ -11290,28 +11292,28 @@
       <c r="AO126" s="29"/>
       <c r="AP126" s="29"/>
     </row>
-    <row r="127" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="111">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C127" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="113">
-        <v>-62.243899999999996</v>
+        <v>-62.383499999999998</v>
       </c>
       <c r="E127" s="113">
-        <v>-155.41749999999999</v>
+        <v>165.46100000000001</v>
       </c>
       <c r="F127" s="111">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G127" s="117"/>
       <c r="H127" s="112">
-        <v>64.73</v>
+        <v>47.58</v>
       </c>
       <c r="M127" s="112"/>
       <c r="N127" s="115"/>
@@ -11345,37 +11347,37 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>58</v>
+        <v>173</v>
+      </c>
+      <c r="C128" s="90" t="s">
+        <v>51</v>
       </c>
       <c r="D128" s="113">
-        <v>-50.005099999999999</v>
+        <v>-64.5321</v>
       </c>
       <c r="E128" s="113">
-        <v>115.5805</v>
+        <v>-170.779</v>
       </c>
       <c r="F128" s="111">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G128" s="117">
-        <v>19.63</v>
+        <v>135.78</v>
       </c>
       <c r="H128" s="112">
-        <v>70.34</v>
+        <v>56.74</v>
       </c>
       <c r="I128" s="113">
-        <v>-50.685828000000001</v>
+        <v>-64.412834000000004</v>
       </c>
       <c r="J128" s="113">
-        <v>-48.794719000000001</v>
+        <v>-64.114982999999995</v>
       </c>
       <c r="K128" s="113">
-        <v>115.41354</v>
+        <v>-171.91574</v>
       </c>
       <c r="L128" s="113">
-        <v>116.902663</v>
+        <v>-170.316698</v>
       </c>
       <c r="M128" s="112"/>
       <c r="N128" s="115"/>
@@ -11404,28 +11406,28 @@
       <c r="AO128" s="29"/>
       <c r="AP128" s="29"/>
     </row>
-    <row r="129" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="111">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>58</v>
+        <v>174</v>
+      </c>
+      <c r="C129" s="90" t="s">
+        <v>51</v>
       </c>
       <c r="D129" s="113">
-        <v>-49.488399999999999</v>
+        <v>-62.243899999999996</v>
       </c>
       <c r="E129" s="113">
-        <v>120.4165</v>
+        <v>-155.41749999999999</v>
       </c>
       <c r="F129" s="111">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="G129" s="117"/>
       <c r="H129" s="112">
-        <v>70.19</v>
+        <v>64.73</v>
       </c>
       <c r="M129" s="112"/>
       <c r="N129" s="115"/>
@@ -11454,28 +11456,42 @@
       <c r="AO129" s="29"/>
       <c r="AP129" s="29"/>
     </row>
-    <row r="130" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="111">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C130" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D130" s="113">
-        <v>-49.355899999999998</v>
+        <v>-50.005099999999999</v>
       </c>
       <c r="E130" s="113">
-        <v>121.53149999999999</v>
+        <v>115.5805</v>
       </c>
       <c r="F130" s="111">
-        <v>80</v>
-      </c>
-      <c r="G130" s="117"/>
+        <v>101</v>
+      </c>
+      <c r="G130" s="117">
+        <v>19.63</v>
+      </c>
       <c r="H130" s="112">
-        <v>70.13</v>
+        <v>70.34</v>
+      </c>
+      <c r="I130" s="113">
+        <v>-50.685828000000001</v>
+      </c>
+      <c r="J130" s="113">
+        <v>-48.794719000000001</v>
+      </c>
+      <c r="K130" s="113">
+        <v>115.41354</v>
+      </c>
+      <c r="L130" s="113">
+        <v>116.902663</v>
       </c>
       <c r="M130" s="112"/>
       <c r="N130" s="115"/>
@@ -11484,7 +11500,7 @@
       <c r="Q130" s="115"/>
       <c r="R130" s="115"/>
       <c r="S130" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" s="115"/>
       <c r="U130" s="115"/>
@@ -11504,28 +11520,28 @@
       <c r="AO130" s="29"/>
       <c r="AP130" s="29"/>
     </row>
-    <row r="131" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="111">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C131" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D131" s="113">
-        <v>-49.708599999999997</v>
+        <v>-49.488399999999999</v>
       </c>
       <c r="E131" s="113">
-        <v>122.7255</v>
+        <v>120.4165</v>
       </c>
       <c r="F131" s="111">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="G131" s="117"/>
       <c r="H131" s="112">
-        <v>70.040000000000006</v>
+        <v>70.19</v>
       </c>
       <c r="M131" s="112"/>
       <c r="N131" s="115"/>
@@ -11554,28 +11570,28 @@
       <c r="AO131" s="29"/>
       <c r="AP131" s="29"/>
     </row>
-    <row r="132" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="111">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C132" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D132" s="113">
-        <v>-49.406999999999996</v>
+        <v>-49.355899999999998</v>
       </c>
       <c r="E132" s="113">
-        <v>123.38</v>
+        <v>121.53149999999999</v>
       </c>
       <c r="F132" s="111">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G132" s="117"/>
       <c r="H132" s="112">
-        <v>70</v>
+        <v>70.13</v>
       </c>
       <c r="M132" s="112"/>
       <c r="N132" s="115"/>
@@ -11604,28 +11620,28 @@
       <c r="AO132" s="29"/>
       <c r="AP132" s="29"/>
     </row>
-    <row r="133" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="111">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C133" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D133" s="113">
-        <v>-54.496000000000002</v>
+        <v>-49.708599999999997</v>
       </c>
       <c r="E133" s="113">
-        <v>144.1215</v>
+        <v>122.7255</v>
       </c>
       <c r="F133" s="111">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G133" s="117"/>
       <c r="H133" s="112">
-        <v>66.5</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="M133" s="112"/>
       <c r="N133" s="115"/>
@@ -11654,28 +11670,28 @@
       <c r="AO133" s="29"/>
       <c r="AP133" s="29"/>
     </row>
-    <row r="134" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="111">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="44" t="s">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="D134" s="113">
-        <v>-36.637</v>
+        <v>-49.406999999999996</v>
       </c>
       <c r="E134" s="113">
-        <v>52.320900000000002</v>
+        <v>123.38</v>
       </c>
       <c r="F134" s="111">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G134" s="117"/>
       <c r="H134" s="112">
-        <v>12.34</v>
+        <v>70</v>
       </c>
       <c r="M134" s="112"/>
       <c r="N134" s="115"/>
@@ -11704,28 +11720,28 @@
       <c r="AO134" s="29"/>
       <c r="AP134" s="29"/>
     </row>
-    <row r="135" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="111">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C135" s="44" t="s">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="D135" s="113">
-        <v>-35.802300000000002</v>
+        <v>-54.496000000000002</v>
       </c>
       <c r="E135" s="113">
-        <v>53.425699999999999</v>
+        <v>144.1215</v>
       </c>
       <c r="F135" s="111">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G135" s="117"/>
       <c r="H135" s="112">
-        <v>12.27</v>
+        <v>66.5</v>
       </c>
       <c r="M135" s="112"/>
       <c r="N135" s="115"/>
@@ -11754,28 +11770,28 @@
       <c r="AO135" s="29"/>
       <c r="AP135" s="29"/>
     </row>
-    <row r="136" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="111">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C136" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="113">
-        <v>-34.9983</v>
+        <v>-36.637</v>
       </c>
       <c r="E136" s="113">
-        <v>54.124200000000002</v>
+        <v>52.320900000000002</v>
       </c>
       <c r="F136" s="111">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G136" s="117"/>
       <c r="H136" s="112">
-        <v>12.23</v>
+        <v>12.34</v>
       </c>
       <c r="M136" s="112"/>
       <c r="N136" s="115"/>
@@ -11809,37 +11825,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C137" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="113">
-        <v>-29.841200000000001</v>
+        <v>-35.802300000000002</v>
       </c>
       <c r="E137" s="113">
-        <v>60.776699999999998</v>
+        <v>53.425699999999999</v>
       </c>
       <c r="F137" s="111">
-        <v>92</v>
-      </c>
-      <c r="G137" s="117">
-        <v>1.21</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G137" s="117"/>
       <c r="H137" s="112">
-        <v>11.74</v>
-      </c>
-      <c r="I137" s="113">
-        <v>-30.769010999999999</v>
-      </c>
-      <c r="J137" s="113">
-        <v>-29.238883000000001</v>
-      </c>
-      <c r="K137" s="113">
-        <v>60.555649000000003</v>
-      </c>
-      <c r="L137" s="113">
-        <v>61.015867999999998</v>
+        <v>12.27</v>
       </c>
       <c r="M137" s="112"/>
       <c r="N137" s="115"/>
@@ -11848,7 +11850,7 @@
       <c r="Q137" s="115"/>
       <c r="R137" s="115"/>
       <c r="S137" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T137" s="115"/>
       <c r="U137" s="115"/>
@@ -11868,28 +11870,28 @@
       <c r="AO137" s="29"/>
       <c r="AP137" s="29"/>
     </row>
-    <row r="138" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="111">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C138" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="113">
-        <v>-31.4254</v>
+        <v>-34.9983</v>
       </c>
       <c r="E138" s="113">
-        <v>58.410699999999999</v>
+        <v>54.124200000000002</v>
       </c>
       <c r="F138" s="111">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G138" s="117"/>
       <c r="H138" s="112">
-        <v>11.93</v>
+        <v>12.23</v>
       </c>
       <c r="M138" s="112"/>
       <c r="N138" s="115"/>
@@ -11919,21 +11921,51 @@
       <c r="AP138" s="29"/>
     </row>
     <row r="139" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="111"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="111"/>
-      <c r="D139" s="113"/>
-      <c r="E139" s="113"/>
-      <c r="F139" s="111"/>
-      <c r="G139" s="117"/>
-      <c r="H139" s="112"/>
+      <c r="A139" s="111">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="113">
+        <v>-29.841200000000001</v>
+      </c>
+      <c r="E139" s="113">
+        <v>60.776699999999998</v>
+      </c>
+      <c r="F139" s="111">
+        <v>92</v>
+      </c>
+      <c r="G139" s="117">
+        <v>1.21</v>
+      </c>
+      <c r="H139" s="112">
+        <v>11.74</v>
+      </c>
+      <c r="I139" s="113">
+        <v>-30.769010999999999</v>
+      </c>
+      <c r="J139" s="113">
+        <v>-29.238883000000001</v>
+      </c>
+      <c r="K139" s="113">
+        <v>60.555649000000003</v>
+      </c>
+      <c r="L139" s="113">
+        <v>61.015867999999998</v>
+      </c>
       <c r="M139" s="112"/>
       <c r="N139" s="115"/>
       <c r="O139" s="115"/>
       <c r="P139" s="115"/>
       <c r="Q139" s="115"/>
       <c r="R139" s="115"/>
-      <c r="S139" s="117"/>
+      <c r="S139" s="117">
+        <v>1</v>
+      </c>
       <c r="T139" s="115"/>
       <c r="U139" s="115"/>
       <c r="V139" s="103"/>
@@ -11953,21 +11985,37 @@
       <c r="AP139" s="29"/>
     </row>
     <row r="140" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="111"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="111"/>
-      <c r="D140" s="113"/>
-      <c r="E140" s="113"/>
-      <c r="F140" s="111"/>
+      <c r="A140" s="111">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="113">
+        <v>-31.4254</v>
+      </c>
+      <c r="E140" s="113">
+        <v>58.410699999999999</v>
+      </c>
+      <c r="F140" s="111">
+        <v>45</v>
+      </c>
       <c r="G140" s="117"/>
-      <c r="H140" s="112"/>
+      <c r="H140" s="112">
+        <v>11.93</v>
+      </c>
       <c r="M140" s="112"/>
       <c r="N140" s="115"/>
       <c r="O140" s="115"/>
       <c r="P140" s="115"/>
       <c r="Q140" s="115"/>
       <c r="R140" s="115"/>
-      <c r="S140" s="117"/>
+      <c r="S140" s="117">
+        <v>0</v>
+      </c>
       <c r="T140" s="115"/>
       <c r="U140" s="115"/>
       <c r="V140" s="103"/>
@@ -11987,14 +12035,28 @@
       <c r="AP140" s="29"/>
     </row>
     <row r="141" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="111"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="111"/>
-      <c r="D141" s="113"/>
-      <c r="E141" s="113"/>
-      <c r="F141" s="111"/>
+      <c r="A141" s="111">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C141" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="D141" s="113">
+        <v>-59.1128</v>
+      </c>
+      <c r="E141" s="113">
+        <v>-59.749000000000002</v>
+      </c>
+      <c r="F141" s="111">
+        <v>332</v>
+      </c>
       <c r="G141" s="117"/>
-      <c r="H141" s="112"/>
+      <c r="H141" s="112">
+        <v>6.83</v>
+      </c>
       <c r="M141" s="112"/>
       <c r="N141" s="115"/>
       <c r="O141" s="115"/>
@@ -41226,19 +41288,82 @@
       <c r="AO1000" s="29"/>
       <c r="AP1000" s="29"/>
     </row>
+    <row r="1001" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="111"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="111"/>
+      <c r="D1001" s="113"/>
+      <c r="E1001" s="113"/>
+      <c r="F1001" s="111"/>
+      <c r="G1001" s="117"/>
+      <c r="H1001" s="112"/>
+      <c r="M1001" s="112"/>
+      <c r="N1001" s="115"/>
+      <c r="O1001" s="115"/>
+      <c r="P1001" s="115"/>
+      <c r="Q1001" s="115"/>
+      <c r="R1001" s="115"/>
+      <c r="S1001" s="117"/>
+      <c r="T1001" s="115"/>
+      <c r="U1001" s="115"/>
+      <c r="V1001" s="103"/>
+      <c r="W1001" s="103"/>
+      <c r="X1001" s="118"/>
+      <c r="Z1001" s="29"/>
+      <c r="AF1001" s="29"/>
+      <c r="AG1001" s="29"/>
+      <c r="AH1001" s="29"/>
+      <c r="AI1001" s="29"/>
+      <c r="AJ1001" s="29"/>
+      <c r="AK1001" s="29"/>
+      <c r="AL1001" s="29"/>
+      <c r="AM1001" s="29"/>
+      <c r="AN1001" s="29"/>
+      <c r="AO1001" s="29"/>
+      <c r="AP1001" s="29"/>
+    </row>
+    <row r="1002" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="111"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="111"/>
+      <c r="D1002" s="113"/>
+      <c r="E1002" s="113"/>
+      <c r="F1002" s="111"/>
+      <c r="G1002" s="117"/>
+      <c r="H1002" s="112"/>
+      <c r="M1002" s="112"/>
+      <c r="N1002" s="115"/>
+      <c r="O1002" s="115"/>
+      <c r="P1002" s="115"/>
+      <c r="Q1002" s="115"/>
+      <c r="R1002" s="115"/>
+      <c r="S1002" s="117"/>
+      <c r="T1002" s="115"/>
+      <c r="U1002" s="115"/>
+      <c r="V1002" s="103"/>
+      <c r="W1002" s="103"/>
+      <c r="X1002" s="118"/>
+      <c r="Z1002" s="29"/>
+      <c r="AF1002" s="29"/>
+      <c r="AG1002" s="29"/>
+      <c r="AH1002" s="29"/>
+      <c r="AI1002" s="29"/>
+      <c r="AJ1002" s="29"/>
+      <c r="AK1002" s="29"/>
+      <c r="AL1002" s="29"/>
+      <c r="AM1002" s="29"/>
+      <c r="AN1002" s="29"/>
+      <c r="AO1002" s="29"/>
+      <c r="AP1002" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP138" xr:uid="{C695B7AE-06AA-E041-8ED9-9E8BCF995C96}">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP81">
-      <sortCondition ref="A1:A81"/>
+  <autoFilter ref="A1:AP140" xr:uid="{C695B7AE-06AA-E041-8ED9-9E8BCF995C96}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP140">
+      <sortCondition ref="A1:A140"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH1000">
-    <sortCondition ref="H1:H1000"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH1002">
+    <sortCondition ref="H1:H1002"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/faults.xlsx
+++ b/faults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spc/Cirilla/Projects/OTF_relocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C3E133-2540-7E45-96E9-A44C37E274A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029CFC6F-9BED-DC4A-914A-173169080224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16220" windowWidth="24860" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16200" windowWidth="24860" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="otf" sheetId="1" r:id="rId1"/>
@@ -1360,10 +1360,10 @@
   <dimension ref="A1:AQ1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7290,13 +7290,13 @@
         <v>-29.347930999999999</v>
       </c>
       <c r="K78" s="113">
-        <v>-29.015419000000001</v>
+        <v>-28.7</v>
       </c>
       <c r="L78" s="113">
         <v>-13.859335</v>
       </c>
       <c r="M78" s="113">
-        <v>-12.938413000000001</v>
+        <v>-12.438413000000001</v>
       </c>
       <c r="N78" s="112"/>
       <c r="O78" s="115"/>

--- a/faults.xlsx
+++ b/faults.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spc/Cirilla/Projects/OTF_relocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029CFC6F-9BED-DC4A-914A-173169080224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1391415-6134-8341-B4EC-80B9D7DCAD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="24860" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="7000" windowWidth="24860" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="otf" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">otf!$A$1:$AQ$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">otf!$A$1:$AQ$139</definedName>
     <definedName name="fault2" localSheetId="0">otf!$C$1:$W$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="196">
   <si>
     <t>key</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Kane</t>
-  </si>
-  <si>
-    <t>MAR 35 S</t>
   </si>
   <si>
     <t>Oceanographer</t>
@@ -1357,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ1002"/>
+  <dimension ref="A1:AQ1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomRight" activeCell="U127" sqref="U127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1404,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>3</v>
@@ -1428,16 +1425,16 @@
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>8</v>
@@ -1449,61 +1446,61 @@
         <v>10</v>
       </c>
       <c r="Q1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="V1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AC1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AI1" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
@@ -1578,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="W2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y2" s="7">
         <v>0.62590000000000001</v>
@@ -1603,12 +1600,14 @@
       <c r="A3" s="29">
         <v>58</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
       <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="28">
         <v>13.9</v>
@@ -1620,7 +1619,7 @@
         <v>203</v>
       </c>
       <c r="H3" s="120">
-        <v>299.60000000000002</v>
+        <v>28.72</v>
       </c>
       <c r="I3" s="86">
         <v>19.399999999999999</v>
@@ -1661,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="120" t="s">
         <v>85</v>
-      </c>
-      <c r="X3" s="120" t="s">
-        <v>86</v>
       </c>
       <c r="Y3" s="28">
         <v>0.45839999999999997</v>
@@ -1688,12 +1687,14 @@
       <c r="A4" s="37">
         <v>62</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
       <c r="C4" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="41">
         <v>-36.6</v>
@@ -1746,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="W4" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="43" t="s">
         <v>85</v>
-      </c>
-      <c r="X4" s="43" t="s">
-        <v>86</v>
       </c>
       <c r="Y4" s="41">
         <v>0.67059999999999997</v>
@@ -1758,7 +1759,7 @@
         <v>52.22</v>
       </c>
       <c r="AA4" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB4" s="29">
         <v>55.04</v>
@@ -1767,7 +1768,7 @@
         <v>70.06</v>
       </c>
       <c r="AD4" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE4" s="29">
         <v>111.67</v>
@@ -1791,9 +1792,11 @@
       <c r="A5" s="44">
         <v>45</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="44">
+        <v>1</v>
+      </c>
       <c r="C5" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>2</v>
@@ -1851,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="W5" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X5" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="48">
         <v>0.79510000000000003</v>
@@ -1876,7 +1879,9 @@
       <c r="A6" s="30">
         <v>55</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
       <c r="C6" s="31" t="s">
         <v>14</v>
       </c>
@@ -1934,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="W6" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X6" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y6" s="33">
         <v>0.7339</v>
@@ -1967,10 +1972,10 @@
         <v>34</v>
       </c>
       <c r="E7" s="27">
-        <v>-11.7</v>
+        <v>-7.3741000000000003</v>
       </c>
       <c r="F7" s="27">
-        <v>-13.7</v>
+        <v>-13.245699999999999</v>
       </c>
       <c r="G7" s="23">
         <v>261</v>
@@ -1982,16 +1987,16 @@
         <v>35</v>
       </c>
       <c r="J7" s="27">
-        <v>-12.44</v>
+        <v>-7.53</v>
       </c>
       <c r="K7" s="27">
-        <v>-11.4</v>
+        <v>-6.4</v>
       </c>
       <c r="L7" s="27">
-        <v>-14.8</v>
+        <v>-14.1</v>
       </c>
       <c r="M7" s="27">
-        <v>-12.9</v>
+        <v>-10.85</v>
       </c>
       <c r="N7" s="26">
         <v>5.9</v>
@@ -2017,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y7" s="7">
         <v>0.38969999999999999</v>
@@ -2042,7 +2047,9 @@
       <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
       <c r="C8" s="24" t="s">
         <v>36</v>
       </c>
@@ -2100,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y8" s="7">
         <v>0.77610000000000001</v>
@@ -2125,9 +2132,11 @@
       <c r="A9" s="44">
         <v>52</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="44">
+        <v>1</v>
+      </c>
       <c r="C9" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>2</v>
@@ -2183,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="W9" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X9" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="48">
         <v>0.83489999999999998</v>
@@ -2208,12 +2217,14 @@
       <c r="A10" s="37">
         <v>78</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
       <c r="C10" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="41">
         <v>-61.5</v>
@@ -2266,17 +2277,17 @@
         <v>1</v>
       </c>
       <c r="W10" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="43" t="s">
         <v>85</v>
-      </c>
-      <c r="X10" s="43" t="s">
-        <v>86</v>
       </c>
       <c r="Y10" s="41"/>
       <c r="Z10" s="14">
         <v>159.19999999999999</v>
       </c>
       <c r="AA10" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB10" s="29">
         <v>354.49</v>
@@ -2285,7 +2296,7 @@
         <v>52.36</v>
       </c>
       <c r="AD10" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE10" s="29">
         <v>136.62</v>
@@ -2309,12 +2320,14 @@
       <c r="A11" s="37">
         <v>74</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
       <c r="C11" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="41">
         <v>-49.3</v>
@@ -2367,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="W11" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y11" s="41">
         <v>0.88219999999999998</v>
@@ -2379,7 +2392,7 @@
         <v>12.08</v>
       </c>
       <c r="AA11" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB11" s="29">
         <v>22.54</v>
@@ -2388,7 +2401,7 @@
         <v>64.19</v>
       </c>
       <c r="AD11" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="29">
         <v>137.71</v>
@@ -2412,7 +2425,9 @@
       <c r="A12" s="56">
         <v>17</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="56">
+        <v>1</v>
+      </c>
       <c r="C12" s="57" t="s">
         <v>30</v>
       </c>
@@ -2472,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="W12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" s="62" t="s">
         <v>85</v>
-      </c>
-      <c r="X12" s="62" t="s">
-        <v>86</v>
       </c>
       <c r="Y12" s="63"/>
       <c r="AA12" s="29"/>
@@ -2497,7 +2512,7 @@
       </c>
       <c r="B13" s="111"/>
       <c r="C13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>34</v>
@@ -2546,12 +2561,14 @@
       <c r="A14" s="37">
         <v>63</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="37">
+        <v>1</v>
+      </c>
       <c r="C14" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="41">
         <v>-37.4</v>
@@ -2606,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="W14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="X14" s="43" t="s">
         <v>88</v>
-      </c>
-      <c r="X14" s="43" t="s">
-        <v>89</v>
       </c>
       <c r="Y14" s="41">
         <v>0.61329999999999996</v>
@@ -2618,7 +2635,7 @@
         <v>29.84</v>
       </c>
       <c r="AA14" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB14" s="29">
         <v>55.59</v>
@@ -2627,7 +2644,7 @@
         <v>70.06</v>
       </c>
       <c r="AD14" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE14" s="29">
         <v>111.29</v>
@@ -2651,9 +2668,11 @@
       <c r="A15" s="44">
         <v>41</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="44">
+        <v>1</v>
+      </c>
       <c r="C15" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>2</v>
@@ -2709,10 +2728,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="X15" s="51" t="s">
-        <v>86</v>
       </c>
       <c r="Y15" s="48">
         <v>0.43290000000000001</v>
@@ -2734,12 +2753,14 @@
       <c r="A16" s="64">
         <v>38</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="64">
+        <v>1</v>
+      </c>
       <c r="C16" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="67">
         <v>-59.1</v>
@@ -2792,10 +2813,10 @@
         <v>1</v>
       </c>
       <c r="W16" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="69" t="s">
         <v>85</v>
-      </c>
-      <c r="X16" s="69" t="s">
-        <v>86</v>
       </c>
       <c r="Y16" s="70">
         <v>0.54800000000000004</v>
@@ -2817,12 +2838,14 @@
       <c r="A17" s="64">
         <v>39</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="64">
+        <v>1</v>
+      </c>
       <c r="C17" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="67">
         <v>-58.2</v>
@@ -2875,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="W17" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" s="69" t="s">
         <v>85</v>
-      </c>
-      <c r="X17" s="69" t="s">
-        <v>86</v>
       </c>
       <c r="Y17" s="70"/>
       <c r="AA17" s="29"/>
@@ -2898,7 +2921,9 @@
       <c r="A18" s="23">
         <v>13</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
       <c r="C18" s="24" t="s">
         <v>37</v>
       </c>
@@ -2956,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="W18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y18" s="7">
         <v>0.54659999999999997</v>
@@ -2981,9 +3006,11 @@
       <c r="A19" s="111">
         <v>81</v>
       </c>
-      <c r="B19" s="111"/>
+      <c r="B19" s="111">
+        <v>1</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="72" t="s">
         <v>20</v>
@@ -3046,7 +3073,9 @@
       <c r="A20" s="23">
         <v>2</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
       <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
@@ -3104,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="W20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y20" s="7">
         <v>0.48280000000000001</v>
@@ -3129,7 +3158,9 @@
       <c r="A21" s="23">
         <v>3</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
       <c r="C21" s="24" t="s">
         <v>39</v>
       </c>
@@ -3189,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y21" s="7">
         <v>0.76739999999999997</v>
@@ -3214,7 +3245,9 @@
       <c r="A22" s="72">
         <v>28</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="72">
+        <v>1</v>
+      </c>
       <c r="C22" s="73" t="s">
         <v>19</v>
       </c>
@@ -3274,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="W22" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" s="77" t="s">
         <v>85</v>
-      </c>
-      <c r="X22" s="77" t="s">
-        <v>86</v>
       </c>
       <c r="Y22" s="78"/>
       <c r="AA22" s="29"/>
@@ -3299,7 +3332,7 @@
       </c>
       <c r="B23" s="111"/>
       <c r="C23" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="72" t="s">
         <v>20</v>
@@ -3348,7 +3381,7 @@
       </c>
       <c r="B24" s="111"/>
       <c r="C24" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="72" t="s">
         <v>20</v>
@@ -3395,9 +3428,11 @@
       <c r="A25" s="111">
         <v>84</v>
       </c>
-      <c r="B25" s="111"/>
+      <c r="B25" s="111">
+        <v>1</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>20</v>
@@ -3462,7 +3497,7 @@
       </c>
       <c r="B26" s="111"/>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="100" t="s">
         <v>13</v>
@@ -3510,7 +3545,9 @@
       <c r="A27" s="30">
         <v>56</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="30">
+        <v>1</v>
+      </c>
       <c r="C27" s="31" t="s">
         <v>15</v>
       </c>
@@ -3568,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="W27" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y27" s="33">
         <v>0.89800000000000002</v>
@@ -3595,7 +3632,7 @@
       </c>
       <c r="B28" s="111"/>
       <c r="C28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="100" t="s">
         <v>13</v>
@@ -3645,7 +3682,7 @@
       </c>
       <c r="B29" s="111"/>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="100" t="s">
         <v>13</v>
@@ -3696,7 +3733,7 @@
       </c>
       <c r="B30" s="111"/>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="100" t="s">
         <v>13</v>
@@ -3747,7 +3784,7 @@
       </c>
       <c r="B31" s="111"/>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="100" t="s">
         <v>13</v>
@@ -3798,7 +3835,7 @@
       </c>
       <c r="B32" s="111"/>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="100" t="s">
         <v>13</v>
@@ -3847,9 +3884,11 @@
       <c r="A33" s="80">
         <v>20</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="80">
+        <v>1</v>
+      </c>
       <c r="C33" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="80" t="s">
         <v>22</v>
@@ -3907,10 +3946,10 @@
         <v>2</v>
       </c>
       <c r="W33" s="84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X33" s="84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y33" s="85">
         <v>0.17530000000000001</v>
@@ -3919,7 +3958,7 @@
         <v>81.19</v>
       </c>
       <c r="AA33" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB33" s="29">
         <v>287.17</v>
@@ -3928,7 +3967,7 @@
         <v>62.64</v>
       </c>
       <c r="AD33" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE33" s="29">
         <v>44.97</v>
@@ -3957,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="67">
         <v>-55.7</v>
@@ -3978,13 +4017,13 @@
         <v>-55.94</v>
       </c>
       <c r="K34" s="67">
-        <v>-55.42</v>
+        <v>-55.2</v>
       </c>
       <c r="L34" s="67">
         <v>-4.82</v>
       </c>
       <c r="M34" s="67">
-        <v>-1.58</v>
+        <v>-1.5</v>
       </c>
       <c r="N34" s="66">
         <v>6</v>
@@ -4010,10 +4049,10 @@
         <v>1</v>
       </c>
       <c r="W34" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X34" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="70">
         <v>0.62790000000000001</v>
@@ -4037,7 +4076,7 @@
       </c>
       <c r="B35" s="111"/>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="72" t="s">
         <v>20</v>
@@ -4088,7 +4127,7 @@
       </c>
       <c r="B36" s="80"/>
       <c r="C36" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="80" t="s">
         <v>22</v>
@@ -4148,10 +4187,10 @@
         <v>2</v>
       </c>
       <c r="W36" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="X36" s="84" t="s">
         <v>85</v>
-      </c>
-      <c r="X36" s="84" t="s">
-        <v>86</v>
       </c>
       <c r="Y36" s="85">
         <v>0.16159999999999999</v>
@@ -4160,7 +4199,7 @@
         <v>91.44</v>
       </c>
       <c r="AA36" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB36" s="29">
         <v>285.41000000000003</v>
@@ -4169,7 +4208,7 @@
         <v>70.08</v>
       </c>
       <c r="AD36" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE36" s="29">
         <v>91.76</v>
@@ -4193,9 +4232,11 @@
       <c r="A37" s="44">
         <v>49</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="44">
+        <v>1</v>
+      </c>
       <c r="C37" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>2</v>
@@ -4251,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="W37" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X37" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y37" s="48">
         <v>0.77529999999999999</v>
@@ -4276,9 +4317,11 @@
       <c r="A38" s="44">
         <v>50</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B38" s="44">
+        <v>1</v>
+      </c>
       <c r="C38" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>2</v>
@@ -4334,10 +4377,10 @@
         <v>1</v>
       </c>
       <c r="W38" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X38" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y38" s="48">
         <v>0.755</v>
@@ -4359,7 +4402,9 @@
       <c r="A39" s="23">
         <v>10</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
       <c r="C39" s="24" t="s">
         <v>40</v>
       </c>
@@ -4419,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="W39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X39" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X39" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="14"/>
@@ -4444,9 +4489,11 @@
       <c r="A40" s="44">
         <v>44</v>
       </c>
-      <c r="B40" s="44"/>
+      <c r="B40" s="44">
+        <v>1</v>
+      </c>
       <c r="C40" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="44" t="s">
         <v>2</v>
@@ -4502,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="W40" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="X40" s="51" t="s">
-        <v>86</v>
       </c>
       <c r="Y40" s="48">
         <v>0.61</v>
@@ -4529,7 +4576,7 @@
       </c>
       <c r="B41" s="111"/>
       <c r="C41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" s="100" t="s">
         <v>13</v>
@@ -4580,7 +4627,7 @@
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="44" t="s">
         <v>2</v>
@@ -4625,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S42" s="51">
         <v>0</v>
@@ -4638,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="W42" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X42" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y42" s="48"/>
       <c r="Z42" s="14"/>
@@ -4663,12 +4710,14 @@
       <c r="A43" s="37">
         <v>73</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="37">
+        <v>1</v>
+      </c>
       <c r="C43" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="41">
         <v>-49.2</v>
@@ -4721,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="W43" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X43" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y43" s="41">
         <v>0.82099999999999995</v>
@@ -4733,7 +4782,7 @@
         <v>12.22</v>
       </c>
       <c r="AA43" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB43" s="29">
         <v>23.58</v>
@@ -4742,7 +4791,7 @@
         <v>64.709999999999994</v>
       </c>
       <c r="AD43" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE43" s="29">
         <v>137.13999999999999</v>
@@ -4766,7 +4815,9 @@
       <c r="A44" s="23">
         <v>16</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="23">
+        <v>1</v>
+      </c>
       <c r="C44" s="24" t="s">
         <v>41</v>
       </c>
@@ -4824,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y44" s="7">
         <v>0.80549999999999999</v>
@@ -4851,7 +4902,7 @@
       </c>
       <c r="B45" s="111"/>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="100" t="s">
         <v>13</v>
@@ -4902,7 +4953,7 @@
       </c>
       <c r="B46" s="111"/>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="44" t="s">
         <v>2</v>
@@ -4951,7 +5002,9 @@
       <c r="A47" s="80">
         <v>27</v>
       </c>
-      <c r="B47" s="80"/>
+      <c r="B47" s="80">
+        <v>1</v>
+      </c>
       <c r="C47" s="81" t="s">
         <v>23</v>
       </c>
@@ -5011,10 +5064,10 @@
         <v>2</v>
       </c>
       <c r="W47" s="84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X47" s="84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y47" s="85">
         <v>0.628</v>
@@ -5023,7 +5076,7 @@
         <v>104.98</v>
       </c>
       <c r="AA47" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB47" s="29">
         <v>287.49</v>
@@ -5032,7 +5085,7 @@
         <v>73.23</v>
       </c>
       <c r="AD47" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE47" s="29">
         <v>96.94</v>
@@ -5058,7 +5111,7 @@
       </c>
       <c r="B48" s="111"/>
       <c r="C48" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>2</v>
@@ -5109,7 +5162,7 @@
       </c>
       <c r="B49" s="111"/>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>2</v>
@@ -5158,12 +5211,14 @@
       <c r="A50" s="37">
         <v>66</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="37">
+        <v>1</v>
+      </c>
       <c r="C50" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="41">
         <v>-41.7</v>
@@ -5216,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="W50" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X50" s="43" t="s">
         <v>85</v>
-      </c>
-      <c r="X50" s="43" t="s">
-        <v>86</v>
       </c>
       <c r="Y50" s="41">
         <v>0.80579999999999996</v>
@@ -5228,7 +5283,7 @@
         <v>43.15</v>
       </c>
       <c r="AA50" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB50" s="29">
         <v>50.69</v>
@@ -5237,7 +5292,7 @@
         <v>70.92</v>
       </c>
       <c r="AD50" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE50" s="29">
         <v>121.12</v>
@@ -5261,9 +5316,11 @@
       <c r="A51" s="30">
         <v>53</v>
       </c>
-      <c r="B51" s="30"/>
+      <c r="B51" s="30">
+        <v>1</v>
+      </c>
       <c r="C51" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>13</v>
@@ -5319,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="W51" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X51" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y51" s="33"/>
       <c r="AA51" s="29"/>
@@ -5342,12 +5399,14 @@
       <c r="A52" s="37">
         <v>75</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="37">
+        <v>1</v>
+      </c>
       <c r="C52" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="41">
         <v>-52</v>
@@ -5400,17 +5459,17 @@
         <v>1</v>
       </c>
       <c r="W52" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X52" s="43" t="s">
         <v>85</v>
-      </c>
-      <c r="X52" s="43" t="s">
-        <v>86</v>
       </c>
       <c r="Y52" s="41"/>
       <c r="Z52" s="14">
         <v>356.8</v>
       </c>
       <c r="AA52" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB52" s="29">
         <v>13.53</v>
@@ -5419,7 +5478,7 @@
         <v>59.32</v>
       </c>
       <c r="AD52" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE52" s="29">
         <v>135.72</v>
@@ -5443,9 +5502,11 @@
       <c r="A53" s="111">
         <v>99</v>
       </c>
-      <c r="B53" s="111"/>
+      <c r="B53" s="111">
+        <v>1</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="80" t="s">
         <v>22</v>
@@ -5508,9 +5569,11 @@
       <c r="A54" s="111">
         <v>100</v>
       </c>
-      <c r="B54" s="111"/>
+      <c r="B54" s="111">
+        <v>1</v>
+      </c>
       <c r="C54" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>22</v>
@@ -5633,10 +5696,10 @@
         <v>3</v>
       </c>
       <c r="W55" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" s="84" t="s">
         <v>85</v>
-      </c>
-      <c r="X55" s="84" t="s">
-        <v>86</v>
       </c>
       <c r="Y55" s="85">
         <v>0.42480000000000001</v>
@@ -5645,7 +5708,7 @@
         <v>101.63</v>
       </c>
       <c r="AA55" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB55" s="29">
         <v>285.75</v>
@@ -5654,7 +5717,7 @@
         <v>70.48</v>
       </c>
       <c r="AD55" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE55" s="29">
         <v>92.57</v>
@@ -5680,7 +5743,7 @@
       </c>
       <c r="B56" s="111"/>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>34</v>
@@ -5729,9 +5792,11 @@
       <c r="A57" s="111">
         <v>87</v>
       </c>
-      <c r="B57" s="111"/>
+      <c r="B57" s="111">
+        <v>1</v>
+      </c>
       <c r="C57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="72" t="s">
         <v>20</v>
@@ -5796,7 +5861,7 @@
       </c>
       <c r="B58" s="111"/>
       <c r="C58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" s="72" t="s">
         <v>20</v>
@@ -5844,7 +5909,9 @@
       <c r="A59" s="23">
         <v>5</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="23">
+        <v>1</v>
+      </c>
       <c r="C59" s="24" t="s">
         <v>42</v>
       </c>
@@ -5902,10 +5969,10 @@
         <v>1</v>
       </c>
       <c r="W59" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X59" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y59" s="7">
         <v>0.87050000000000005</v>
@@ -5933,12 +6000,14 @@
       <c r="A60" s="111">
         <v>129</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="111">
+        <v>1</v>
+      </c>
       <c r="C60" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E60" s="113">
         <v>-50.005099999999999</v>
@@ -6004,12 +6073,14 @@
       <c r="A61" s="90">
         <v>33</v>
       </c>
-      <c r="B61" s="90"/>
+      <c r="B61" s="90">
+        <v>1</v>
+      </c>
       <c r="C61" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="92" t="s">
         <v>50</v>
-      </c>
-      <c r="D61" s="92" t="s">
-        <v>51</v>
       </c>
       <c r="E61" s="94">
         <v>-55.7</v>
@@ -6062,10 +6133,10 @@
         <v>1</v>
       </c>
       <c r="W61" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X61" s="95" t="s">
         <v>85</v>
-      </c>
-      <c r="X61" s="95" t="s">
-        <v>86</v>
       </c>
       <c r="Y61" s="96">
         <v>0.6149</v>
@@ -6074,7 +6145,7 @@
         <v>112.05</v>
       </c>
       <c r="AA61" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB61" s="29">
         <v>296.93</v>
@@ -6083,7 +6154,7 @@
         <v>59.84</v>
       </c>
       <c r="AD61" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE61" s="29">
         <v>92.58</v>
@@ -6107,12 +6178,14 @@
       <c r="A62" s="90">
         <v>36</v>
       </c>
-      <c r="B62" s="90"/>
+      <c r="B62" s="90">
+        <v>1</v>
+      </c>
       <c r="C62" s="91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" s="94">
         <v>-56.5</v>
@@ -6165,10 +6238,10 @@
         <v>1</v>
       </c>
       <c r="W62" s="95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X62" s="95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y62" s="96">
         <v>0.41220000000000001</v>
@@ -6177,7 +6250,7 @@
         <v>118.57</v>
       </c>
       <c r="AA62" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB62" s="29">
         <v>303.61</v>
@@ -6186,7 +6259,7 @@
         <v>55.99</v>
       </c>
       <c r="AD62" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE62" s="29">
         <v>100.37</v>
@@ -6210,12 +6283,14 @@
       <c r="A63" s="37">
         <v>64</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="37">
+        <v>1</v>
+      </c>
       <c r="C63" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="41">
         <v>-38.5</v>
@@ -6268,10 +6343,10 @@
         <v>1</v>
       </c>
       <c r="W63" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X63" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y63" s="41">
         <v>0.76349999999999996</v>
@@ -6280,7 +6355,7 @@
         <v>43.42</v>
       </c>
       <c r="AA63" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB63" s="29">
         <v>55.55</v>
@@ -6289,7 +6364,7 @@
         <v>70.25</v>
       </c>
       <c r="AD63" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE63" s="29">
         <v>112.4</v>
@@ -6313,12 +6388,14 @@
       <c r="A64" s="90">
         <v>35</v>
       </c>
-      <c r="B64" s="90"/>
+      <c r="B64" s="90">
+        <v>1</v>
+      </c>
       <c r="C64" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64" s="94">
         <v>-54.4</v>
@@ -6371,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="W64" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X64" s="95" t="s">
         <v>85</v>
-      </c>
-      <c r="X64" s="95" t="s">
-        <v>86</v>
       </c>
       <c r="Y64" s="96">
         <v>0.1706</v>
@@ -6383,7 +6460,7 @@
         <v>117.83</v>
       </c>
       <c r="AA64" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB64" s="29">
         <v>301.43</v>
@@ -6392,7 +6469,7 @@
         <v>58.12</v>
       </c>
       <c r="AD64" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE64" s="29">
         <v>98.55</v>
@@ -6416,9 +6493,11 @@
       <c r="A65" s="44">
         <v>51</v>
       </c>
-      <c r="B65" s="44"/>
+      <c r="B65" s="44">
+        <v>1</v>
+      </c>
       <c r="C65" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>2</v>
@@ -6474,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="W65" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X65" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="X65" s="51" t="s">
-        <v>86</v>
       </c>
       <c r="Y65" s="48"/>
       <c r="AA65" s="29"/>
@@ -6497,9 +6576,11 @@
       <c r="A66" s="44">
         <v>42</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="44">
+        <v>1</v>
+      </c>
       <c r="C66" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>2</v>
@@ -6555,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="W66" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X66" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="X66" s="51" t="s">
-        <v>86</v>
       </c>
       <c r="Y66" s="48">
         <v>0.78849999999999998</v>
@@ -6582,7 +6663,9 @@
       <c r="A67" s="23">
         <v>1</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="23">
+        <v>1</v>
+      </c>
       <c r="C67" s="24" t="s">
         <v>43</v>
       </c>
@@ -6596,7 +6679,7 @@
         <v>-9.1</v>
       </c>
       <c r="G67" s="23">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="H67" s="52">
         <v>115.4</v>
@@ -6642,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="W67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X67" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X67" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y67" s="7"/>
       <c r="Z67" s="14"/>
@@ -6666,7 +6749,9 @@
       <c r="A68" s="23">
         <v>7</v>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="23">
+        <v>1</v>
+      </c>
       <c r="C68" s="24" t="s">
         <v>44</v>
       </c>
@@ -6724,10 +6809,10 @@
         <v>1</v>
       </c>
       <c r="W68" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X68" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X68" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y68" s="7">
         <v>0.52659999999999996</v>
@@ -6751,10 +6836,10 @@
       </c>
       <c r="B69" s="111"/>
       <c r="C69" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" s="113">
         <v>-59.645899999999997</v>
@@ -6802,10 +6887,10 @@
       </c>
       <c r="B70" s="111"/>
       <c r="C70" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" s="113">
         <v>-57.625100000000003</v>
@@ -6853,7 +6938,7 @@
       </c>
       <c r="B71" s="111"/>
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="100" t="s">
         <v>13</v>
@@ -6904,7 +6989,7 @@
       </c>
       <c r="B72" s="111"/>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>34</v>
@@ -6955,7 +7040,7 @@
       </c>
       <c r="B73" s="111"/>
       <c r="C73" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>34</v>
@@ -7004,9 +7089,11 @@
       <c r="A74" s="111">
         <v>107</v>
       </c>
-      <c r="B74" s="111"/>
+      <c r="B74" s="111">
+        <v>1</v>
+      </c>
       <c r="C74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>34</v>
@@ -7069,9 +7156,11 @@
       <c r="A75" s="111">
         <v>108</v>
       </c>
-      <c r="B75" s="111"/>
+      <c r="B75" s="111">
+        <v>1</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>34</v>
@@ -7134,9 +7223,11 @@
       <c r="A76" s="111">
         <v>109</v>
       </c>
-      <c r="B76" s="111"/>
+      <c r="B76" s="111">
+        <v>1</v>
+      </c>
       <c r="C76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>34</v>
@@ -7199,9 +7290,11 @@
       <c r="A77" s="111">
         <v>110</v>
       </c>
-      <c r="B77" s="111"/>
+      <c r="B77" s="111">
+        <v>1</v>
+      </c>
       <c r="C77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>34</v>
@@ -7264,9 +7357,11 @@
       <c r="A78" s="111">
         <v>111</v>
       </c>
-      <c r="B78" s="111"/>
+      <c r="B78" s="111">
+        <v>1</v>
+      </c>
       <c r="C78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>34</v>
@@ -7329,9 +7424,11 @@
       <c r="A79" s="111">
         <v>112</v>
       </c>
-      <c r="B79" s="111"/>
+      <c r="B79" s="111">
+        <v>1</v>
+      </c>
       <c r="C79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>34</v>
@@ -7394,9 +7491,11 @@
       <c r="A80" s="111">
         <v>113</v>
       </c>
-      <c r="B80" s="111"/>
+      <c r="B80" s="111">
+        <v>1</v>
+      </c>
       <c r="C80" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>34</v>
@@ -7423,7 +7522,7 @@
         <v>-33.958728000000001</v>
       </c>
       <c r="L80" s="113">
-        <v>-14.917623000000001</v>
+        <v>-15.517623</v>
       </c>
       <c r="M80" s="113">
         <v>-14.280203</v>
@@ -7459,9 +7558,11 @@
       <c r="A81" s="23">
         <v>15</v>
       </c>
-      <c r="B81" s="23"/>
+      <c r="B81" s="23">
+        <v>1</v>
+      </c>
       <c r="C81" s="24" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>34</v>
@@ -7517,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="W81" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X81" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X81" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y81" s="7">
         <v>0.44230000000000003</v>
@@ -7540,7 +7641,7 @@
     </row>
     <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="111">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" s="111"/>
       <c r="C82" s="2" t="s">
@@ -7550,17 +7651,17 @@
         <v>34</v>
       </c>
       <c r="E82" s="113">
-        <v>-35.396299999999997</v>
+        <v>-40.350299999999997</v>
       </c>
       <c r="F82" s="113">
-        <v>-16.511900000000001</v>
+        <v>-16.639199999999999</v>
       </c>
       <c r="G82" s="111">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="H82" s="117"/>
       <c r="I82" s="112">
-        <v>29.6</v>
+        <v>28.9</v>
       </c>
       <c r="N82" s="112"/>
       <c r="O82" s="115"/>
@@ -7591,7 +7692,7 @@
     </row>
     <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="111">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="111"/>
       <c r="C83" s="2" t="s">
@@ -7601,17 +7702,17 @@
         <v>34</v>
       </c>
       <c r="E83" s="113">
-        <v>-40.350299999999997</v>
+        <v>-49.126600000000003</v>
       </c>
       <c r="F83" s="113">
-        <v>-16.639199999999999</v>
+        <v>-9.1361000000000008</v>
       </c>
       <c r="G83" s="111">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H83" s="117"/>
       <c r="I83" s="112">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="N83" s="112"/>
       <c r="O83" s="115"/>
@@ -7642,7 +7743,7 @@
     </row>
     <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="111">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="111"/>
       <c r="C84" s="2" t="s">
@@ -7652,17 +7753,17 @@
         <v>34</v>
       </c>
       <c r="E84" s="113">
-        <v>-49.126600000000003</v>
+        <v>-5.0358000000000001</v>
       </c>
       <c r="F84" s="113">
-        <v>-9.1361000000000008</v>
+        <v>-11.9376</v>
       </c>
       <c r="G84" s="111">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="H84" s="117"/>
       <c r="I84" s="112">
-        <v>26.9</v>
+        <v>29.27</v>
       </c>
       <c r="N84" s="112"/>
       <c r="O84" s="115"/>
@@ -7693,9 +7794,11 @@
     </row>
     <row r="85" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="111">
-        <v>117</v>
-      </c>
-      <c r="B85" s="111"/>
+        <v>118</v>
+      </c>
+      <c r="B85" s="111">
+        <v>1</v>
+      </c>
       <c r="C85" s="2" t="s">
         <v>163</v>
       </c>
@@ -7703,17 +7806,31 @@
         <v>34</v>
       </c>
       <c r="E85" s="113">
-        <v>-5.0358000000000001</v>
+        <v>12.6388</v>
       </c>
       <c r="F85" s="113">
-        <v>-11.9376</v>
+        <v>-44.4649</v>
       </c>
       <c r="G85" s="111">
-        <v>78</v>
-      </c>
-      <c r="H85" s="117"/>
+        <v>88</v>
+      </c>
+      <c r="H85" s="117">
+        <v>93.84</v>
+      </c>
       <c r="I85" s="112">
-        <v>29.27</v>
+        <v>24.41</v>
+      </c>
+      <c r="J85" s="113">
+        <v>12.566572000000001</v>
+      </c>
+      <c r="K85" s="113">
+        <v>12.719567</v>
+      </c>
+      <c r="L85" s="113">
+        <v>-44.921723999999998</v>
+      </c>
+      <c r="M85" s="113">
+        <v>-43.766984999999998</v>
       </c>
       <c r="N85" s="112"/>
       <c r="O85" s="115"/>
@@ -7722,7 +7839,7 @@
       <c r="R85" s="115"/>
       <c r="S85" s="115"/>
       <c r="T85" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="115"/>
       <c r="V85" s="115"/>
@@ -7743,57 +7860,77 @@
       <c r="AQ85" s="29"/>
     </row>
     <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="111">
-        <v>118</v>
-      </c>
-      <c r="B86" s="111"/>
-      <c r="C86" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="113">
-        <v>12.6388</v>
-      </c>
-      <c r="F86" s="113">
-        <v>-44.4649</v>
-      </c>
-      <c r="G86" s="111">
-        <v>88</v>
-      </c>
-      <c r="H86" s="117">
-        <v>93.84</v>
-      </c>
-      <c r="I86" s="112">
-        <v>24.41</v>
-      </c>
-      <c r="J86" s="113">
-        <v>12.566572000000001</v>
-      </c>
-      <c r="K86" s="113">
-        <v>12.719567</v>
-      </c>
-      <c r="L86" s="113">
-        <v>-44.921723999999998</v>
-      </c>
-      <c r="M86" s="113">
-        <v>-43.766984999999998</v>
-      </c>
-      <c r="N86" s="112"/>
-      <c r="O86" s="115"/>
-      <c r="P86" s="115"/>
-      <c r="Q86" s="115"/>
-      <c r="R86" s="115"/>
-      <c r="S86" s="115"/>
-      <c r="T86" s="117">
-        <v>1</v>
-      </c>
-      <c r="U86" s="115"/>
-      <c r="V86" s="115"/>
-      <c r="W86" s="103"/>
-      <c r="X86" s="103"/>
-      <c r="Y86" s="118"/>
+      <c r="A86" s="30">
+        <v>54</v>
+      </c>
+      <c r="B86" s="30">
+        <v>1</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="33">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="F86" s="33">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="G86" s="30">
+        <v>219</v>
+      </c>
+      <c r="H86" s="35">
+        <v>59.35</v>
+      </c>
+      <c r="I86" s="32">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J86" s="33">
+        <v>-18.149999999999999</v>
+      </c>
+      <c r="K86" s="33">
+        <v>-16.86</v>
+      </c>
+      <c r="L86" s="33">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="M86" s="33">
+        <v>67.14</v>
+      </c>
+      <c r="N86" s="32">
+        <v>6</v>
+      </c>
+      <c r="O86" s="11">
+        <v>1</v>
+      </c>
+      <c r="P86" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="79">
+        <v>1</v>
+      </c>
+      <c r="R86" s="79"/>
+      <c r="S86" s="35">
+        <v>0</v>
+      </c>
+      <c r="T86" s="35">
+        <v>0</v>
+      </c>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35">
+        <v>1</v>
+      </c>
+      <c r="W86" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="X86" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y86" s="33">
+        <v>0.52029999999999998</v>
+      </c>
       <c r="AA86" s="29"/>
       <c r="AG86" s="29"/>
       <c r="AH86" s="29"/>
@@ -7808,74 +7945,78 @@
       <c r="AQ86" s="29"/>
     </row>
     <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="30">
-        <v>54</v>
-      </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="33">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="F87" s="33">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="G87" s="30">
-        <v>219</v>
-      </c>
-      <c r="H87" s="35">
-        <v>59.35</v>
-      </c>
-      <c r="I87" s="32">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="J87" s="33">
-        <v>-18.149999999999999</v>
-      </c>
-      <c r="K87" s="33">
-        <v>-16.86</v>
-      </c>
-      <c r="L87" s="33">
-        <v>64.849999999999994</v>
-      </c>
-      <c r="M87" s="33">
-        <v>67.14</v>
-      </c>
-      <c r="N87" s="32">
-        <v>6</v>
-      </c>
-      <c r="O87" s="11">
-        <v>1</v>
-      </c>
-      <c r="P87" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="79">
-        <v>1</v>
-      </c>
-      <c r="R87" s="79"/>
-      <c r="S87" s="35">
+      <c r="A87" s="44">
+        <v>46</v>
+      </c>
+      <c r="B87" s="44">
+        <v>1</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="48">
+        <v>-46.6</v>
+      </c>
+      <c r="F87" s="48">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G87" s="44">
+        <v>109</v>
+      </c>
+      <c r="H87" s="51">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="I87" s="47">
+        <v>14.7</v>
+      </c>
+      <c r="J87" s="48">
+        <v>-46.95</v>
+      </c>
+      <c r="K87" s="48">
+        <v>-45.51</v>
+      </c>
+      <c r="L87" s="48">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="M87" s="48">
+        <v>34.26</v>
+      </c>
+      <c r="N87" s="47">
+        <v>5.8</v>
+      </c>
+      <c r="O87" s="49">
+        <v>1</v>
+      </c>
+      <c r="P87" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="50">
         <v>0</v>
       </c>
-      <c r="T87" s="35">
+      <c r="R87" s="50">
+        <v>1</v>
+      </c>
+      <c r="S87" s="51">
         <v>0</v>
       </c>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35">
-        <v>1</v>
-      </c>
-      <c r="W87" s="35" t="s">
+      <c r="T87" s="51">
+        <v>1</v>
+      </c>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51">
+        <v>1</v>
+      </c>
+      <c r="W87" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X87" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="X87" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y87" s="33">
-        <v>0.52029999999999998</v>
+      <c r="Y87" s="48">
+        <v>0.72119999999999995</v>
       </c>
       <c r="AA87" s="29"/>
       <c r="AG87" s="29"/>
@@ -7891,77 +8032,59 @@
       <c r="AQ87" s="29"/>
     </row>
     <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="44">
-        <v>46</v>
-      </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="45" t="s">
-        <v>79</v>
+      <c r="A88" s="111">
+        <v>138</v>
+      </c>
+      <c r="B88" s="111">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D88" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E88" s="48">
-        <v>-46.6</v>
-      </c>
-      <c r="F88" s="48">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="G88" s="44">
-        <v>109</v>
-      </c>
-      <c r="H88" s="51">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="I88" s="47">
-        <v>14.7</v>
-      </c>
-      <c r="J88" s="48">
-        <v>-46.95</v>
-      </c>
-      <c r="K88" s="48">
-        <v>-45.51</v>
-      </c>
-      <c r="L88" s="48">
-        <v>33.270000000000003</v>
-      </c>
-      <c r="M88" s="48">
-        <v>34.26</v>
-      </c>
-      <c r="N88" s="47">
-        <v>5.8</v>
-      </c>
-      <c r="O88" s="49">
-        <v>1</v>
-      </c>
-      <c r="P88" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="50">
-        <v>0</v>
-      </c>
-      <c r="R88" s="50">
-        <v>1</v>
-      </c>
-      <c r="S88" s="51">
-        <v>0</v>
-      </c>
-      <c r="T88" s="51">
-        <v>1</v>
-      </c>
-      <c r="U88" s="51"/>
-      <c r="V88" s="51">
-        <v>1</v>
-      </c>
-      <c r="W88" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="X88" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y88" s="48">
-        <v>0.72119999999999995</v>
-      </c>
+      <c r="E88" s="113">
+        <v>-29.841200000000001</v>
+      </c>
+      <c r="F88" s="113">
+        <v>60.776699999999998</v>
+      </c>
+      <c r="G88" s="111">
+        <v>92</v>
+      </c>
+      <c r="H88" s="117">
+        <v>1.21</v>
+      </c>
+      <c r="I88" s="112">
+        <v>11.74</v>
+      </c>
+      <c r="J88" s="113">
+        <v>-30.769010999999999</v>
+      </c>
+      <c r="K88" s="113">
+        <v>-29.238883000000001</v>
+      </c>
+      <c r="L88" s="113">
+        <v>60.555649000000003</v>
+      </c>
+      <c r="M88" s="113">
+        <v>61.015867999999998</v>
+      </c>
+      <c r="N88" s="112"/>
+      <c r="O88" s="115"/>
+      <c r="P88" s="115"/>
+      <c r="Q88" s="115"/>
+      <c r="R88" s="115"/>
+      <c r="S88" s="115"/>
+      <c r="T88" s="117">
+        <v>1</v>
+      </c>
+      <c r="U88" s="115"/>
+      <c r="V88" s="115"/>
+      <c r="W88" s="103"/>
+      <c r="X88" s="103"/>
+      <c r="Y88" s="118"/>
       <c r="AA88" s="29"/>
       <c r="AG88" s="29"/>
       <c r="AH88" s="29"/>
@@ -7976,58 +8099,98 @@
       <c r="AQ88" s="29"/>
     </row>
     <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="111">
-        <v>138</v>
-      </c>
-      <c r="B89" s="111"/>
-      <c r="C89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="113">
-        <v>-29.841200000000001</v>
-      </c>
-      <c r="F89" s="113">
-        <v>60.776699999999998</v>
-      </c>
-      <c r="G89" s="111">
-        <v>92</v>
-      </c>
-      <c r="H89" s="117">
-        <v>1.21</v>
-      </c>
-      <c r="I89" s="112">
-        <v>11.74</v>
-      </c>
-      <c r="J89" s="113">
-        <v>-30.769010999999999</v>
-      </c>
-      <c r="K89" s="113">
-        <v>-29.238883000000001</v>
-      </c>
-      <c r="L89" s="113">
-        <v>60.555649000000003</v>
-      </c>
-      <c r="M89" s="113">
-        <v>61.015867999999998</v>
-      </c>
-      <c r="N89" s="112"/>
-      <c r="O89" s="115"/>
-      <c r="P89" s="115"/>
-      <c r="Q89" s="115"/>
-      <c r="R89" s="115"/>
-      <c r="S89" s="115"/>
-      <c r="T89" s="117">
-        <v>1</v>
-      </c>
-      <c r="U89" s="115"/>
-      <c r="V89" s="115"/>
-      <c r="W89" s="103"/>
-      <c r="X89" s="103"/>
-      <c r="Y89" s="118"/>
-      <c r="AA89" s="29"/>
+      <c r="A89" s="90">
+        <v>30</v>
+      </c>
+      <c r="B89" s="90">
+        <v>1</v>
+      </c>
+      <c r="C89" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="94">
+        <v>-49.6</v>
+      </c>
+      <c r="F89" s="94">
+        <v>-115.3</v>
+      </c>
+      <c r="G89" s="90">
+        <v>208</v>
+      </c>
+      <c r="H89" s="99">
+        <v>107.31</v>
+      </c>
+      <c r="I89" s="93">
+        <v>90.5</v>
+      </c>
+      <c r="J89" s="94">
+        <v>-50.03</v>
+      </c>
+      <c r="K89" s="94">
+        <v>-49.14</v>
+      </c>
+      <c r="L89" s="94">
+        <v>-116.68</v>
+      </c>
+      <c r="M89" s="94">
+        <v>-113.66</v>
+      </c>
+      <c r="N89" s="93">
+        <v>5.9</v>
+      </c>
+      <c r="O89" s="8">
+        <v>1</v>
+      </c>
+      <c r="P89" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="98">
+        <v>1</v>
+      </c>
+      <c r="R89" s="98"/>
+      <c r="S89" s="99">
+        <v>1</v>
+      </c>
+      <c r="T89" s="99">
+        <v>0</v>
+      </c>
+      <c r="U89" s="99"/>
+      <c r="V89" s="95">
+        <v>1</v>
+      </c>
+      <c r="W89" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X89" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y89" s="96">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="Z89" s="14">
+        <v>106.58</v>
+      </c>
+      <c r="AA89" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB89" s="29">
+        <v>291.27</v>
+      </c>
+      <c r="AC89" s="29">
+        <v>65.05</v>
+      </c>
+      <c r="AD89" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE89" s="29">
+        <v>87.52</v>
+      </c>
+      <c r="AF89" s="29">
+        <v>24.45</v>
+      </c>
       <c r="AG89" s="29"/>
       <c r="AH89" s="29"/>
       <c r="AI89" s="29"/>
@@ -8041,96 +8204,60 @@
       <c r="AQ89" s="29"/>
     </row>
     <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="90">
-        <v>30</v>
-      </c>
-      <c r="B90" s="90"/>
-      <c r="C90" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="94">
-        <v>-49.6</v>
-      </c>
-      <c r="F90" s="94">
-        <v>-115.3</v>
-      </c>
-      <c r="G90" s="90">
-        <v>208</v>
-      </c>
-      <c r="H90" s="99">
-        <v>107.31</v>
-      </c>
-      <c r="I90" s="93">
-        <v>90.5</v>
-      </c>
-      <c r="J90" s="94">
-        <v>-50.03</v>
-      </c>
-      <c r="K90" s="94">
-        <v>-49.14</v>
-      </c>
-      <c r="L90" s="94">
-        <v>-116.68</v>
-      </c>
-      <c r="M90" s="94">
-        <v>-113.66</v>
-      </c>
-      <c r="N90" s="93">
-        <v>5.9</v>
-      </c>
-      <c r="O90" s="8">
-        <v>1</v>
-      </c>
-      <c r="P90" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="98">
-        <v>1</v>
-      </c>
-      <c r="R90" s="98"/>
-      <c r="S90" s="99">
-        <v>1</v>
-      </c>
-      <c r="T90" s="99">
-        <v>0</v>
-      </c>
-      <c r="U90" s="99"/>
-      <c r="V90" s="95">
-        <v>1</v>
-      </c>
-      <c r="W90" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="X90" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y90" s="96">
-        <v>0.48049999999999998</v>
-      </c>
-      <c r="Z90" s="14">
-        <v>106.58</v>
-      </c>
-      <c r="AA90" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB90" s="29">
-        <v>291.27</v>
-      </c>
-      <c r="AC90" s="29">
-        <v>65.05</v>
-      </c>
-      <c r="AD90" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE90" s="29">
-        <v>87.52</v>
-      </c>
-      <c r="AF90" s="29">
-        <v>24.45</v>
-      </c>
+      <c r="A90" s="111">
+        <v>102</v>
+      </c>
+      <c r="B90" s="111">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="113">
+        <v>40.3735</v>
+      </c>
+      <c r="F90" s="113">
+        <v>-126.039</v>
+      </c>
+      <c r="G90" s="111">
+        <v>237</v>
+      </c>
+      <c r="H90" s="117">
+        <v>89.51</v>
+      </c>
+      <c r="I90" s="112">
+        <v>49.48</v>
+      </c>
+      <c r="J90" s="113">
+        <v>40.137867999999997</v>
+      </c>
+      <c r="K90" s="113">
+        <v>40.497298000000001</v>
+      </c>
+      <c r="L90" s="113">
+        <v>-129.78747300000001</v>
+      </c>
+      <c r="M90" s="113">
+        <v>-124.41086</v>
+      </c>
+      <c r="N90" s="112"/>
+      <c r="O90" s="115"/>
+      <c r="P90" s="115"/>
+      <c r="Q90" s="115"/>
+      <c r="R90" s="115"/>
+      <c r="S90" s="115"/>
+      <c r="T90" s="117">
+        <v>1</v>
+      </c>
+      <c r="U90" s="115"/>
+      <c r="V90" s="115"/>
+      <c r="W90" s="103"/>
+      <c r="X90" s="103"/>
+      <c r="Y90" s="118"/>
+      <c r="AA90" s="29"/>
       <c r="AG90" s="29"/>
       <c r="AH90" s="29"/>
       <c r="AI90" s="29"/>
@@ -8145,41 +8272,27 @@
     </row>
     <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="111">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B91" s="111"/>
       <c r="C91" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D91" s="125" t="s">
-        <v>148</v>
+        <v>183</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>2</v>
       </c>
       <c r="E91" s="113">
-        <v>40.3735</v>
+        <v>-31.4254</v>
       </c>
       <c r="F91" s="113">
-        <v>-126.039</v>
+        <v>58.410699999999999</v>
       </c>
       <c r="G91" s="111">
-        <v>237</v>
-      </c>
-      <c r="H91" s="117">
-        <v>89.51</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H91" s="117"/>
       <c r="I91" s="112">
-        <v>49.48</v>
-      </c>
-      <c r="J91" s="113">
-        <v>40.137867999999997</v>
-      </c>
-      <c r="K91" s="113">
-        <v>40.497298000000001</v>
-      </c>
-      <c r="L91" s="113">
-        <v>-129.78747300000001</v>
-      </c>
-      <c r="M91" s="113">
-        <v>-124.41086</v>
+        <v>11.93</v>
       </c>
       <c r="N91" s="112"/>
       <c r="O91" s="115"/>
@@ -8188,7 +8301,7 @@
       <c r="R91" s="115"/>
       <c r="S91" s="115"/>
       <c r="T91" s="117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" s="115"/>
       <c r="V91" s="115"/>
@@ -8209,43 +8322,80 @@
       <c r="AQ91" s="29"/>
     </row>
     <row r="92" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="111">
-        <v>139</v>
-      </c>
-      <c r="B92" s="111"/>
-      <c r="C92" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="44" t="s">
+      <c r="A92" s="23">
+        <v>4</v>
+      </c>
+      <c r="B92" s="23">
+        <v>1</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="27">
+        <v>35.1</v>
+      </c>
+      <c r="F92" s="27">
+        <v>-35.6</v>
+      </c>
+      <c r="G92" s="23">
+        <v>121</v>
+      </c>
+      <c r="H92" s="52">
+        <v>101.22</v>
+      </c>
+      <c r="I92" s="26">
+        <v>22</v>
+      </c>
+      <c r="J92" s="27">
+        <v>35</v>
+      </c>
+      <c r="K92" s="27">
+        <v>35.36</v>
+      </c>
+      <c r="L92" s="27">
+        <v>-36.549999999999997</v>
+      </c>
+      <c r="M92" s="27">
+        <v>-35.1</v>
+      </c>
+      <c r="N92" s="26">
+        <v>5.9</v>
+      </c>
+      <c r="O92" s="10">
+        <v>1</v>
+      </c>
+      <c r="P92" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="71">
+        <v>1</v>
+      </c>
+      <c r="R92" s="71"/>
+      <c r="S92" s="52">
+        <v>1</v>
+      </c>
+      <c r="T92" s="52">
+        <v>1</v>
+      </c>
+      <c r="U92" s="52">
+        <v>1</v>
+      </c>
+      <c r="V92" s="52">
         <v>2</v>
       </c>
-      <c r="E92" s="113">
-        <v>-31.4254</v>
-      </c>
-      <c r="F92" s="113">
-        <v>58.410699999999999</v>
-      </c>
-      <c r="G92" s="111">
-        <v>45</v>
-      </c>
-      <c r="H92" s="117"/>
-      <c r="I92" s="112">
-        <v>11.93</v>
-      </c>
-      <c r="N92" s="112"/>
-      <c r="O92" s="115"/>
-      <c r="P92" s="115"/>
-      <c r="Q92" s="115"/>
-      <c r="R92" s="115"/>
-      <c r="S92" s="115"/>
-      <c r="T92" s="117">
-        <v>0</v>
-      </c>
-      <c r="U92" s="115"/>
-      <c r="V92" s="115"/>
-      <c r="W92" s="103"/>
-      <c r="X92" s="103"/>
-      <c r="Y92" s="118"/>
+      <c r="W92" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="X92" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y92" s="27">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Z92" s="14"/>
       <c r="AA92" s="29"/>
       <c r="AG92" s="29"/>
       <c r="AH92" s="29"/>
@@ -8260,81 +8410,102 @@
       <c r="AQ92" s="29"/>
     </row>
     <row r="93" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="23">
-        <v>4</v>
-      </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="27">
-        <v>35.1</v>
-      </c>
-      <c r="F93" s="27">
-        <v>-35.6</v>
-      </c>
-      <c r="G93" s="23">
-        <v>121</v>
-      </c>
-      <c r="H93" s="52">
-        <v>101.22</v>
-      </c>
-      <c r="I93" s="26">
+      <c r="A93" s="80">
+        <v>19</v>
+      </c>
+      <c r="B93" s="80">
+        <v>1</v>
+      </c>
+      <c r="C93" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="J93" s="27">
-        <v>35</v>
-      </c>
-      <c r="K93" s="27">
-        <v>35.36</v>
-      </c>
-      <c r="L93" s="27">
-        <v>-36.549999999999997</v>
-      </c>
-      <c r="M93" s="27">
-        <v>-35.1</v>
-      </c>
-      <c r="N93" s="26">
-        <v>5.9</v>
-      </c>
-      <c r="O93" s="10">
-        <v>1</v>
-      </c>
-      <c r="P93" s="10">
+      <c r="E93" s="83">
+        <v>15.2</v>
+      </c>
+      <c r="F93" s="83">
+        <v>-105</v>
+      </c>
+      <c r="G93" s="80">
+        <v>89</v>
+      </c>
+      <c r="H93" s="102">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="I93" s="82">
+        <v>86.5</v>
+      </c>
+      <c r="J93" s="83">
+        <v>15.15</v>
+      </c>
+      <c r="K93" s="83">
+        <v>15.56</v>
+      </c>
+      <c r="L93" s="83">
+        <v>-105.32</v>
+      </c>
+      <c r="M93" s="83">
+        <v>-104.31</v>
+      </c>
+      <c r="N93" s="82">
+        <v>5.3</v>
+      </c>
+      <c r="O93" s="13">
+        <v>1</v>
+      </c>
+      <c r="P93" s="13">
         <v>0</v>
       </c>
-      <c r="Q93" s="71">
-        <v>1</v>
-      </c>
-      <c r="R93" s="71"/>
-      <c r="S93" s="52">
-        <v>1</v>
-      </c>
-      <c r="T93" s="52">
-        <v>1</v>
-      </c>
-      <c r="U93" s="52">
-        <v>1</v>
-      </c>
-      <c r="V93" s="52">
+      <c r="Q93" s="101">
+        <v>1</v>
+      </c>
+      <c r="R93" s="101"/>
+      <c r="S93" s="102">
+        <v>0</v>
+      </c>
+      <c r="T93" s="102">
+        <v>1</v>
+      </c>
+      <c r="U93" s="102">
+        <v>1</v>
+      </c>
+      <c r="V93" s="84">
         <v>2</v>
       </c>
-      <c r="W93" s="52" t="s">
+      <c r="W93" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="X93" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y93" s="27">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="Z93" s="14"/>
-      <c r="AA93" s="29"/>
-      <c r="AG93" s="29"/>
-      <c r="AH93" s="29"/>
+      <c r="X93" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y93" s="85">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="Z93" s="14">
+        <v>84.95</v>
+      </c>
+      <c r="AA93" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB93" s="29">
+        <v>288.68</v>
+      </c>
+      <c r="AC93" s="29">
+        <v>59.35</v>
+      </c>
+      <c r="AD93" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE93" s="29">
+        <v>37.19</v>
+      </c>
+      <c r="AF93" s="29">
+        <v>47.2</v>
+      </c>
+      <c r="AG93" s="55"/>
+      <c r="AH93" s="104"/>
       <c r="AI93" s="29"/>
       <c r="AJ93" s="29"/>
       <c r="AK93" s="29"/>
@@ -8346,100 +8517,80 @@
       <c r="AQ93" s="29"/>
     </row>
     <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="80">
-        <v>19</v>
-      </c>
-      <c r="B94" s="80"/>
-      <c r="C94" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="83">
-        <v>15.2</v>
-      </c>
-      <c r="F94" s="83">
-        <v>-105</v>
-      </c>
-      <c r="G94" s="80">
-        <v>89</v>
-      </c>
-      <c r="H94" s="102">
-        <v>71.819999999999993</v>
-      </c>
-      <c r="I94" s="82">
-        <v>86.5</v>
-      </c>
-      <c r="J94" s="83">
-        <v>15.15</v>
-      </c>
-      <c r="K94" s="83">
-        <v>15.56</v>
-      </c>
-      <c r="L94" s="83">
-        <v>-105.32</v>
-      </c>
-      <c r="M94" s="83">
-        <v>-104.31</v>
-      </c>
-      <c r="N94" s="82">
-        <v>5.3</v>
-      </c>
-      <c r="O94" s="13">
-        <v>1</v>
-      </c>
-      <c r="P94" s="13">
+      <c r="A94" s="29">
+        <v>59</v>
+      </c>
+      <c r="B94" s="29">
+        <v>1</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="28">
+        <v>11.5</v>
+      </c>
+      <c r="F94" s="28">
+        <v>57.5</v>
+      </c>
+      <c r="G94" s="29">
+        <v>335</v>
+      </c>
+      <c r="H94" s="120">
+        <v>24.52</v>
+      </c>
+      <c r="I94" s="86">
+        <v>23.9</v>
+      </c>
+      <c r="J94" s="28">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="K94" s="28">
+        <v>13.01</v>
+      </c>
+      <c r="L94" s="28">
+        <v>56.62</v>
+      </c>
+      <c r="M94" s="28">
+        <v>58.61</v>
+      </c>
+      <c r="N94" s="86">
+        <v>6</v>
+      </c>
+      <c r="O94" s="119">
+        <v>1</v>
+      </c>
+      <c r="P94" s="119">
         <v>0</v>
       </c>
-      <c r="Q94" s="101">
-        <v>1</v>
-      </c>
-      <c r="R94" s="101"/>
-      <c r="S94" s="102">
+      <c r="Q94" s="121">
+        <v>1</v>
+      </c>
+      <c r="R94" s="121"/>
+      <c r="S94" s="120">
         <v>0</v>
       </c>
-      <c r="T94" s="102">
-        <v>1</v>
-      </c>
-      <c r="U94" s="102">
-        <v>1</v>
-      </c>
-      <c r="V94" s="84">
-        <v>2</v>
-      </c>
-      <c r="W94" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="X94" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y94" s="85">
-        <v>0.83240000000000003</v>
-      </c>
-      <c r="Z94" s="14">
-        <v>84.95</v>
-      </c>
-      <c r="AA94" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB94" s="29">
-        <v>288.68</v>
-      </c>
-      <c r="AC94" s="29">
-        <v>59.35</v>
-      </c>
-      <c r="AD94" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE94" s="29">
-        <v>37.19</v>
-      </c>
-      <c r="AF94" s="29">
-        <v>47.2</v>
-      </c>
-      <c r="AG94" s="55"/>
-      <c r="AH94" s="104"/>
+      <c r="T94" s="120">
+        <v>0</v>
+      </c>
+      <c r="U94" s="120"/>
+      <c r="V94" s="120">
+        <v>1</v>
+      </c>
+      <c r="W94" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="X94" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y94" s="28">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="AA94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
       <c r="AI94" s="29"/>
       <c r="AJ94" s="29"/>
       <c r="AK94" s="29"/>
@@ -8450,76 +8601,43 @@
       <c r="AP94" s="29"/>
       <c r="AQ94" s="29"/>
     </row>
-    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="29">
-        <v>59</v>
-      </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" s="28">
-        <v>11.5</v>
-      </c>
-      <c r="F95" s="28">
-        <v>57.5</v>
-      </c>
-      <c r="G95" s="29">
-        <v>335</v>
-      </c>
-      <c r="H95" s="120">
-        <v>24.52</v>
-      </c>
-      <c r="I95" s="86">
-        <v>23.9</v>
-      </c>
-      <c r="J95" s="28">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="K95" s="28">
-        <v>13.01</v>
-      </c>
-      <c r="L95" s="28">
-        <v>56.62</v>
-      </c>
-      <c r="M95" s="28">
-        <v>58.61</v>
-      </c>
-      <c r="N95" s="86">
-        <v>6</v>
-      </c>
-      <c r="O95" s="119">
-        <v>1</v>
-      </c>
-      <c r="P95" s="119">
+    <row r="95" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="111">
+        <v>124</v>
+      </c>
+      <c r="B95" s="111"/>
+      <c r="C95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="113">
+        <v>-61.7789</v>
+      </c>
+      <c r="F95" s="113">
+        <v>161.50450000000001</v>
+      </c>
+      <c r="G95" s="111">
+        <v>77</v>
+      </c>
+      <c r="I95" s="113">
+        <v>45.98</v>
+      </c>
+      <c r="N95" s="112"/>
+      <c r="O95" s="115"/>
+      <c r="P95" s="115"/>
+      <c r="Q95" s="115"/>
+      <c r="R95" s="115"/>
+      <c r="S95" s="115"/>
+      <c r="T95" s="117">
         <v>0</v>
       </c>
-      <c r="Q95" s="121">
-        <v>1</v>
-      </c>
-      <c r="R95" s="121"/>
-      <c r="S95" s="120">
-        <v>0</v>
-      </c>
-      <c r="T95" s="120">
-        <v>0</v>
-      </c>
-      <c r="U95" s="120"/>
-      <c r="V95" s="120">
-        <v>1</v>
-      </c>
-      <c r="W95" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="X95" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y95" s="28">
-        <v>0.66220000000000001</v>
-      </c>
+      <c r="U95" s="115"/>
+      <c r="V95" s="115"/>
+      <c r="W95" s="103"/>
+      <c r="X95" s="103"/>
+      <c r="Y95" s="118"/>
       <c r="AA95" s="29"/>
       <c r="AG95" s="29"/>
       <c r="AH95" s="29"/>
@@ -8533,28 +8651,29 @@
       <c r="AP95" s="29"/>
       <c r="AQ95" s="29"/>
     </row>
-    <row r="96" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="111">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" s="111"/>
       <c r="C96" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E96" s="113">
-        <v>-61.7789</v>
+        <v>-62.095599999999997</v>
       </c>
       <c r="F96" s="113">
-        <v>161.50450000000001</v>
+        <v>163.35849999999999</v>
       </c>
       <c r="G96" s="111">
-        <v>77</v>
-      </c>
-      <c r="I96" s="113">
-        <v>45.98</v>
+        <v>85</v>
+      </c>
+      <c r="H96" s="117"/>
+      <c r="I96" s="112">
+        <v>46.71</v>
       </c>
       <c r="N96" s="112"/>
       <c r="O96" s="115"/>
@@ -8585,27 +8704,27 @@
     </row>
     <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="111">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" s="111"/>
       <c r="C97" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D97" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E97" s="113">
-        <v>-62.095599999999997</v>
+        <v>-62.383499999999998</v>
       </c>
       <c r="F97" s="113">
-        <v>163.35849999999999</v>
+        <v>165.46100000000001</v>
       </c>
       <c r="G97" s="111">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H97" s="117"/>
       <c r="I97" s="112">
-        <v>46.71</v>
+        <v>47.58</v>
       </c>
       <c r="N97" s="112"/>
       <c r="O97" s="115"/>
@@ -8636,27 +8755,43 @@
     </row>
     <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="111">
-        <v>126</v>
-      </c>
-      <c r="B98" s="111"/>
+        <v>127</v>
+      </c>
+      <c r="B98" s="111">
+        <v>1</v>
+      </c>
       <c r="C98" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D98" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E98" s="113">
-        <v>-62.383499999999998</v>
+        <v>-64.5321</v>
       </c>
       <c r="F98" s="113">
-        <v>165.46100000000001</v>
+        <v>-170.779</v>
       </c>
       <c r="G98" s="111">
-        <v>89</v>
-      </c>
-      <c r="H98" s="117"/>
+        <v>71</v>
+      </c>
+      <c r="H98" s="117">
+        <v>135.78</v>
+      </c>
       <c r="I98" s="112">
-        <v>47.58</v>
+        <v>56.74</v>
+      </c>
+      <c r="J98" s="113">
+        <v>-64.412834000000004</v>
+      </c>
+      <c r="K98" s="113">
+        <v>-64.114982999999995</v>
+      </c>
+      <c r="L98" s="113">
+        <v>-171.91574</v>
+      </c>
+      <c r="M98" s="113">
+        <v>-170.316698</v>
       </c>
       <c r="N98" s="112"/>
       <c r="O98" s="115"/>
@@ -8665,7 +8800,7 @@
       <c r="R98" s="115"/>
       <c r="S98" s="115"/>
       <c r="T98" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98" s="115"/>
       <c r="V98" s="115"/>
@@ -8686,57 +8821,77 @@
       <c r="AQ98" s="29"/>
     </row>
     <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="111">
-        <v>127</v>
-      </c>
-      <c r="B99" s="111"/>
-      <c r="C99" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E99" s="113">
-        <v>-64.5321</v>
-      </c>
-      <c r="F99" s="113">
-        <v>-170.779</v>
-      </c>
-      <c r="G99" s="111">
-        <v>71</v>
-      </c>
-      <c r="H99" s="117">
-        <v>135.78</v>
-      </c>
-      <c r="I99" s="112">
-        <v>56.74</v>
-      </c>
-      <c r="J99" s="113">
-        <v>-64.412834000000004</v>
-      </c>
-      <c r="K99" s="113">
-        <v>-64.114982999999995</v>
-      </c>
-      <c r="L99" s="113">
-        <v>-171.91574</v>
-      </c>
-      <c r="M99" s="113">
-        <v>-170.316698</v>
-      </c>
-      <c r="N99" s="112"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="115"/>
-      <c r="Q99" s="115"/>
-      <c r="R99" s="115"/>
-      <c r="S99" s="115"/>
-      <c r="T99" s="117">
-        <v>1</v>
-      </c>
-      <c r="U99" s="115"/>
-      <c r="V99" s="115"/>
-      <c r="W99" s="103"/>
-      <c r="X99" s="103"/>
-      <c r="Y99" s="118"/>
+      <c r="A99" s="44">
+        <v>47</v>
+      </c>
+      <c r="B99" s="44">
+        <v>1</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="48">
+        <v>-45.4</v>
+      </c>
+      <c r="F99" s="48">
+        <v>35.1</v>
+      </c>
+      <c r="G99" s="44">
+        <v>146</v>
+      </c>
+      <c r="H99" s="51">
+        <v>18.16</v>
+      </c>
+      <c r="I99" s="47">
+        <v>14.7</v>
+      </c>
+      <c r="J99" s="48">
+        <v>-46.8</v>
+      </c>
+      <c r="K99" s="48">
+        <v>-45.16</v>
+      </c>
+      <c r="L99" s="48">
+        <v>34.53</v>
+      </c>
+      <c r="M99" s="48">
+        <v>35.4</v>
+      </c>
+      <c r="N99" s="47">
+        <v>6</v>
+      </c>
+      <c r="O99" s="49">
+        <v>1</v>
+      </c>
+      <c r="P99" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="50">
+        <v>0</v>
+      </c>
+      <c r="R99" s="50"/>
+      <c r="S99" s="51">
+        <v>1</v>
+      </c>
+      <c r="T99" s="51">
+        <v>0</v>
+      </c>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51">
+        <v>1</v>
+      </c>
+      <c r="W99" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X99" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y99" s="48">
+        <v>0.31780000000000003</v>
+      </c>
       <c r="AA99" s="29"/>
       <c r="AG99" s="29"/>
       <c r="AH99" s="29"/>
@@ -8751,78 +8906,100 @@
       <c r="AQ99" s="29"/>
     </row>
     <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="44">
-        <v>47</v>
-      </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="48">
-        <v>-45.4</v>
-      </c>
-      <c r="F100" s="48">
-        <v>35.1</v>
-      </c>
-      <c r="G100" s="44">
-        <v>146</v>
-      </c>
-      <c r="H100" s="51">
-        <v>18.16</v>
-      </c>
-      <c r="I100" s="47">
-        <v>14.7</v>
-      </c>
-      <c r="J100" s="48">
-        <v>-46.8</v>
-      </c>
-      <c r="K100" s="48">
-        <v>-45.16</v>
-      </c>
-      <c r="L100" s="48">
-        <v>34.53</v>
-      </c>
-      <c r="M100" s="48">
-        <v>35.4</v>
-      </c>
-      <c r="N100" s="47">
-        <v>6</v>
-      </c>
-      <c r="O100" s="49">
-        <v>1</v>
-      </c>
-      <c r="P100" s="49">
+      <c r="A100" s="80">
+        <v>22</v>
+      </c>
+      <c r="B100" s="80">
+        <v>1</v>
+      </c>
+      <c r="C100" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="83">
+        <v>-3.8</v>
+      </c>
+      <c r="F100" s="83">
+        <v>-103.2</v>
+      </c>
+      <c r="G100" s="80">
+        <v>118</v>
+      </c>
+      <c r="H100" s="102">
+        <v>95.7</v>
+      </c>
+      <c r="I100" s="82">
+        <v>137.4</v>
+      </c>
+      <c r="J100" s="83">
+        <v>-4</v>
+      </c>
+      <c r="K100" s="83">
+        <v>-3.4</v>
+      </c>
+      <c r="L100" s="83">
+        <v>-104.22</v>
+      </c>
+      <c r="M100" s="83">
+        <v>-102.72</v>
+      </c>
+      <c r="N100" s="82">
+        <v>5.7</v>
+      </c>
+      <c r="O100" s="13">
+        <v>1</v>
+      </c>
+      <c r="P100" s="13">
         <v>0</v>
       </c>
-      <c r="Q100" s="50">
+      <c r="Q100" s="101">
         <v>0</v>
       </c>
-      <c r="R100" s="50"/>
-      <c r="S100" s="51">
-        <v>1</v>
-      </c>
-      <c r="T100" s="51">
-        <v>0</v>
-      </c>
-      <c r="U100" s="51"/>
-      <c r="V100" s="51">
-        <v>1</v>
-      </c>
-      <c r="W100" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="X100" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y100" s="48">
-        <v>0.31780000000000003</v>
-      </c>
-      <c r="AA100" s="29"/>
+      <c r="R100" s="101"/>
+      <c r="S100" s="102">
+        <v>1</v>
+      </c>
+      <c r="T100" s="102">
+        <v>1</v>
+      </c>
+      <c r="U100" s="102"/>
+      <c r="V100" s="84">
+        <v>1</v>
+      </c>
+      <c r="W100" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="X100" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y100" s="85">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="Z100" s="14">
+        <v>100.59</v>
+      </c>
+      <c r="AA100" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB100" s="29">
+        <v>284.85000000000002</v>
+      </c>
+      <c r="AC100" s="29">
+        <v>69.87</v>
+      </c>
+      <c r="AD100" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE100" s="29">
+        <v>90.51</v>
+      </c>
+      <c r="AF100" s="29">
+        <v>54.22</v>
+      </c>
       <c r="AG100" s="29"/>
-      <c r="AH100" s="29"/>
+      <c r="AH100" s="86"/>
       <c r="AI100" s="29"/>
       <c r="AJ100" s="29"/>
       <c r="AK100" s="29"/>
@@ -8834,98 +9011,100 @@
       <c r="AQ100" s="29"/>
     </row>
     <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="80">
-        <v>22</v>
-      </c>
-      <c r="B101" s="80"/>
-      <c r="C101" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="83">
-        <v>-3.8</v>
-      </c>
-      <c r="F101" s="83">
-        <v>-103.2</v>
-      </c>
-      <c r="G101" s="80">
-        <v>118</v>
-      </c>
-      <c r="H101" s="102">
-        <v>95.7</v>
-      </c>
-      <c r="I101" s="82">
-        <v>137.4</v>
-      </c>
-      <c r="J101" s="83">
-        <v>-4</v>
-      </c>
-      <c r="K101" s="83">
-        <v>-3.4</v>
-      </c>
-      <c r="L101" s="83">
-        <v>-104.22</v>
-      </c>
-      <c r="M101" s="83">
-        <v>-102.72</v>
-      </c>
-      <c r="N101" s="82">
-        <v>5.7</v>
-      </c>
-      <c r="O101" s="13">
-        <v>1</v>
-      </c>
-      <c r="P101" s="13">
+      <c r="A101" s="90">
+        <v>32</v>
+      </c>
+      <c r="B101" s="90">
+        <v>1</v>
+      </c>
+      <c r="C101" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101" s="94">
+        <v>-54.5</v>
+      </c>
+      <c r="F101" s="94">
+        <v>-119.5</v>
+      </c>
+      <c r="G101" s="90">
+        <v>146</v>
+      </c>
+      <c r="H101" s="99">
+        <v>111.81</v>
+      </c>
+      <c r="I101" s="93">
+        <v>85.8</v>
+      </c>
+      <c r="J101" s="94">
+        <v>-54.72</v>
+      </c>
+      <c r="K101" s="94">
+        <v>-54.06</v>
+      </c>
+      <c r="L101" s="94">
+        <v>-120.72</v>
+      </c>
+      <c r="M101" s="94">
+        <v>-118.44</v>
+      </c>
+      <c r="N101" s="93">
+        <v>5.2</v>
+      </c>
+      <c r="O101" s="8">
+        <v>1</v>
+      </c>
+      <c r="P101" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="98">
+        <v>1</v>
+      </c>
+      <c r="R101" s="98"/>
+      <c r="S101" s="99">
+        <v>1</v>
+      </c>
+      <c r="T101" s="99">
         <v>0</v>
       </c>
-      <c r="Q101" s="101">
-        <v>0</v>
-      </c>
-      <c r="R101" s="101"/>
-      <c r="S101" s="102">
-        <v>1</v>
-      </c>
-      <c r="T101" s="102">
-        <v>1</v>
-      </c>
-      <c r="U101" s="102"/>
-      <c r="V101" s="84">
-        <v>1</v>
-      </c>
-      <c r="W101" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="X101" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y101" s="85">
-        <v>0.71089999999999998</v>
+      <c r="U101" s="99"/>
+      <c r="V101" s="95">
+        <v>1</v>
+      </c>
+      <c r="W101" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X101" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y101" s="96">
+        <v>0.57310000000000005</v>
       </c>
       <c r="Z101" s="14">
-        <v>100.59</v>
-      </c>
-      <c r="AA101" s="29" t="s">
-        <v>108</v>
+        <v>110.81</v>
+      </c>
+      <c r="AA101" s="97" t="s">
+        <v>107</v>
       </c>
       <c r="AB101" s="29">
-        <v>284.85000000000002</v>
+        <v>294.27999999999997</v>
       </c>
       <c r="AC101" s="29">
-        <v>69.87</v>
+        <v>61.44</v>
       </c>
       <c r="AD101" s="29" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AE101" s="29">
-        <v>90.51</v>
+        <v>89.75</v>
       </c>
       <c r="AF101" s="29">
-        <v>54.22</v>
+        <v>23.64</v>
       </c>
       <c r="AG101" s="29"/>
-      <c r="AH101" s="86"/>
+      <c r="AH101" s="29"/>
       <c r="AI101" s="29"/>
       <c r="AJ101" s="29"/>
       <c r="AK101" s="29"/>
@@ -8937,96 +9116,60 @@
       <c r="AQ101" s="29"/>
     </row>
     <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="90">
-        <v>32</v>
-      </c>
-      <c r="B102" s="90"/>
-      <c r="C102" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="D102" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E102" s="94">
-        <v>-54.5</v>
-      </c>
-      <c r="F102" s="94">
-        <v>-119.5</v>
-      </c>
-      <c r="G102" s="90">
-        <v>146</v>
-      </c>
-      <c r="H102" s="99">
-        <v>111.81</v>
-      </c>
-      <c r="I102" s="93">
-        <v>85.8</v>
-      </c>
-      <c r="J102" s="94">
-        <v>-54.72</v>
-      </c>
-      <c r="K102" s="94">
-        <v>-54.06</v>
-      </c>
-      <c r="L102" s="94">
-        <v>-120.72</v>
-      </c>
-      <c r="M102" s="94">
-        <v>-118.44</v>
-      </c>
-      <c r="N102" s="93">
-        <v>5.2</v>
-      </c>
-      <c r="O102" s="8">
-        <v>1</v>
-      </c>
-      <c r="P102" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="98">
-        <v>1</v>
-      </c>
-      <c r="R102" s="98"/>
-      <c r="S102" s="99">
-        <v>1</v>
-      </c>
-      <c r="T102" s="99">
-        <v>0</v>
-      </c>
-      <c r="U102" s="99"/>
-      <c r="V102" s="95">
-        <v>1</v>
-      </c>
-      <c r="W102" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="X102" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y102" s="96">
-        <v>0.57310000000000005</v>
-      </c>
-      <c r="Z102" s="14">
-        <v>110.81</v>
-      </c>
-      <c r="AA102" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB102" s="29">
-        <v>294.27999999999997</v>
-      </c>
-      <c r="AC102" s="29">
-        <v>61.44</v>
-      </c>
-      <c r="AD102" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE102" s="29">
-        <v>89.75</v>
-      </c>
-      <c r="AF102" s="29">
-        <v>23.64</v>
-      </c>
+      <c r="A102" s="111">
+        <v>119</v>
+      </c>
+      <c r="B102" s="111">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="113">
+        <v>-28.230599999999999</v>
+      </c>
+      <c r="F102" s="113">
+        <v>-12.9412</v>
+      </c>
+      <c r="G102" s="111">
+        <v>57</v>
+      </c>
+      <c r="H102" s="117">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="I102" s="112">
+        <v>30.19</v>
+      </c>
+      <c r="J102" s="113">
+        <v>-28.424333000000001</v>
+      </c>
+      <c r="K102" s="113">
+        <v>-28.046081000000001</v>
+      </c>
+      <c r="L102" s="113">
+        <v>-13.302659999999999</v>
+      </c>
+      <c r="M102" s="113">
+        <v>-12.521929999999999</v>
+      </c>
+      <c r="N102" s="112"/>
+      <c r="O102" s="115"/>
+      <c r="P102" s="115"/>
+      <c r="Q102" s="115"/>
+      <c r="R102" s="115"/>
+      <c r="S102" s="115"/>
+      <c r="T102" s="117">
+        <v>1</v>
+      </c>
+      <c r="U102" s="115"/>
+      <c r="V102" s="115"/>
+      <c r="W102" s="103"/>
+      <c r="X102" s="103"/>
+      <c r="Y102" s="118"/>
+      <c r="AA102" s="29"/>
       <c r="AG102" s="29"/>
       <c r="AH102" s="29"/>
       <c r="AI102" s="29"/>
@@ -9040,60 +9183,100 @@
       <c r="AQ102" s="29"/>
     </row>
     <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="111">
-        <v>119</v>
-      </c>
-      <c r="B103" s="111"/>
-      <c r="C103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="113">
-        <v>-28.230599999999999</v>
-      </c>
-      <c r="F103" s="113">
-        <v>-12.9412</v>
-      </c>
-      <c r="G103" s="111">
-        <v>57</v>
-      </c>
-      <c r="H103" s="117">
-        <v>78.819999999999993</v>
-      </c>
-      <c r="I103" s="112">
-        <v>30.19</v>
-      </c>
-      <c r="J103" s="113">
-        <v>-28.424333000000001</v>
-      </c>
-      <c r="K103" s="113">
-        <v>-28.046081000000001</v>
-      </c>
-      <c r="L103" s="113">
-        <v>-13.302659999999999</v>
-      </c>
-      <c r="M103" s="113">
-        <v>-12.521929999999999</v>
-      </c>
-      <c r="N103" s="112"/>
-      <c r="O103" s="115"/>
-      <c r="P103" s="115"/>
-      <c r="Q103" s="115"/>
-      <c r="R103" s="115"/>
-      <c r="S103" s="115"/>
-      <c r="T103" s="117">
-        <v>1</v>
-      </c>
-      <c r="U103" s="115"/>
-      <c r="V103" s="115"/>
-      <c r="W103" s="103"/>
-      <c r="X103" s="103"/>
-      <c r="Y103" s="118"/>
-      <c r="AA103" s="29"/>
+      <c r="A103" s="80">
+        <v>18</v>
+      </c>
+      <c r="B103" s="80">
+        <v>1</v>
+      </c>
+      <c r="C103" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="83">
+        <v>19</v>
+      </c>
+      <c r="F103" s="83">
+        <v>-107.4</v>
+      </c>
+      <c r="G103" s="80">
+        <v>374</v>
+      </c>
+      <c r="H103" s="102">
+        <v>109.53</v>
+      </c>
+      <c r="I103" s="82">
+        <v>71.2</v>
+      </c>
+      <c r="J103" s="83">
+        <v>17.95</v>
+      </c>
+      <c r="K103" s="83">
+        <v>19.8</v>
+      </c>
+      <c r="L103" s="83">
+        <v>-109.3</v>
+      </c>
+      <c r="M103" s="83">
+        <v>-104.95</v>
+      </c>
+      <c r="N103" s="82">
+        <v>6</v>
+      </c>
+      <c r="O103" s="13">
+        <v>1</v>
+      </c>
+      <c r="P103" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="101">
+        <v>1</v>
+      </c>
+      <c r="R103" s="101"/>
+      <c r="S103" s="102">
+        <v>1</v>
+      </c>
+      <c r="T103" s="102">
+        <v>1</v>
+      </c>
+      <c r="U103" s="102">
+        <v>1</v>
+      </c>
+      <c r="V103" s="84">
+        <v>3</v>
+      </c>
+      <c r="W103" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="X103" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y103" s="85"/>
+      <c r="Z103" s="14">
+        <v>115.12</v>
+      </c>
+      <c r="AA103" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB103" s="29">
+        <v>290.25</v>
+      </c>
+      <c r="AC103" s="29">
+        <v>57.05</v>
+      </c>
+      <c r="AD103" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE103" s="29">
+        <v>72.39</v>
+      </c>
+      <c r="AF103" s="29">
+        <v>12.57</v>
+      </c>
       <c r="AG103" s="29"/>
-      <c r="AH103" s="29"/>
+      <c r="AH103" s="86"/>
       <c r="AI103" s="29"/>
       <c r="AJ103" s="29"/>
       <c r="AK103" s="29"/>
@@ -9105,98 +9288,80 @@
       <c r="AQ103" s="29"/>
     </row>
     <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="80">
-        <v>18</v>
-      </c>
-      <c r="B104" s="80"/>
-      <c r="C104" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="83">
-        <v>19</v>
-      </c>
-      <c r="F104" s="83">
-        <v>-107.4</v>
-      </c>
-      <c r="G104" s="80">
-        <v>374</v>
-      </c>
-      <c r="H104" s="102">
-        <v>109.53</v>
-      </c>
-      <c r="I104" s="82">
-        <v>71.2</v>
-      </c>
-      <c r="J104" s="83">
-        <v>17.95</v>
-      </c>
-      <c r="K104" s="83">
-        <v>19.8</v>
-      </c>
-      <c r="L104" s="83">
-        <v>-109.3</v>
-      </c>
-      <c r="M104" s="83">
-        <v>-104.95</v>
-      </c>
-      <c r="N104" s="82">
-        <v>6</v>
-      </c>
-      <c r="O104" s="13">
-        <v>1</v>
-      </c>
-      <c r="P104" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="101">
-        <v>1</v>
-      </c>
-      <c r="R104" s="101"/>
-      <c r="S104" s="102">
-        <v>1</v>
-      </c>
-      <c r="T104" s="102">
-        <v>1</v>
-      </c>
-      <c r="U104" s="102">
-        <v>1</v>
-      </c>
-      <c r="V104" s="84">
+      <c r="A104" s="23">
+        <v>12</v>
+      </c>
+      <c r="B104" s="23">
+        <v>1</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="27">
+        <v>-0.3</v>
+      </c>
+      <c r="F104" s="27">
+        <v>-20.6</v>
+      </c>
+      <c r="G104" s="23">
+        <v>878</v>
+      </c>
+      <c r="H104" s="52">
+        <v>80.16</v>
+      </c>
+      <c r="I104" s="26">
+        <v>32.5</v>
+      </c>
+      <c r="J104" s="27">
+        <v>-1.6</v>
+      </c>
+      <c r="K104" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="L104" s="27">
+        <v>-24.72</v>
+      </c>
+      <c r="M104" s="27">
+        <v>-15.8</v>
+      </c>
+      <c r="N104" s="26">
+        <v>6.5</v>
+      </c>
+      <c r="O104" s="10">
+        <v>1</v>
+      </c>
+      <c r="P104" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="71">
+        <v>1</v>
+      </c>
+      <c r="R104" s="71"/>
+      <c r="S104" s="52">
+        <v>0</v>
+      </c>
+      <c r="T104" s="52">
+        <v>1</v>
+      </c>
+      <c r="U104" s="52">
+        <v>1</v>
+      </c>
+      <c r="V104" s="52">
         <v>3</v>
       </c>
-      <c r="W104" s="84" t="s">
+      <c r="W104" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="X104" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="X104" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y104" s="85"/>
-      <c r="Z104" s="14">
-        <v>115.12</v>
-      </c>
-      <c r="AA104" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB104" s="29">
-        <v>290.25</v>
-      </c>
-      <c r="AC104" s="29">
-        <v>57.05</v>
-      </c>
-      <c r="AD104" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE104" s="29">
-        <v>72.39</v>
-      </c>
-      <c r="AF104" s="29">
-        <v>12.57</v>
-      </c>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="14"/>
       <c r="AG104" s="29"/>
-      <c r="AH104" s="86"/>
+      <c r="AH104" s="29"/>
       <c r="AI104" s="29"/>
       <c r="AJ104" s="29"/>
       <c r="AK104" s="29"/>
@@ -9208,76 +9373,44 @@
       <c r="AQ104" s="29"/>
     </row>
     <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="23">
-        <v>12</v>
-      </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="27">
-        <v>-0.3</v>
-      </c>
-      <c r="F105" s="27">
-        <v>-20.6</v>
-      </c>
-      <c r="G105" s="23">
-        <v>878</v>
-      </c>
-      <c r="H105" s="52">
-        <v>80.16</v>
-      </c>
-      <c r="I105" s="26">
-        <v>32.5</v>
-      </c>
-      <c r="J105" s="27">
-        <v>-1.6</v>
-      </c>
-      <c r="K105" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="L105" s="27">
-        <v>-24.72</v>
-      </c>
-      <c r="M105" s="27">
-        <v>-15.8</v>
-      </c>
-      <c r="N105" s="26">
-        <v>6.5</v>
-      </c>
-      <c r="O105" s="10">
-        <v>1</v>
-      </c>
-      <c r="P105" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="71">
-        <v>1</v>
-      </c>
-      <c r="R105" s="71"/>
-      <c r="S105" s="52">
+      <c r="A105" s="111">
+        <v>128</v>
+      </c>
+      <c r="B105" s="111"/>
+      <c r="C105" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" s="113">
+        <v>-62.243899999999996</v>
+      </c>
+      <c r="F105" s="113">
+        <v>-155.41749999999999</v>
+      </c>
+      <c r="G105" s="111">
+        <v>42</v>
+      </c>
+      <c r="H105" s="117"/>
+      <c r="I105" s="112">
+        <v>64.73</v>
+      </c>
+      <c r="N105" s="112"/>
+      <c r="O105" s="115"/>
+      <c r="P105" s="115"/>
+      <c r="Q105" s="115"/>
+      <c r="R105" s="115"/>
+      <c r="S105" s="115"/>
+      <c r="T105" s="117">
         <v>0</v>
       </c>
-      <c r="T105" s="52">
-        <v>1</v>
-      </c>
-      <c r="U105" s="52">
-        <v>1</v>
-      </c>
-      <c r="V105" s="52">
-        <v>3</v>
-      </c>
-      <c r="W105" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="X105" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y105" s="27"/>
-      <c r="Z105" s="14"/>
+      <c r="U105" s="115"/>
+      <c r="V105" s="115"/>
+      <c r="W105" s="103"/>
+      <c r="X105" s="103"/>
+      <c r="Y105" s="118"/>
+      <c r="AA105" s="29"/>
       <c r="AG105" s="29"/>
       <c r="AH105" s="29"/>
       <c r="AI105" s="29"/>
@@ -9292,27 +9425,27 @@
     </row>
     <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="111">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B106" s="111"/>
       <c r="C106" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="90" t="s">
-        <v>51</v>
+        <v>141</v>
+      </c>
+      <c r="D106" s="100" t="s">
+        <v>13</v>
       </c>
       <c r="E106" s="113">
-        <v>-62.243899999999996</v>
+        <v>-3.8788999999999998</v>
       </c>
       <c r="F106" s="113">
-        <v>-155.41749999999999</v>
+        <v>68.474000000000004</v>
       </c>
       <c r="G106" s="111">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H106" s="117"/>
       <c r="I106" s="112">
-        <v>64.73</v>
+        <v>30.78</v>
       </c>
       <c r="N106" s="112"/>
       <c r="O106" s="115"/>
@@ -9342,44 +9475,98 @@
       <c r="AQ106" s="29"/>
     </row>
     <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="111">
-        <v>97</v>
-      </c>
-      <c r="B107" s="111"/>
-      <c r="C107" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D107" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="113">
-        <v>-3.8788999999999998</v>
-      </c>
-      <c r="F107" s="113">
-        <v>68.474000000000004</v>
-      </c>
-      <c r="G107" s="111">
+      <c r="A107" s="37">
+        <v>70</v>
+      </c>
+      <c r="B107" s="37">
+        <v>1</v>
+      </c>
+      <c r="C107" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H107" s="117"/>
-      <c r="I107" s="112">
-        <v>30.78</v>
-      </c>
-      <c r="N107" s="112"/>
-      <c r="O107" s="115"/>
-      <c r="P107" s="115"/>
-      <c r="Q107" s="115"/>
-      <c r="R107" s="115"/>
-      <c r="S107" s="115"/>
-      <c r="T107" s="117">
+      <c r="D107" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107" s="41">
+        <v>-47.8</v>
+      </c>
+      <c r="F107" s="41">
+        <v>99.8</v>
+      </c>
+      <c r="G107" s="37">
+        <v>129</v>
+      </c>
+      <c r="H107" s="43">
+        <v>32.86</v>
+      </c>
+      <c r="I107" s="40">
+        <v>74.7</v>
+      </c>
+      <c r="J107" s="41">
+        <v>-48.34</v>
+      </c>
+      <c r="K107" s="41">
+        <v>-46.69</v>
+      </c>
+      <c r="L107" s="41">
+        <v>98.97</v>
+      </c>
+      <c r="M107" s="41">
+        <v>100.93</v>
+      </c>
+      <c r="N107" s="40">
+        <v>5.9</v>
+      </c>
+      <c r="O107" s="12">
+        <v>1</v>
+      </c>
+      <c r="P107" s="12">
         <v>0</v>
       </c>
-      <c r="U107" s="115"/>
-      <c r="V107" s="115"/>
-      <c r="W107" s="103"/>
-      <c r="X107" s="103"/>
-      <c r="Y107" s="118"/>
-      <c r="AA107" s="29"/>
+      <c r="Q107" s="54">
+        <v>1</v>
+      </c>
+      <c r="R107" s="54"/>
+      <c r="S107" s="43">
+        <v>0</v>
+      </c>
+      <c r="T107" s="43">
+        <v>1</v>
+      </c>
+      <c r="U107" s="43"/>
+      <c r="V107" s="43">
+        <v>1</v>
+      </c>
+      <c r="W107" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="X107" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y107" s="41">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="Z107" s="14">
+        <v>33.4</v>
+      </c>
+      <c r="AA107" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB107" s="29">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="AC107" s="29">
+        <v>70.12</v>
+      </c>
+      <c r="AD107" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE107" s="29">
+        <v>136.78</v>
+      </c>
+      <c r="AF107" s="29">
+        <v>11.39</v>
+      </c>
       <c r="AG107" s="29"/>
       <c r="AH107" s="29"/>
       <c r="AI107" s="29"/>
@@ -9394,44 +9581,46 @@
     </row>
     <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="37">
-        <v>70</v>
-      </c>
-      <c r="B108" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="B108" s="37">
+        <v>1</v>
+      </c>
       <c r="C108" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E108" s="41">
-        <v>-47.8</v>
+        <v>-48.8</v>
       </c>
       <c r="F108" s="41">
-        <v>99.8</v>
+        <v>106.5</v>
       </c>
       <c r="G108" s="37">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H108" s="43">
-        <v>32.86</v>
+        <v>18.72</v>
       </c>
       <c r="I108" s="40">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="J108" s="41">
-        <v>-48.34</v>
+        <v>-49.5</v>
       </c>
       <c r="K108" s="41">
-        <v>-46.69</v>
+        <v>-47.99</v>
       </c>
       <c r="L108" s="41">
-        <v>98.97</v>
+        <v>105.9</v>
       </c>
       <c r="M108" s="41">
-        <v>100.93</v>
+        <v>107.21</v>
       </c>
       <c r="N108" s="40">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="O108" s="12">
         <v>1</v>
@@ -9454,34 +9643,34 @@
         <v>1</v>
       </c>
       <c r="W108" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X108" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y108" s="41">
-        <v>0.24640000000000001</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="Z108" s="14">
-        <v>33.4</v>
+        <v>26.42</v>
       </c>
       <c r="AA108" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB108" s="29">
-        <v>40.880000000000003</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AC108" s="29">
-        <v>70.12</v>
+        <v>69.14</v>
       </c>
       <c r="AD108" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE108" s="29">
-        <v>136.78</v>
+        <v>139.16999999999999</v>
       </c>
       <c r="AF108" s="29">
-        <v>11.39</v>
+        <v>12.41</v>
       </c>
       <c r="AG108" s="29"/>
       <c r="AH108" s="29"/>
@@ -9497,44 +9686,44 @@
     </row>
     <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="37">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="38" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E109" s="41">
-        <v>-48.8</v>
+        <v>-50</v>
       </c>
       <c r="F109" s="41">
-        <v>106.5</v>
+        <v>114.1</v>
       </c>
       <c r="G109" s="37">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H109" s="43">
-        <v>18.72</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="I109" s="40">
-        <v>75.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="J109" s="41">
-        <v>-49.5</v>
+        <v>-50.43</v>
       </c>
       <c r="K109" s="41">
-        <v>-47.99</v>
+        <v>-49.3</v>
       </c>
       <c r="L109" s="41">
-        <v>105.9</v>
+        <v>113.83</v>
       </c>
       <c r="M109" s="41">
-        <v>107.21</v>
+        <v>114.8</v>
       </c>
       <c r="N109" s="40">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O109" s="12">
         <v>1</v>
@@ -9557,34 +9746,34 @@
         <v>1</v>
       </c>
       <c r="W109" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X109" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y109" s="41">
-        <v>0.87609999999999999</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="Z109" s="14">
-        <v>26.42</v>
+        <v>20.68</v>
       </c>
       <c r="AA109" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB109" s="29">
-        <v>36.299999999999997</v>
+        <v>36.21</v>
       </c>
       <c r="AC109" s="29">
-        <v>69.14</v>
+        <v>69.12</v>
       </c>
       <c r="AD109" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE109" s="29">
         <v>139.16999999999999</v>
       </c>
       <c r="AF109" s="29">
-        <v>12.41</v>
+        <v>12.44</v>
       </c>
       <c r="AG109" s="29"/>
       <c r="AH109" s="29"/>
@@ -9599,96 +9788,44 @@
       <c r="AQ109" s="29"/>
     </row>
     <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="37">
-        <v>72</v>
-      </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="38" t="s">
-        <v>100</v>
+      <c r="A110" s="111">
+        <v>130</v>
+      </c>
+      <c r="B110" s="111"/>
+      <c r="C110" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="41">
-        <v>-50</v>
-      </c>
-      <c r="F110" s="41">
-        <v>114.1</v>
-      </c>
-      <c r="G110" s="37">
-        <v>70</v>
-      </c>
-      <c r="H110" s="43">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="I110" s="40">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="J110" s="41">
-        <v>-50.43</v>
-      </c>
-      <c r="K110" s="41">
-        <v>-49.3</v>
-      </c>
-      <c r="L110" s="41">
-        <v>113.83</v>
-      </c>
-      <c r="M110" s="41">
-        <v>114.8</v>
-      </c>
-      <c r="N110" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="O110" s="12">
-        <v>1</v>
-      </c>
-      <c r="P110" s="12">
+        <v>57</v>
+      </c>
+      <c r="E110" s="113">
+        <v>-49.488399999999999</v>
+      </c>
+      <c r="F110" s="113">
+        <v>120.4165</v>
+      </c>
+      <c r="G110" s="111">
+        <v>154</v>
+      </c>
+      <c r="H110" s="117"/>
+      <c r="I110" s="112">
+        <v>70.19</v>
+      </c>
+      <c r="N110" s="112"/>
+      <c r="O110" s="115"/>
+      <c r="P110" s="115"/>
+      <c r="Q110" s="115"/>
+      <c r="R110" s="115"/>
+      <c r="S110" s="115"/>
+      <c r="T110" s="117">
         <v>0</v>
       </c>
-      <c r="Q110" s="54">
-        <v>1</v>
-      </c>
-      <c r="R110" s="54"/>
-      <c r="S110" s="43">
-        <v>0</v>
-      </c>
-      <c r="T110" s="43">
-        <v>1</v>
-      </c>
-      <c r="U110" s="43"/>
-      <c r="V110" s="43">
-        <v>1</v>
-      </c>
-      <c r="W110" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="X110" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y110" s="41">
-        <v>0.52639999999999998</v>
-      </c>
-      <c r="Z110" s="14">
-        <v>20.68</v>
-      </c>
-      <c r="AA110" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB110" s="29">
-        <v>36.21</v>
-      </c>
-      <c r="AC110" s="29">
-        <v>69.12</v>
-      </c>
-      <c r="AD110" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE110" s="29">
-        <v>139.16999999999999</v>
-      </c>
-      <c r="AF110" s="29">
-        <v>12.44</v>
-      </c>
+      <c r="U110" s="115"/>
+      <c r="V110" s="115"/>
+      <c r="W110" s="103"/>
+      <c r="X110" s="103"/>
+      <c r="Y110" s="118"/>
+      <c r="AA110" s="29"/>
       <c r="AG110" s="29"/>
       <c r="AH110" s="29"/>
       <c r="AI110" s="29"/>
@@ -9703,27 +9840,27 @@
     </row>
     <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="111">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" s="111"/>
       <c r="C111" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E111" s="113">
-        <v>-49.488399999999999</v>
+        <v>-49.355899999999998</v>
       </c>
       <c r="F111" s="113">
-        <v>120.4165</v>
+        <v>121.53149999999999</v>
       </c>
       <c r="G111" s="111">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="H111" s="117"/>
       <c r="I111" s="112">
-        <v>70.19</v>
+        <v>70.13</v>
       </c>
       <c r="N111" s="112"/>
       <c r="O111" s="115"/>
@@ -9754,27 +9891,27 @@
     </row>
     <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="111">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" s="111"/>
       <c r="C112" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E112" s="113">
-        <v>-49.355899999999998</v>
+        <v>-49.708599999999997</v>
       </c>
       <c r="F112" s="113">
-        <v>121.53149999999999</v>
+        <v>122.7255</v>
       </c>
       <c r="G112" s="111">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H112" s="117"/>
       <c r="I112" s="112">
-        <v>70.13</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="N112" s="112"/>
       <c r="O112" s="115"/>
@@ -9804,44 +9941,94 @@
       <c r="AQ112" s="29"/>
     </row>
     <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="111">
-        <v>132</v>
-      </c>
-      <c r="B113" s="111"/>
-      <c r="C113" s="2" t="s">
-        <v>177</v>
+      <c r="A113" s="37">
+        <v>76</v>
+      </c>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="D113" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" s="113">
-        <v>-49.708599999999997</v>
-      </c>
-      <c r="F113" s="113">
-        <v>122.7255</v>
-      </c>
-      <c r="G113" s="111">
-        <v>50</v>
-      </c>
-      <c r="H113" s="117"/>
-      <c r="I113" s="112">
-        <v>70.040000000000006</v>
-      </c>
-      <c r="N113" s="112"/>
-      <c r="O113" s="115"/>
-      <c r="P113" s="115"/>
-      <c r="Q113" s="115"/>
-      <c r="R113" s="115"/>
-      <c r="S113" s="115"/>
-      <c r="T113" s="117">
+        <v>57</v>
+      </c>
+      <c r="E113" s="41">
+        <v>-54.5</v>
+      </c>
+      <c r="F113" s="41">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="G113" s="37">
+        <v>100</v>
+      </c>
+      <c r="H113" s="43">
+        <v>14.86</v>
+      </c>
+      <c r="I113" s="40">
+        <v>71</v>
+      </c>
+      <c r="J113" s="41">
+        <v>-55.03</v>
+      </c>
+      <c r="K113" s="41">
+        <v>-53.82</v>
+      </c>
+      <c r="L113" s="41">
+        <v>142.11000000000001</v>
+      </c>
+      <c r="M113" s="41">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="N113" s="40">
+        <v>5.8</v>
+      </c>
+      <c r="O113" s="12">
+        <v>1</v>
+      </c>
+      <c r="P113" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="54">
+        <v>1</v>
+      </c>
+      <c r="R113" s="54"/>
+      <c r="S113" s="43">
         <v>0</v>
       </c>
-      <c r="U113" s="115"/>
-      <c r="V113" s="115"/>
-      <c r="W113" s="103"/>
-      <c r="X113" s="103"/>
-      <c r="Y113" s="118"/>
-      <c r="AA113" s="29"/>
+      <c r="T113" s="43">
+        <v>0</v>
+      </c>
+      <c r="U113" s="43"/>
+      <c r="V113" s="43">
+        <v>1</v>
+      </c>
+      <c r="W113" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="X113" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y113" s="41"/>
+      <c r="Z113" s="14">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AA113" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB113" s="29">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AC113" s="29">
+        <v>57.05</v>
+      </c>
+      <c r="AD113" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE113" s="29">
+        <v>137.01</v>
+      </c>
+      <c r="AF113" s="29">
+        <v>17.59</v>
+      </c>
       <c r="AG113" s="29"/>
       <c r="AH113" s="29"/>
       <c r="AI113" s="29"/>
@@ -9856,44 +10043,46 @@
     </row>
     <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="37">
-        <v>76</v>
-      </c>
-      <c r="B114" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="B114" s="37">
+        <v>1</v>
+      </c>
       <c r="C114" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E114" s="41">
-        <v>-54.5</v>
+        <v>-42</v>
       </c>
       <c r="F114" s="41">
-        <v>143.80000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="G114" s="37">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H114" s="43">
-        <v>14.86</v>
+        <v>41.79</v>
       </c>
       <c r="I114" s="40">
-        <v>71</v>
+        <v>71.7</v>
       </c>
       <c r="J114" s="41">
-        <v>-55.03</v>
+        <v>-42.26</v>
       </c>
       <c r="K114" s="41">
-        <v>-53.82</v>
+        <v>-41.54</v>
       </c>
       <c r="L114" s="41">
-        <v>142.11000000000001</v>
+        <v>87.92</v>
       </c>
       <c r="M114" s="41">
-        <v>145.19999999999999</v>
+        <v>88.94</v>
       </c>
       <c r="N114" s="40">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O114" s="12">
         <v>1</v>
@@ -9906,42 +10095,44 @@
       </c>
       <c r="R114" s="54"/>
       <c r="S114" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114" s="43"/>
       <c r="V114" s="43">
         <v>1</v>
       </c>
       <c r="W114" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X114" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y114" s="41"/>
+        <v>86</v>
+      </c>
+      <c r="Y114" s="41">
+        <v>0.58389999999999997</v>
+      </c>
       <c r="Z114" s="14">
-        <v>8.2799999999999994</v>
+        <v>46.57</v>
       </c>
       <c r="AA114" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB114" s="29">
-        <v>8.0500000000000007</v>
+        <v>48.84</v>
       </c>
       <c r="AC114" s="29">
-        <v>57.05</v>
+        <v>70.98</v>
       </c>
       <c r="AD114" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE114" s="29">
-        <v>137.01</v>
+        <v>123.95</v>
       </c>
       <c r="AF114" s="29">
-        <v>17.59</v>
+        <v>11.05</v>
       </c>
       <c r="AG114" s="29"/>
       <c r="AH114" s="29"/>
@@ -9957,50 +10148,52 @@
     </row>
     <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="37">
-        <v>67</v>
-      </c>
-      <c r="B115" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="B115" s="37">
+        <v>1</v>
+      </c>
       <c r="C115" s="38" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E115" s="41">
-        <v>-42</v>
+        <v>-45.6</v>
       </c>
       <c r="F115" s="41">
-        <v>88.3</v>
+        <v>96.1</v>
       </c>
       <c r="G115" s="37">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H115" s="43">
-        <v>41.79</v>
+        <v>30.15</v>
       </c>
       <c r="I115" s="40">
-        <v>71.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="J115" s="41">
-        <v>-42.26</v>
+        <v>-46.04</v>
       </c>
       <c r="K115" s="41">
-        <v>-41.54</v>
+        <v>-45.2</v>
       </c>
       <c r="L115" s="41">
-        <v>87.92</v>
+        <v>95.62</v>
       </c>
       <c r="M115" s="41">
-        <v>88.94</v>
+        <v>96.54</v>
       </c>
       <c r="N115" s="40">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O115" s="12">
         <v>1</v>
       </c>
       <c r="P115" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="54">
         <v>1</v>
@@ -10017,34 +10210,34 @@
         <v>1</v>
       </c>
       <c r="W115" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X115" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y115" s="41">
-        <v>0.58389999999999997</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="Z115" s="14">
-        <v>46.57</v>
+        <v>40.96</v>
       </c>
       <c r="AA115" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB115" s="29">
-        <v>48.84</v>
+        <v>43.63</v>
       </c>
       <c r="AC115" s="29">
-        <v>70.98</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="AD115" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE115" s="29">
-        <v>123.95</v>
+        <v>132.69</v>
       </c>
       <c r="AF115" s="29">
-        <v>11.05</v>
+        <v>11.24</v>
       </c>
       <c r="AG115" s="29"/>
       <c r="AH115" s="29"/>
@@ -10060,44 +10253,46 @@
     </row>
     <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="37">
-        <v>68</v>
-      </c>
-      <c r="B116" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="B116" s="37">
+        <v>1</v>
+      </c>
       <c r="C116" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E116" s="41">
-        <v>-45.6</v>
+        <v>-46.5</v>
       </c>
       <c r="F116" s="41">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="G116" s="37">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H116" s="43">
-        <v>30.15</v>
+        <v>28.32</v>
       </c>
       <c r="I116" s="40">
-        <v>73.900000000000006</v>
+        <v>74</v>
       </c>
       <c r="J116" s="41">
-        <v>-46.04</v>
+        <v>-46.71</v>
       </c>
       <c r="K116" s="41">
-        <v>-45.2</v>
+        <v>-46.21</v>
       </c>
       <c r="L116" s="41">
-        <v>95.62</v>
+        <v>95.77</v>
       </c>
       <c r="M116" s="41">
-        <v>96.54</v>
+        <v>96.36</v>
       </c>
       <c r="N116" s="40">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O116" s="12">
         <v>1</v>
@@ -10106,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="Q116" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116" s="54"/>
       <c r="S116" s="43">
@@ -10120,19 +10315,19 @@
         <v>1</v>
       </c>
       <c r="W116" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X116" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y116" s="41">
-        <v>0.60799999999999998</v>
+        <v>0.27610000000000001</v>
       </c>
       <c r="Z116" s="14">
-        <v>40.96</v>
+        <v>37.6</v>
       </c>
       <c r="AA116" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB116" s="29">
         <v>43.63</v>
@@ -10141,7 +10336,7 @@
         <v>70.650000000000006</v>
       </c>
       <c r="AD116" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE116" s="29">
         <v>132.69</v>
@@ -10162,96 +10357,78 @@
       <c r="AQ116" s="29"/>
     </row>
     <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="37">
-        <v>69</v>
-      </c>
-      <c r="B117" s="37"/>
-      <c r="C117" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" s="41">
-        <v>-46.5</v>
-      </c>
-      <c r="F117" s="41">
-        <v>95.9</v>
-      </c>
-      <c r="G117" s="37">
-        <v>40</v>
-      </c>
-      <c r="H117" s="43">
-        <v>28.32</v>
-      </c>
-      <c r="I117" s="40">
-        <v>74</v>
-      </c>
-      <c r="J117" s="41">
-        <v>-46.71</v>
-      </c>
-      <c r="K117" s="41">
-        <v>-46.21</v>
-      </c>
-      <c r="L117" s="41">
-        <v>95.77</v>
-      </c>
-      <c r="M117" s="41">
-        <v>96.36</v>
-      </c>
-      <c r="N117" s="40">
-        <v>5.7</v>
-      </c>
-      <c r="O117" s="12">
-        <v>1</v>
-      </c>
-      <c r="P117" s="12">
+      <c r="A117" s="44">
+        <v>43</v>
+      </c>
+      <c r="B117" s="44">
+        <v>1</v>
+      </c>
+      <c r="C117" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="48">
+        <v>-53.5</v>
+      </c>
+      <c r="F117" s="48">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G117" s="44">
+        <v>199</v>
+      </c>
+      <c r="H117" s="51">
+        <v>38.99</v>
+      </c>
+      <c r="I117" s="47">
+        <v>14.1</v>
+      </c>
+      <c r="J117" s="48">
+        <v>-54.15</v>
+      </c>
+      <c r="K117" s="48">
+        <v>-52.56</v>
+      </c>
+      <c r="L117" s="48">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="M117" s="48">
+        <v>10.23</v>
+      </c>
+      <c r="N117" s="47">
+        <v>5.9</v>
+      </c>
+      <c r="O117" s="49">
+        <v>1</v>
+      </c>
+      <c r="P117" s="49">
         <v>0</v>
       </c>
-      <c r="Q117" s="54">
+      <c r="Q117" s="50">
         <v>0</v>
       </c>
-      <c r="R117" s="54"/>
-      <c r="S117" s="43">
-        <v>1</v>
-      </c>
-      <c r="T117" s="43">
-        <v>1</v>
-      </c>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43">
-        <v>1</v>
-      </c>
-      <c r="W117" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="X117" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y117" s="41">
-        <v>0.27610000000000001</v>
-      </c>
-      <c r="Z117" s="14">
-        <v>37.6</v>
-      </c>
-      <c r="AA117" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB117" s="29">
-        <v>43.63</v>
-      </c>
-      <c r="AC117" s="29">
-        <v>70.650000000000006</v>
-      </c>
-      <c r="AD117" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE117" s="29">
-        <v>132.69</v>
-      </c>
-      <c r="AF117" s="29">
-        <v>11.24</v>
-      </c>
+      <c r="R117" s="50"/>
+      <c r="S117" s="51">
+        <v>0</v>
+      </c>
+      <c r="T117" s="51">
+        <v>1</v>
+      </c>
+      <c r="U117" s="51"/>
+      <c r="V117" s="51">
+        <v>1</v>
+      </c>
+      <c r="W117" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X117" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y117" s="48">
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="AA117" s="29"/>
       <c r="AG117" s="29"/>
       <c r="AH117" s="29"/>
       <c r="AI117" s="29"/>
@@ -10265,75 +10442,41 @@
       <c r="AQ117" s="29"/>
     </row>
     <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="44">
-        <v>43</v>
-      </c>
-      <c r="B118" s="44"/>
-      <c r="C118" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" s="48">
-        <v>-53.5</v>
-      </c>
-      <c r="F118" s="48">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G118" s="44">
-        <v>199</v>
-      </c>
-      <c r="H118" s="51">
-        <v>38.99</v>
-      </c>
-      <c r="I118" s="47">
-        <v>14.1</v>
-      </c>
-      <c r="J118" s="48">
-        <v>-54.15</v>
-      </c>
-      <c r="K118" s="48">
-        <v>-52.56</v>
-      </c>
-      <c r="L118" s="48">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="M118" s="48">
-        <v>10.23</v>
-      </c>
-      <c r="N118" s="47">
-        <v>5.9</v>
-      </c>
-      <c r="O118" s="49">
-        <v>1</v>
-      </c>
-      <c r="P118" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="50">
-        <v>0</v>
-      </c>
-      <c r="R118" s="50"/>
-      <c r="S118" s="51">
-        <v>0</v>
-      </c>
-      <c r="T118" s="51">
-        <v>1</v>
-      </c>
-      <c r="U118" s="51"/>
-      <c r="V118" s="51">
-        <v>1</v>
-      </c>
-      <c r="W118" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="X118" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y118" s="48">
-        <v>0.35510000000000003</v>
-      </c>
+      <c r="A118" s="111">
+        <v>140</v>
+      </c>
+      <c r="B118" s="111"/>
+      <c r="C118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="113">
+        <v>-59.1128</v>
+      </c>
+      <c r="F118" s="113">
+        <v>-59.749000000000002</v>
+      </c>
+      <c r="G118" s="111">
+        <v>332</v>
+      </c>
+      <c r="H118" s="117"/>
+      <c r="I118" s="112">
+        <v>6.83</v>
+      </c>
+      <c r="N118" s="112"/>
+      <c r="O118" s="115"/>
+      <c r="P118" s="115"/>
+      <c r="Q118" s="115"/>
+      <c r="R118" s="115"/>
+      <c r="S118" s="115"/>
+      <c r="T118" s="117"/>
+      <c r="U118" s="115"/>
+      <c r="V118" s="115"/>
+      <c r="W118" s="103"/>
+      <c r="X118" s="103"/>
+      <c r="Y118" s="118"/>
       <c r="AA118" s="29"/>
       <c r="AG118" s="29"/>
       <c r="AH118" s="29"/>
@@ -10348,44 +10491,102 @@
       <c r="AQ118" s="29"/>
     </row>
     <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="111">
-        <v>140</v>
-      </c>
-      <c r="B119" s="111"/>
-      <c r="C119" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D119" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="113">
-        <v>-59.1128</v>
-      </c>
-      <c r="F119" s="113">
-        <v>-59.749000000000002</v>
-      </c>
-      <c r="G119" s="111">
-        <v>332</v>
-      </c>
-      <c r="H119" s="117"/>
-      <c r="I119" s="112">
-        <v>6.83</v>
-      </c>
-      <c r="N119" s="112"/>
-      <c r="O119" s="115"/>
-      <c r="P119" s="115"/>
-      <c r="Q119" s="115"/>
-      <c r="R119" s="115"/>
-      <c r="S119" s="115"/>
-      <c r="T119" s="117"/>
-      <c r="U119" s="115"/>
-      <c r="V119" s="115"/>
-      <c r="W119" s="103"/>
-      <c r="X119" s="103"/>
-      <c r="Y119" s="118"/>
-      <c r="AA119" s="29"/>
+      <c r="A119" s="80">
+        <v>21</v>
+      </c>
+      <c r="B119" s="80">
+        <v>1</v>
+      </c>
+      <c r="C119" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="83">
+        <v>8.4</v>
+      </c>
+      <c r="F119" s="83">
+        <v>-103.5</v>
+      </c>
+      <c r="G119" s="80">
+        <v>110</v>
+      </c>
+      <c r="H119" s="102">
+        <v>85.33</v>
+      </c>
+      <c r="I119" s="82">
+        <v>111.9</v>
+      </c>
+      <c r="J119" s="83">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K119" s="83">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L119" s="83">
+        <v>-104.2</v>
+      </c>
+      <c r="M119" s="83">
+        <v>-102.89</v>
+      </c>
+      <c r="N119" s="82">
+        <v>5.8</v>
+      </c>
+      <c r="O119" s="13">
+        <v>1</v>
+      </c>
+      <c r="P119" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="101">
+        <v>1</v>
+      </c>
+      <c r="R119" s="101"/>
+      <c r="S119" s="102">
+        <v>1</v>
+      </c>
+      <c r="T119" s="102">
+        <v>1</v>
+      </c>
+      <c r="U119" s="102">
+        <v>1</v>
+      </c>
+      <c r="V119" s="84">
+        <v>3</v>
+      </c>
+      <c r="W119" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="X119" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y119" s="85">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="Z119" s="14">
+        <v>84.55</v>
+      </c>
+      <c r="AA119" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB119" s="29">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="AC119" s="29">
+        <v>63.72</v>
+      </c>
+      <c r="AD119" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE119" s="29">
+        <v>91.58</v>
+      </c>
+      <c r="AF119" s="29">
+        <v>44.43</v>
+      </c>
       <c r="AG119" s="29"/>
-      <c r="AH119" s="29"/>
+      <c r="AH119" s="86"/>
       <c r="AI119" s="29"/>
       <c r="AJ119" s="29"/>
       <c r="AK119" s="29"/>
@@ -10397,100 +10598,46 @@
       <c r="AQ119" s="29"/>
     </row>
     <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="80">
-        <v>21</v>
-      </c>
-      <c r="B120" s="80"/>
-      <c r="C120" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="83">
-        <v>8.4</v>
-      </c>
-      <c r="F120" s="83">
-        <v>-103.5</v>
-      </c>
-      <c r="G120" s="80">
-        <v>110</v>
-      </c>
-      <c r="H120" s="102">
-        <v>85.33</v>
-      </c>
-      <c r="I120" s="82">
-        <v>111.9</v>
-      </c>
-      <c r="J120" s="83">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K120" s="83">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="L120" s="83">
-        <v>-104.2</v>
-      </c>
-      <c r="M120" s="83">
-        <v>-102.89</v>
-      </c>
-      <c r="N120" s="82">
-        <v>5.8</v>
-      </c>
-      <c r="O120" s="13">
-        <v>1</v>
-      </c>
-      <c r="P120" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="101">
-        <v>1</v>
-      </c>
-      <c r="R120" s="101"/>
-      <c r="S120" s="102">
-        <v>1</v>
-      </c>
-      <c r="T120" s="102">
-        <v>1</v>
-      </c>
-      <c r="U120" s="102">
-        <v>1</v>
-      </c>
-      <c r="V120" s="84">
-        <v>3</v>
-      </c>
-      <c r="W120" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="X120" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y120" s="85">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="Z120" s="14">
-        <v>84.55</v>
-      </c>
-      <c r="AA120" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB120" s="29">
-        <v>286.60000000000002</v>
-      </c>
-      <c r="AC120" s="29">
-        <v>63.72</v>
-      </c>
-      <c r="AD120" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE120" s="29">
-        <v>91.58</v>
-      </c>
-      <c r="AF120" s="29">
-        <v>44.43</v>
-      </c>
+      <c r="A120" s="111">
+        <v>80</v>
+      </c>
+      <c r="B120" s="111"/>
+      <c r="C120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="113">
+        <v>-60.848999999999997</v>
+      </c>
+      <c r="F120" s="113">
+        <v>-22.878599999999999</v>
+      </c>
+      <c r="G120" s="111">
+        <v>383</v>
+      </c>
+      <c r="H120" s="117"/>
+      <c r="I120" s="112">
+        <v>12.26</v>
+      </c>
+      <c r="N120" s="112"/>
+      <c r="O120" s="114"/>
+      <c r="P120" s="115"/>
+      <c r="Q120" s="116"/>
+      <c r="R120" s="116"/>
+      <c r="S120" s="116"/>
+      <c r="T120" s="117">
+        <v>0</v>
+      </c>
+      <c r="U120" s="116"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="14"/>
+      <c r="AA120" s="29"/>
       <c r="AG120" s="29"/>
-      <c r="AH120" s="86"/>
+      <c r="AH120" s="29"/>
       <c r="AI120" s="29"/>
       <c r="AJ120" s="29"/>
       <c r="AK120" s="29"/>
@@ -10502,43 +10649,73 @@
       <c r="AQ120" s="29"/>
     </row>
     <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="111">
-        <v>80</v>
-      </c>
-      <c r="B121" s="111"/>
-      <c r="C121" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="E121" s="113">
-        <v>-60.848999999999997</v>
-      </c>
-      <c r="F121" s="113">
-        <v>-22.878599999999999</v>
-      </c>
-      <c r="G121" s="111">
-        <v>383</v>
-      </c>
-      <c r="H121" s="117"/>
-      <c r="I121" s="112">
-        <v>12.26</v>
-      </c>
-      <c r="N121" s="112"/>
-      <c r="O121" s="114"/>
-      <c r="P121" s="115"/>
-      <c r="Q121" s="116"/>
-      <c r="R121" s="116"/>
-      <c r="S121" s="116"/>
-      <c r="T121" s="117">
+      <c r="A121" s="58">
+        <v>79</v>
+      </c>
+      <c r="B121" s="58"/>
+      <c r="C121" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="63">
+        <v>49</v>
+      </c>
+      <c r="F121" s="63">
+        <v>-130</v>
+      </c>
+      <c r="G121" s="58">
+        <v>135</v>
+      </c>
+      <c r="H121" s="62">
+        <v>110</v>
+      </c>
+      <c r="I121" s="106">
+        <v>38</v>
+      </c>
+      <c r="J121" s="63">
+        <v>48.69</v>
+      </c>
+      <c r="K121" s="63">
+        <v>49.41</v>
+      </c>
+      <c r="L121" s="63">
+        <v>-130.65</v>
+      </c>
+      <c r="M121" s="63">
+        <v>-128.68</v>
+      </c>
+      <c r="N121" s="106">
+        <v>5.8</v>
+      </c>
+      <c r="O121" s="61">
+        <v>1</v>
+      </c>
+      <c r="P121" s="61">
         <v>0</v>
       </c>
-      <c r="U121" s="116"/>
-      <c r="V121" s="3"/>
-      <c r="W121" s="3"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="14"/>
+      <c r="Q121" s="107">
+        <v>0</v>
+      </c>
+      <c r="R121" s="107"/>
+      <c r="S121" s="108">
+        <v>0</v>
+      </c>
+      <c r="T121" s="108">
+        <v>0</v>
+      </c>
+      <c r="U121" s="108"/>
+      <c r="V121" s="62">
+        <v>1</v>
+      </c>
+      <c r="W121" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="X121" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y121" s="63"/>
       <c r="AA121" s="29"/>
       <c r="AG121" s="29"/>
       <c r="AH121" s="29"/>
@@ -10553,74 +10730,78 @@
       <c r="AQ121" s="29"/>
     </row>
     <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="58">
-        <v>79</v>
-      </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122" s="63">
-        <v>49</v>
-      </c>
-      <c r="F122" s="63">
-        <v>-130</v>
-      </c>
-      <c r="G122" s="58">
-        <v>135</v>
-      </c>
-      <c r="H122" s="62">
-        <v>110</v>
-      </c>
-      <c r="I122" s="106">
-        <v>38</v>
-      </c>
-      <c r="J122" s="63">
-        <v>48.69</v>
-      </c>
-      <c r="K122" s="63">
-        <v>49.41</v>
-      </c>
-      <c r="L122" s="63">
-        <v>-130.65</v>
-      </c>
-      <c r="M122" s="63">
-        <v>-128.68</v>
-      </c>
-      <c r="N122" s="106">
-        <v>5.8</v>
-      </c>
-      <c r="O122" s="61">
-        <v>1</v>
-      </c>
-      <c r="P122" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="107">
-        <v>0</v>
-      </c>
-      <c r="R122" s="107"/>
-      <c r="S122" s="108">
-        <v>0</v>
-      </c>
-      <c r="T122" s="108">
-        <v>1</v>
-      </c>
-      <c r="U122" s="108"/>
-      <c r="V122" s="62">
-        <v>1</v>
-      </c>
-      <c r="W122" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="X122" s="62" t="s">
+      <c r="A122" s="23">
+        <v>11</v>
+      </c>
+      <c r="B122" s="23">
+        <v>1</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="F122" s="27">
+        <v>-27.6</v>
+      </c>
+      <c r="G122" s="23">
+        <v>589</v>
+      </c>
+      <c r="H122" s="52">
+        <v>84.19</v>
+      </c>
+      <c r="I122" s="26">
+        <v>31.9</v>
+      </c>
+      <c r="J122" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="K122" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="L122" s="27">
+        <v>-30.45</v>
+      </c>
+      <c r="M122" s="27">
+        <v>-24.36</v>
+      </c>
+      <c r="N122" s="26">
+        <v>6</v>
+      </c>
+      <c r="O122" s="10">
+        <v>1</v>
+      </c>
+      <c r="P122" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="71">
+        <v>1</v>
+      </c>
+      <c r="R122" s="71"/>
+      <c r="S122" s="52">
+        <v>1</v>
+      </c>
+      <c r="T122" s="52">
+        <v>1</v>
+      </c>
+      <c r="U122" s="52">
+        <v>1</v>
+      </c>
+      <c r="V122" s="52">
+        <v>3</v>
+      </c>
+      <c r="W122" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="X122" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Y122" s="63"/>
-      <c r="AA122" s="29"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="14"/>
       <c r="AG122" s="29"/>
       <c r="AH122" s="29"/>
       <c r="AI122" s="29"/>
@@ -10634,76 +10815,44 @@
       <c r="AQ122" s="29"/>
     </row>
     <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="23">
-        <v>11</v>
-      </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="F123" s="27">
-        <v>-27.6</v>
-      </c>
-      <c r="G123" s="23">
-        <v>589</v>
-      </c>
-      <c r="H123" s="52">
-        <v>84.19</v>
-      </c>
-      <c r="I123" s="26">
-        <v>31.9</v>
-      </c>
-      <c r="J123" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="K123" s="27">
-        <v>1.4</v>
-      </c>
-      <c r="L123" s="27">
-        <v>-30.45</v>
-      </c>
-      <c r="M123" s="27">
-        <v>-24.36</v>
-      </c>
-      <c r="N123" s="26">
-        <v>6</v>
-      </c>
-      <c r="O123" s="10">
-        <v>1</v>
-      </c>
-      <c r="P123" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="71">
-        <v>1</v>
-      </c>
-      <c r="R123" s="71"/>
-      <c r="S123" s="52">
-        <v>1</v>
-      </c>
-      <c r="T123" s="52">
-        <v>1</v>
-      </c>
-      <c r="U123" s="52">
-        <v>1</v>
-      </c>
-      <c r="V123" s="52">
-        <v>3</v>
-      </c>
-      <c r="W123" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="X123" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="14"/>
+      <c r="A123" s="111">
+        <v>134</v>
+      </c>
+      <c r="B123" s="111"/>
+      <c r="C123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" s="113">
+        <v>-54.496000000000002</v>
+      </c>
+      <c r="F123" s="113">
+        <v>144.1215</v>
+      </c>
+      <c r="G123" s="111">
+        <v>58</v>
+      </c>
+      <c r="H123" s="117"/>
+      <c r="I123" s="112">
+        <v>66.5</v>
+      </c>
+      <c r="N123" s="112"/>
+      <c r="O123" s="115"/>
+      <c r="P123" s="115"/>
+      <c r="Q123" s="115"/>
+      <c r="R123" s="115"/>
+      <c r="S123" s="115"/>
+      <c r="T123" s="117">
+        <v>0</v>
+      </c>
+      <c r="U123" s="115"/>
+      <c r="V123" s="115"/>
+      <c r="W123" s="103"/>
+      <c r="X123" s="103"/>
+      <c r="Y123" s="118"/>
+      <c r="AA123" s="29"/>
       <c r="AG123" s="29"/>
       <c r="AH123" s="29"/>
       <c r="AI123" s="29"/>
@@ -10718,27 +10867,43 @@
     </row>
     <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="111">
-        <v>134</v>
-      </c>
-      <c r="B124" s="111"/>
+        <v>120</v>
+      </c>
+      <c r="B124" s="111">
+        <v>1</v>
+      </c>
       <c r="C124" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D124" s="37" t="s">
-        <v>58</v>
+        <v>165</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E124" s="113">
-        <v>-54.496000000000002</v>
+        <v>3.9422999999999999</v>
       </c>
       <c r="F124" s="113">
-        <v>144.1215</v>
+        <v>-32.078699999999998</v>
       </c>
       <c r="G124" s="111">
-        <v>58</v>
-      </c>
-      <c r="H124" s="117"/>
+        <v>108</v>
+      </c>
+      <c r="H124" s="117">
+        <v>86.16</v>
+      </c>
       <c r="I124" s="112">
-        <v>66.5</v>
+        <v>26.96</v>
+      </c>
+      <c r="J124" s="113">
+        <v>3.6907109999999999</v>
+      </c>
+      <c r="K124" s="113">
+        <v>4.1168329999999997</v>
+      </c>
+      <c r="L124" s="113">
+        <v>-32.739522999999998</v>
+      </c>
+      <c r="M124" s="113">
+        <v>-31.558160000000001</v>
       </c>
       <c r="N124" s="112"/>
       <c r="O124" s="115"/>
@@ -10747,7 +10912,7 @@
       <c r="R124" s="115"/>
       <c r="S124" s="115"/>
       <c r="T124" s="117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124" s="115"/>
       <c r="V124" s="115"/>
@@ -10768,58 +10933,98 @@
       <c r="AQ124" s="29"/>
     </row>
     <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="111">
+      <c r="A125" s="37">
+        <v>77</v>
+      </c>
+      <c r="B125" s="37">
+        <v>1</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" s="41">
+        <v>-57.8</v>
+      </c>
+      <c r="F125" s="41">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="G125" s="37">
+        <v>625</v>
+      </c>
+      <c r="H125" s="43">
+        <v>168</v>
+      </c>
+      <c r="I125" s="40">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J125" s="41">
+        <v>-60.57</v>
+      </c>
+      <c r="K125" s="41">
+        <v>-54.01</v>
+      </c>
+      <c r="L125" s="41">
+        <v>146.35</v>
+      </c>
+      <c r="M125" s="41">
+        <v>150.34</v>
+      </c>
+      <c r="N125" s="40">
+        <v>6.2</v>
+      </c>
+      <c r="O125" s="12">
+        <v>1</v>
+      </c>
+      <c r="P125" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="54">
+        <v>1</v>
+      </c>
+      <c r="R125" s="54"/>
+      <c r="S125" s="43">
+        <v>1</v>
+      </c>
+      <c r="T125" s="43">
+        <v>1</v>
+      </c>
+      <c r="U125" s="43">
+        <v>1</v>
+      </c>
+      <c r="V125" s="43">
+        <v>3</v>
+      </c>
+      <c r="W125" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X125" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y125" s="41"/>
+      <c r="Z125" s="14">
+        <v>169.83</v>
+      </c>
+      <c r="AA125" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB125" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="AC125" s="29">
+        <v>54.73</v>
+      </c>
+      <c r="AD125" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="111"/>
-      <c r="C125" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125" s="113">
-        <v>3.9422999999999999</v>
-      </c>
-      <c r="F125" s="113">
-        <v>-32.078699999999998</v>
-      </c>
-      <c r="G125" s="111">
-        <v>108</v>
-      </c>
-      <c r="H125" s="117">
-        <v>86.16</v>
-      </c>
-      <c r="I125" s="112">
-        <v>26.96</v>
-      </c>
-      <c r="J125" s="113">
-        <v>3.6907109999999999</v>
-      </c>
-      <c r="K125" s="113">
-        <v>4.1168329999999997</v>
-      </c>
-      <c r="L125" s="113">
-        <v>-32.739522999999998</v>
-      </c>
-      <c r="M125" s="113">
-        <v>-31.558160000000001</v>
-      </c>
-      <c r="N125" s="112"/>
-      <c r="O125" s="115"/>
-      <c r="P125" s="115"/>
-      <c r="Q125" s="115"/>
-      <c r="R125" s="115"/>
-      <c r="S125" s="115"/>
-      <c r="T125" s="117">
-        <v>1</v>
-      </c>
-      <c r="U125" s="115"/>
-      <c r="V125" s="115"/>
-      <c r="W125" s="103"/>
-      <c r="X125" s="103"/>
-      <c r="Y125" s="118"/>
-      <c r="AA125" s="29"/>
+      <c r="AE125" s="29">
+        <v>137.72</v>
+      </c>
+      <c r="AF125" s="29">
+        <v>17.48</v>
+      </c>
       <c r="AG125" s="29"/>
       <c r="AH125" s="29"/>
       <c r="AI125" s="29"/>
@@ -10834,44 +11039,46 @@
     </row>
     <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37">
-        <v>77</v>
-      </c>
-      <c r="B126" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="B126" s="37">
+        <v>1</v>
+      </c>
       <c r="C126" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D126" s="39" t="s">
-        <v>58</v>
+      <c r="D126" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="E126" s="41">
-        <v>-57.8</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="F126" s="41">
-        <v>147.69999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="G126" s="37">
-        <v>625</v>
+        <v>89</v>
       </c>
       <c r="H126" s="43">
-        <v>168</v>
+        <v>45.23</v>
       </c>
       <c r="I126" s="40">
-        <v>70.099999999999994</v>
+        <v>65.2</v>
       </c>
       <c r="J126" s="41">
-        <v>-60.57</v>
+        <v>-34.049999999999997</v>
       </c>
       <c r="K126" s="41">
-        <v>-54.01</v>
+        <v>-32.79</v>
       </c>
       <c r="L126" s="41">
-        <v>146.35</v>
+        <v>77.03</v>
       </c>
       <c r="M126" s="41">
-        <v>150.34</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="N126" s="40">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="O126" s="12">
         <v>1</v>
@@ -10880,48 +11087,50 @@
         <v>1</v>
       </c>
       <c r="Q126" s="54">
-        <v>1</v>
-      </c>
-      <c r="R126" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="54">
+        <v>1</v>
+      </c>
       <c r="S126" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126" s="43">
         <v>1</v>
       </c>
-      <c r="U126" s="43">
-        <v>1</v>
-      </c>
+      <c r="U126" s="43"/>
       <c r="V126" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W126" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X126" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="X126" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y126" s="41"/>
+      <c r="Y126" s="41">
+        <v>0.85799999999999998</v>
+      </c>
       <c r="Z126" s="14">
-        <v>169.83</v>
-      </c>
-      <c r="AA126" s="55" t="s">
-        <v>124</v>
+        <v>48.47</v>
+      </c>
+      <c r="AA126" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="AB126" s="29">
-        <v>1.4</v>
+        <v>55.4</v>
       </c>
       <c r="AC126" s="29">
-        <v>54.73</v>
+        <v>69.239999999999995</v>
       </c>
       <c r="AD126" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE126" s="29">
-        <v>137.72</v>
+        <v>108.34</v>
       </c>
       <c r="AF126" s="29">
-        <v>17.48</v>
+        <v>12.72</v>
       </c>
       <c r="AG126" s="29"/>
       <c r="AH126" s="29"/>
@@ -10936,98 +11145,44 @@
       <c r="AQ126" s="29"/>
     </row>
     <row r="127" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="37">
-        <v>60</v>
-      </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D127" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" s="41">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="F127" s="41">
-        <v>77.8</v>
-      </c>
-      <c r="G127" s="37">
-        <v>89</v>
-      </c>
-      <c r="H127" s="43">
-        <v>45.23</v>
-      </c>
-      <c r="I127" s="40">
-        <v>65.2</v>
-      </c>
-      <c r="J127" s="41">
-        <v>-34.049999999999997</v>
-      </c>
-      <c r="K127" s="41">
-        <v>-32.79</v>
-      </c>
-      <c r="L127" s="41">
-        <v>77.03</v>
-      </c>
-      <c r="M127" s="41">
-        <v>78.540000000000006</v>
-      </c>
-      <c r="N127" s="40">
-        <v>5</v>
-      </c>
-      <c r="O127" s="12">
-        <v>1</v>
-      </c>
-      <c r="P127" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="54">
+      <c r="A127" s="111">
+        <v>121</v>
+      </c>
+      <c r="B127" s="111"/>
+      <c r="C127" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="113">
+        <v>-16.253599999999999</v>
+      </c>
+      <c r="F127" s="113">
+        <v>-13.749499999999999</v>
+      </c>
+      <c r="G127" s="111">
+        <v>123</v>
+      </c>
+      <c r="H127" s="117"/>
+      <c r="I127" s="112">
+        <v>30.28</v>
+      </c>
+      <c r="N127" s="112"/>
+      <c r="O127" s="115"/>
+      <c r="P127" s="115"/>
+      <c r="Q127" s="115"/>
+      <c r="R127" s="115"/>
+      <c r="S127" s="115"/>
+      <c r="T127" s="117">
         <v>0</v>
       </c>
-      <c r="R127" s="54">
-        <v>1</v>
-      </c>
-      <c r="S127" s="43">
-        <v>0</v>
-      </c>
-      <c r="T127" s="43">
-        <v>1</v>
-      </c>
-      <c r="U127" s="43"/>
-      <c r="V127" s="43">
-        <v>1</v>
-      </c>
-      <c r="W127" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="X127" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y127" s="41">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="Z127" s="14">
-        <v>48.47</v>
-      </c>
-      <c r="AA127" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB127" s="29">
-        <v>55.4</v>
-      </c>
-      <c r="AC127" s="29">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="AD127" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE127" s="29">
-        <v>108.34</v>
-      </c>
-      <c r="AF127" s="29">
-        <v>12.72</v>
-      </c>
+      <c r="U127" s="115"/>
+      <c r="V127" s="115"/>
+      <c r="W127" s="103"/>
+      <c r="X127" s="103"/>
+      <c r="Y127" s="118"/>
+      <c r="AA127" s="29"/>
       <c r="AG127" s="29"/>
       <c r="AH127" s="29"/>
       <c r="AI127" s="29"/>
@@ -11041,44 +11196,96 @@
       <c r="AQ127" s="29"/>
     </row>
     <row r="128" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="111">
-        <v>121</v>
-      </c>
-      <c r="B128" s="111"/>
-      <c r="C128" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D128" s="25" t="s">
+      <c r="A128" s="90">
         <v>34</v>
       </c>
-      <c r="E128" s="113">
-        <v>-16.253599999999999</v>
-      </c>
-      <c r="F128" s="113">
-        <v>-13.749499999999999</v>
-      </c>
-      <c r="G128" s="111">
-        <v>123</v>
-      </c>
-      <c r="H128" s="117"/>
-      <c r="I128" s="112">
-        <v>30.28</v>
-      </c>
-      <c r="N128" s="112"/>
-      <c r="O128" s="115"/>
-      <c r="P128" s="115"/>
-      <c r="Q128" s="115"/>
-      <c r="R128" s="115"/>
-      <c r="S128" s="115"/>
-      <c r="T128" s="117">
-        <v>0</v>
-      </c>
-      <c r="U128" s="115"/>
-      <c r="V128" s="115"/>
-      <c r="W128" s="103"/>
-      <c r="X128" s="103"/>
-      <c r="Y128" s="118"/>
-      <c r="AA128" s="29"/>
+      <c r="B128" s="90">
+        <v>1</v>
+      </c>
+      <c r="C128" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" s="94">
+        <v>-54.6</v>
+      </c>
+      <c r="F128" s="94">
+        <v>-131</v>
+      </c>
+      <c r="G128" s="90">
+        <v>462</v>
+      </c>
+      <c r="H128" s="99">
+        <v>115.52</v>
+      </c>
+      <c r="I128" s="93">
+        <v>83.5</v>
+      </c>
+      <c r="J128" s="94">
+        <v>-55.43</v>
+      </c>
+      <c r="K128" s="94">
+        <v>-53.76</v>
+      </c>
+      <c r="L128" s="94">
+        <v>-134.44999999999999</v>
+      </c>
+      <c r="M128" s="94">
+        <v>-127.96</v>
+      </c>
+      <c r="N128" s="93">
+        <v>6</v>
+      </c>
+      <c r="O128" s="8">
+        <v>1</v>
+      </c>
+      <c r="P128" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="98">
+        <v>1</v>
+      </c>
+      <c r="R128" s="98"/>
+      <c r="S128" s="99">
+        <v>1</v>
+      </c>
+      <c r="T128" s="99">
+        <v>1</v>
+      </c>
+      <c r="U128" s="99"/>
+      <c r="V128" s="95">
+        <v>1</v>
+      </c>
+      <c r="W128" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X128" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y128" s="96"/>
+      <c r="Z128" s="14">
+        <v>115.03</v>
+      </c>
+      <c r="AA128" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB128" s="29">
+        <v>298.79000000000002</v>
+      </c>
+      <c r="AC128" s="29">
+        <v>59.32</v>
+      </c>
+      <c r="AD128" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE128" s="29">
+        <v>95.39</v>
+      </c>
+      <c r="AF128" s="29">
+        <v>23.53</v>
+      </c>
       <c r="AG128" s="29"/>
       <c r="AH128" s="29"/>
       <c r="AI128" s="29"/>
@@ -11092,94 +11299,60 @@
       <c r="AQ128" s="29"/>
     </row>
     <row r="129" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="90">
-        <v>34</v>
-      </c>
-      <c r="B129" s="90"/>
-      <c r="C129" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D129" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" s="94">
-        <v>-54.6</v>
-      </c>
-      <c r="F129" s="94">
-        <v>-131</v>
-      </c>
-      <c r="G129" s="90">
-        <v>462</v>
-      </c>
-      <c r="H129" s="99">
-        <v>115.52</v>
-      </c>
-      <c r="I129" s="93">
-        <v>83.5</v>
-      </c>
-      <c r="J129" s="94">
-        <v>-55.43</v>
-      </c>
-      <c r="K129" s="94">
-        <v>-53.76</v>
-      </c>
-      <c r="L129" s="94">
-        <v>-134.44999999999999</v>
-      </c>
-      <c r="M129" s="94">
-        <v>-127.96</v>
-      </c>
-      <c r="N129" s="93">
-        <v>6</v>
-      </c>
-      <c r="O129" s="8">
-        <v>1</v>
-      </c>
-      <c r="P129" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q129" s="98">
-        <v>1</v>
-      </c>
-      <c r="R129" s="98"/>
-      <c r="S129" s="99">
-        <v>1</v>
-      </c>
-      <c r="T129" s="99">
-        <v>1</v>
-      </c>
-      <c r="U129" s="99"/>
-      <c r="V129" s="95">
-        <v>1</v>
-      </c>
-      <c r="W129" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="X129" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y129" s="96"/>
-      <c r="Z129" s="14">
-        <v>115.03</v>
-      </c>
-      <c r="AA129" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB129" s="29">
-        <v>298.79000000000002</v>
-      </c>
-      <c r="AC129" s="29">
-        <v>59.32</v>
-      </c>
-      <c r="AD129" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE129" s="29">
-        <v>95.39</v>
-      </c>
-      <c r="AF129" s="29">
-        <v>23.53</v>
-      </c>
+      <c r="A129" s="111">
+        <v>101</v>
+      </c>
+      <c r="B129" s="111">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D129" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="113">
+        <v>23.077999999999999</v>
+      </c>
+      <c r="F129" s="113">
+        <v>-108.3355</v>
+      </c>
+      <c r="G129" s="111">
+        <v>65</v>
+      </c>
+      <c r="H129" s="117">
+        <v>119.24</v>
+      </c>
+      <c r="I129" s="112">
+        <v>50.95</v>
+      </c>
+      <c r="J129" s="113">
+        <v>22.592437</v>
+      </c>
+      <c r="K129" s="113">
+        <v>23.399840999999999</v>
+      </c>
+      <c r="L129" s="113">
+        <v>-108.85167300000001</v>
+      </c>
+      <c r="M129" s="113">
+        <v>-107.840991</v>
+      </c>
+      <c r="N129" s="112"/>
+      <c r="O129" s="115"/>
+      <c r="P129" s="115"/>
+      <c r="Q129" s="115"/>
+      <c r="R129" s="115"/>
+      <c r="S129" s="115"/>
+      <c r="T129" s="117">
+        <v>1</v>
+      </c>
+      <c r="U129" s="115"/>
+      <c r="V129" s="115"/>
+      <c r="W129" s="103"/>
+      <c r="X129" s="103"/>
+      <c r="Y129" s="118"/>
+      <c r="AA129" s="29"/>
       <c r="AG129" s="29"/>
       <c r="AH129" s="29"/>
       <c r="AI129" s="29"/>
@@ -11193,58 +11366,98 @@
       <c r="AQ129" s="29"/>
     </row>
     <row r="130" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="111">
-        <v>101</v>
-      </c>
-      <c r="B130" s="111"/>
-      <c r="C130" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D130" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" s="113">
-        <v>23.077999999999999</v>
-      </c>
-      <c r="F130" s="113">
-        <v>-108.3355</v>
-      </c>
-      <c r="G130" s="111">
-        <v>65</v>
-      </c>
-      <c r="H130" s="117">
-        <v>119.24</v>
-      </c>
-      <c r="I130" s="112">
-        <v>50.95</v>
-      </c>
-      <c r="J130" s="113">
-        <v>22.592437</v>
-      </c>
-      <c r="K130" s="113">
-        <v>23.399840999999999</v>
-      </c>
-      <c r="L130" s="113">
-        <v>-108.85167300000001</v>
-      </c>
-      <c r="M130" s="113">
-        <v>-107.840991</v>
-      </c>
-      <c r="N130" s="112"/>
-      <c r="O130" s="115"/>
-      <c r="P130" s="115"/>
-      <c r="Q130" s="115"/>
-      <c r="R130" s="115"/>
-      <c r="S130" s="115"/>
-      <c r="T130" s="117">
-        <v>1</v>
-      </c>
-      <c r="U130" s="115"/>
-      <c r="V130" s="115"/>
-      <c r="W130" s="103"/>
-      <c r="X130" s="103"/>
-      <c r="Y130" s="118"/>
-      <c r="AA130" s="29"/>
+      <c r="A130" s="90">
+        <v>37</v>
+      </c>
+      <c r="B130" s="90">
+        <v>1</v>
+      </c>
+      <c r="C130" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="94">
+        <v>-56.5</v>
+      </c>
+      <c r="F130" s="94">
+        <v>-142.4</v>
+      </c>
+      <c r="G130" s="90">
+        <v>325</v>
+      </c>
+      <c r="H130" s="99">
+        <v>118.87</v>
+      </c>
+      <c r="I130" s="93">
+        <v>78.8</v>
+      </c>
+      <c r="J130" s="94">
+        <v>-57.26</v>
+      </c>
+      <c r="K130" s="94">
+        <v>-55.66</v>
+      </c>
+      <c r="L130" s="94">
+        <v>-144.72</v>
+      </c>
+      <c r="M130" s="94">
+        <v>-140.33000000000001</v>
+      </c>
+      <c r="N130" s="93">
+        <v>5.8</v>
+      </c>
+      <c r="O130" s="8">
+        <v>1</v>
+      </c>
+      <c r="P130" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="98">
+        <v>1</v>
+      </c>
+      <c r="R130" s="98"/>
+      <c r="S130" s="99">
+        <v>1</v>
+      </c>
+      <c r="T130" s="99">
+        <v>1</v>
+      </c>
+      <c r="U130" s="99"/>
+      <c r="V130" s="95">
+        <v>1</v>
+      </c>
+      <c r="W130" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X130" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y130" s="96">
+        <v>0.3029</v>
+      </c>
+      <c r="Z130" s="14">
+        <v>121.61</v>
+      </c>
+      <c r="AA130" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB130" s="29">
+        <v>305.01</v>
+      </c>
+      <c r="AC130" s="29">
+        <v>55.1</v>
+      </c>
+      <c r="AD130" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE130" s="29">
+        <v>102.08</v>
+      </c>
+      <c r="AF130" s="29">
+        <v>22.96</v>
+      </c>
       <c r="AG130" s="29"/>
       <c r="AH130" s="29"/>
       <c r="AI130" s="29"/>
@@ -11259,44 +11472,46 @@
     </row>
     <row r="131" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="90">
-        <v>37</v>
-      </c>
-      <c r="B131" s="90"/>
+        <v>31</v>
+      </c>
+      <c r="B131" s="90">
+        <v>1</v>
+      </c>
       <c r="C131" s="91" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D131" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E131" s="94">
-        <v>-56.5</v>
+        <v>-53.1</v>
       </c>
       <c r="F131" s="94">
-        <v>-142.4</v>
+        <v>-118.2</v>
       </c>
       <c r="G131" s="90">
-        <v>325</v>
+        <v>52</v>
       </c>
       <c r="H131" s="99">
-        <v>118.87</v>
+        <v>112.27</v>
       </c>
       <c r="I131" s="93">
-        <v>78.8</v>
+        <v>87.2</v>
       </c>
       <c r="J131" s="94">
-        <v>-57.26</v>
+        <v>-53.14</v>
       </c>
       <c r="K131" s="94">
-        <v>-55.66</v>
+        <v>-52.85</v>
       </c>
       <c r="L131" s="94">
-        <v>-144.72</v>
+        <v>-118.7</v>
       </c>
       <c r="M131" s="94">
-        <v>-140.33000000000001</v>
+        <v>-117.62</v>
       </c>
       <c r="N131" s="93">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="O131" s="8">
         <v>1</v>
@@ -11309,44 +11524,46 @@
       </c>
       <c r="R131" s="98"/>
       <c r="S131" s="99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T131" s="99">
         <v>1</v>
       </c>
-      <c r="U131" s="99"/>
+      <c r="U131" s="99">
+        <v>1</v>
+      </c>
       <c r="V131" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W131" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X131" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="X131" s="95" t="s">
-        <v>86</v>
-      </c>
       <c r="Y131" s="96">
-        <v>0.3029</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="Z131" s="14">
-        <v>121.61</v>
+        <v>107.84</v>
       </c>
       <c r="AA131" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB131" s="29">
-        <v>305.01</v>
+        <v>293.16000000000003</v>
       </c>
       <c r="AC131" s="29">
-        <v>55.1</v>
+        <v>62.59</v>
       </c>
       <c r="AD131" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE131" s="29">
-        <v>102.08</v>
+        <v>88.83</v>
       </c>
       <c r="AF131" s="29">
-        <v>22.96</v>
+        <v>23.88</v>
       </c>
       <c r="AG131" s="29"/>
       <c r="AH131" s="29"/>
@@ -11361,98 +11578,79 @@
       <c r="AQ131" s="29"/>
     </row>
     <row r="132" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="90">
-        <v>31</v>
-      </c>
-      <c r="B132" s="90"/>
-      <c r="C132" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D132" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E132" s="94">
-        <v>-53.1</v>
-      </c>
-      <c r="F132" s="94">
-        <v>-118.2</v>
-      </c>
-      <c r="G132" s="90">
-        <v>52</v>
-      </c>
-      <c r="H132" s="99">
-        <v>112.27</v>
-      </c>
-      <c r="I132" s="93">
-        <v>87.2</v>
-      </c>
-      <c r="J132" s="94">
-        <v>-53.14</v>
-      </c>
-      <c r="K132" s="94">
-        <v>-52.85</v>
-      </c>
-      <c r="L132" s="94">
-        <v>-118.7</v>
-      </c>
-      <c r="M132" s="94">
-        <v>-117.62</v>
-      </c>
-      <c r="N132" s="93">
-        <v>5.3</v>
-      </c>
-      <c r="O132" s="8">
-        <v>1</v>
-      </c>
-      <c r="P132" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="98">
-        <v>1</v>
-      </c>
-      <c r="R132" s="98"/>
-      <c r="S132" s="99">
-        <v>0</v>
-      </c>
-      <c r="T132" s="99">
-        <v>1</v>
-      </c>
-      <c r="U132" s="99">
-        <v>1</v>
-      </c>
-      <c r="V132" s="95">
-        <v>2</v>
-      </c>
-      <c r="W132" s="95" t="s">
+      <c r="A132" s="72">
+        <v>29</v>
+      </c>
+      <c r="B132" s="72">
+        <v>1</v>
+      </c>
+      <c r="C132" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="76">
+        <v>-41.5</v>
+      </c>
+      <c r="F132" s="76">
+        <v>-88.8</v>
+      </c>
+      <c r="G132" s="72">
+        <v>599</v>
+      </c>
+      <c r="H132" s="110">
+        <v>82.92</v>
+      </c>
+      <c r="I132" s="75">
+        <v>60</v>
+      </c>
+      <c r="J132" s="76">
+        <v>-41.47</v>
+      </c>
+      <c r="K132" s="76">
+        <v>-40.869999999999997</v>
+      </c>
+      <c r="L132" s="76">
+        <v>-91.8</v>
+      </c>
+      <c r="M132" s="76">
+        <v>-84.1</v>
+      </c>
+      <c r="N132" s="75">
+        <v>5.7</v>
+      </c>
+      <c r="O132" s="9">
+        <v>1</v>
+      </c>
+      <c r="P132" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="109">
+        <v>1</v>
+      </c>
+      <c r="R132" s="109"/>
+      <c r="S132" s="110">
+        <v>1</v>
+      </c>
+      <c r="T132" s="110">
+        <v>1</v>
+      </c>
+      <c r="U132" s="110">
+        <v>1</v>
+      </c>
+      <c r="V132" s="77">
+        <v>3</v>
+      </c>
+      <c r="W132" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="X132" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="X132" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y132" s="96">
-        <v>0.46239999999999998</v>
-      </c>
-      <c r="Z132" s="14">
-        <v>107.84</v>
-      </c>
-      <c r="AA132" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB132" s="29">
-        <v>293.16000000000003</v>
-      </c>
-      <c r="AC132" s="29">
-        <v>62.59</v>
-      </c>
-      <c r="AD132" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE132" s="29">
-        <v>88.83</v>
-      </c>
-      <c r="AF132" s="29">
-        <v>23.88</v>
-      </c>
+      <c r="Y132" s="78"/>
+      <c r="Z132" s="14"/>
+      <c r="AA132" s="29"/>
       <c r="AG132" s="29"/>
       <c r="AH132" s="29"/>
       <c r="AI132" s="29"/>
@@ -11466,76 +11664,77 @@
       <c r="AQ132" s="29"/>
     </row>
     <row r="133" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="72">
-        <v>29</v>
-      </c>
-      <c r="B133" s="72"/>
-      <c r="C133" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="76">
-        <v>-41.5</v>
-      </c>
-      <c r="F133" s="76">
-        <v>-88.8</v>
-      </c>
-      <c r="G133" s="72">
-        <v>599</v>
-      </c>
-      <c r="H133" s="110">
-        <v>82.92</v>
-      </c>
-      <c r="I133" s="75">
-        <v>60</v>
-      </c>
-      <c r="J133" s="76">
-        <v>-41.47</v>
-      </c>
-      <c r="K133" s="76">
-        <v>-40.869999999999997</v>
-      </c>
-      <c r="L133" s="76">
-        <v>-91.8</v>
-      </c>
-      <c r="M133" s="76">
-        <v>-84.1</v>
-      </c>
-      <c r="N133" s="75">
-        <v>5.7</v>
-      </c>
-      <c r="O133" s="9">
-        <v>1</v>
-      </c>
-      <c r="P133" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="109">
-        <v>1</v>
-      </c>
-      <c r="R133" s="109"/>
-      <c r="S133" s="110">
-        <v>1</v>
-      </c>
-      <c r="T133" s="110">
-        <v>1</v>
-      </c>
-      <c r="U133" s="110">
-        <v>1</v>
-      </c>
-      <c r="V133" s="77">
-        <v>3</v>
-      </c>
-      <c r="W133" s="77" t="s">
+      <c r="A133" s="23">
+        <v>9</v>
+      </c>
+      <c r="B133" s="23">
+        <v>1</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="27">
+        <v>10.9</v>
+      </c>
+      <c r="F133" s="27">
+        <v>-42.3</v>
+      </c>
+      <c r="G133" s="23">
+        <v>307</v>
+      </c>
+      <c r="H133" s="52">
+        <v>91.98</v>
+      </c>
+      <c r="I133" s="26">
+        <v>28.2</v>
+      </c>
+      <c r="J133" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="K133" s="27">
+        <v>11</v>
+      </c>
+      <c r="L133" s="27">
+        <v>-43.7</v>
+      </c>
+      <c r="M133" s="27">
+        <v>-40.11</v>
+      </c>
+      <c r="N133" s="26">
+        <v>5.9</v>
+      </c>
+      <c r="O133" s="10">
+        <v>1</v>
+      </c>
+      <c r="P133" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="71">
+        <v>1</v>
+      </c>
+      <c r="R133" s="71"/>
+      <c r="S133" s="52">
+        <v>0</v>
+      </c>
+      <c r="T133" s="52">
+        <v>0</v>
+      </c>
+      <c r="U133" s="52"/>
+      <c r="V133" s="6">
+        <v>1</v>
+      </c>
+      <c r="W133" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X133" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="X133" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y133" s="78"/>
-      <c r="Z133" s="14"/>
+      <c r="Y133" s="7">
+        <v>0.58720000000000006</v>
+      </c>
       <c r="AA133" s="29"/>
       <c r="AG133" s="29"/>
       <c r="AH133" s="29"/>
@@ -11550,74 +11749,76 @@
       <c r="AQ133" s="29"/>
     </row>
     <row r="134" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="23">
-        <v>9</v>
-      </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" s="25" t="s">
+      <c r="A134" s="30">
+        <v>57</v>
+      </c>
+      <c r="B134" s="30">
+        <v>1</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="33">
+        <v>-8.9</v>
+      </c>
+      <c r="F134" s="33">
+        <v>67.5</v>
+      </c>
+      <c r="G134" s="30">
+        <v>237</v>
+      </c>
+      <c r="H134" s="35">
+        <v>49.6</v>
+      </c>
+      <c r="I134" s="32">
         <v>34</v>
       </c>
-      <c r="E134" s="27">
-        <v>10.9</v>
-      </c>
-      <c r="F134" s="27">
-        <v>-42.3</v>
-      </c>
-      <c r="G134" s="23">
-        <v>307</v>
-      </c>
-      <c r="H134" s="52">
-        <v>91.98</v>
-      </c>
-      <c r="I134" s="26">
-        <v>28.2</v>
-      </c>
-      <c r="J134" s="27">
-        <v>10.5</v>
-      </c>
-      <c r="K134" s="27">
-        <v>11</v>
-      </c>
-      <c r="L134" s="27">
-        <v>-43.7</v>
-      </c>
-      <c r="M134" s="27">
-        <v>-40.11</v>
-      </c>
-      <c r="N134" s="26">
-        <v>5.9</v>
-      </c>
-      <c r="O134" s="10">
-        <v>1</v>
-      </c>
-      <c r="P134" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="71">
-        <v>1</v>
-      </c>
-      <c r="R134" s="71"/>
-      <c r="S134" s="52">
-        <v>0</v>
-      </c>
-      <c r="T134" s="52">
-        <v>0</v>
-      </c>
-      <c r="U134" s="52"/>
-      <c r="V134" s="6">
-        <v>1</v>
-      </c>
-      <c r="W134" s="6" t="s">
+      <c r="J134" s="33">
+        <v>-9.82</v>
+      </c>
+      <c r="K134" s="33">
+        <v>-8.11</v>
+      </c>
+      <c r="L134" s="33">
+        <v>66.38</v>
+      </c>
+      <c r="M134" s="33">
+        <v>68.33</v>
+      </c>
+      <c r="N134" s="32">
+        <v>5.8</v>
+      </c>
+      <c r="O134" s="11">
+        <v>1</v>
+      </c>
+      <c r="P134" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="79">
+        <v>1</v>
+      </c>
+      <c r="R134" s="79"/>
+      <c r="S134" s="35">
+        <v>1</v>
+      </c>
+      <c r="T134" s="35">
+        <v>1</v>
+      </c>
+      <c r="U134" s="35"/>
+      <c r="V134" s="35">
+        <v>1</v>
+      </c>
+      <c r="W134" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="X134" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="X134" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y134" s="7">
-        <v>0.58720000000000006</v>
+      <c r="Y134" s="33">
+        <v>0.70789999999999997</v>
       </c>
       <c r="AA134" s="29"/>
       <c r="AG134" s="29"/>
@@ -11633,75 +11834,43 @@
       <c r="AQ134" s="29"/>
     </row>
     <row r="135" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="30">
-        <v>57</v>
-      </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" s="30" t="s">
+      <c r="A135" s="111">
+        <v>98</v>
+      </c>
+      <c r="B135" s="111"/>
+      <c r="C135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="33">
-        <v>-8.9</v>
-      </c>
-      <c r="F135" s="33">
-        <v>67.5</v>
-      </c>
-      <c r="G135" s="30">
-        <v>237</v>
-      </c>
-      <c r="H135" s="35">
-        <v>49.6</v>
-      </c>
-      <c r="I135" s="32">
-        <v>34</v>
-      </c>
-      <c r="J135" s="33">
-        <v>-9.82</v>
-      </c>
-      <c r="K135" s="33">
-        <v>-8.11</v>
-      </c>
-      <c r="L135" s="33">
-        <v>66.38</v>
-      </c>
-      <c r="M135" s="33">
-        <v>68.33</v>
-      </c>
-      <c r="N135" s="32">
-        <v>5.8</v>
-      </c>
-      <c r="O135" s="11">
-        <v>1</v>
-      </c>
-      <c r="P135" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="79">
-        <v>1</v>
-      </c>
-      <c r="R135" s="79"/>
-      <c r="S135" s="35">
-        <v>1</v>
-      </c>
-      <c r="T135" s="35">
-        <v>1</v>
-      </c>
-      <c r="U135" s="35"/>
-      <c r="V135" s="35">
-        <v>1</v>
-      </c>
-      <c r="W135" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="X135" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y135" s="33">
-        <v>0.70789999999999997</v>
-      </c>
+      <c r="E135" s="113">
+        <v>-5.6877000000000004</v>
+      </c>
+      <c r="F135" s="113">
+        <v>68.368499999999997</v>
+      </c>
+      <c r="G135" s="111">
+        <v>105</v>
+      </c>
+      <c r="H135" s="117"/>
+      <c r="I135" s="112">
+        <v>31.14</v>
+      </c>
+      <c r="N135" s="112"/>
+      <c r="O135" s="115"/>
+      <c r="P135" s="115"/>
+      <c r="Q135" s="115"/>
+      <c r="R135" s="115"/>
+      <c r="S135" s="115"/>
+      <c r="T135" s="117">
+        <v>0</v>
+      </c>
+      <c r="U135" s="115"/>
+      <c r="V135" s="115"/>
+      <c r="W135" s="103"/>
+      <c r="X135" s="103"/>
+      <c r="Y135" s="118"/>
       <c r="AA135" s="29"/>
       <c r="AG135" s="29"/>
       <c r="AH135" s="29"/>
@@ -11716,44 +11885,98 @@
       <c r="AQ135" s="29"/>
     </row>
     <row r="136" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="111">
-        <v>98</v>
-      </c>
-      <c r="B136" s="111"/>
-      <c r="C136" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D136" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="113">
-        <v>-5.6877000000000004</v>
-      </c>
-      <c r="F136" s="113">
-        <v>68.368499999999997</v>
-      </c>
-      <c r="G136" s="111">
-        <v>105</v>
-      </c>
-      <c r="H136" s="117"/>
-      <c r="I136" s="112">
-        <v>31.14</v>
-      </c>
-      <c r="N136" s="112"/>
-      <c r="O136" s="115"/>
-      <c r="P136" s="115"/>
-      <c r="Q136" s="115"/>
-      <c r="R136" s="115"/>
-      <c r="S136" s="115"/>
-      <c r="T136" s="117">
+      <c r="A136" s="37">
+        <v>65</v>
+      </c>
+      <c r="B136" s="37">
+        <v>1</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E136" s="41">
+        <v>-41.5</v>
+      </c>
+      <c r="F136" s="41">
+        <v>80.2</v>
+      </c>
+      <c r="G136" s="37">
+        <v>123</v>
+      </c>
+      <c r="H136" s="43">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="I136" s="40">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J136" s="41">
+        <v>-42</v>
+      </c>
+      <c r="K136" s="41">
+        <v>-40.9</v>
+      </c>
+      <c r="L136" s="41">
+        <v>79.67</v>
+      </c>
+      <c r="M136" s="41">
+        <v>81.13</v>
+      </c>
+      <c r="N136" s="40">
+        <v>6</v>
+      </c>
+      <c r="O136" s="12">
+        <v>1</v>
+      </c>
+      <c r="P136" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="54">
+        <v>1</v>
+      </c>
+      <c r="R136" s="54"/>
+      <c r="S136" s="43">
+        <v>1</v>
+      </c>
+      <c r="T136" s="43">
         <v>0</v>
       </c>
-      <c r="U136" s="115"/>
-      <c r="V136" s="115"/>
-      <c r="W136" s="103"/>
-      <c r="X136" s="103"/>
-      <c r="Y136" s="118"/>
-      <c r="AA136" s="29"/>
+      <c r="U136" s="43"/>
+      <c r="V136" s="43">
+        <v>1</v>
+      </c>
+      <c r="W136" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X136" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y136" s="41">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="Z136" s="14">
+        <v>48.63</v>
+      </c>
+      <c r="AA136" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB136" s="29">
+        <v>54.54</v>
+      </c>
+      <c r="AC136" s="29">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="AD136" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE136" s="29">
+        <v>116.93</v>
+      </c>
+      <c r="AF136" s="29">
+        <v>9.9</v>
+      </c>
       <c r="AG136" s="29"/>
       <c r="AH136" s="29"/>
       <c r="AI136" s="29"/>
@@ -11767,96 +11990,44 @@
       <c r="AQ136" s="29"/>
     </row>
     <row r="137" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="37">
-        <v>65</v>
-      </c>
-      <c r="B137" s="37"/>
-      <c r="C137" s="38" t="s">
+      <c r="A137" s="111">
+        <v>133</v>
+      </c>
+      <c r="B137" s="111"/>
+      <c r="C137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E137" s="113">
+        <v>-49.406999999999996</v>
+      </c>
+      <c r="F137" s="113">
+        <v>123.38</v>
+      </c>
+      <c r="G137" s="111">
+        <v>87</v>
+      </c>
+      <c r="H137" s="117"/>
+      <c r="I137" s="112">
         <v>70</v>
       </c>
-      <c r="D137" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E137" s="41">
-        <v>-41.5</v>
-      </c>
-      <c r="F137" s="41">
-        <v>80.2</v>
-      </c>
-      <c r="G137" s="37">
-        <v>123</v>
-      </c>
-      <c r="H137" s="43">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="I137" s="40">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="J137" s="41">
-        <v>-42</v>
-      </c>
-      <c r="K137" s="41">
-        <v>-40.9</v>
-      </c>
-      <c r="L137" s="41">
-        <v>79.67</v>
-      </c>
-      <c r="M137" s="41">
-        <v>81.13</v>
-      </c>
-      <c r="N137" s="40">
-        <v>6</v>
-      </c>
-      <c r="O137" s="12">
-        <v>1</v>
-      </c>
-      <c r="P137" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="54">
-        <v>1</v>
-      </c>
-      <c r="R137" s="54"/>
-      <c r="S137" s="43">
-        <v>1</v>
-      </c>
-      <c r="T137" s="43">
+      <c r="N137" s="112"/>
+      <c r="O137" s="115"/>
+      <c r="P137" s="115"/>
+      <c r="Q137" s="115"/>
+      <c r="R137" s="115"/>
+      <c r="S137" s="115"/>
+      <c r="T137" s="117">
         <v>0</v>
       </c>
-      <c r="U137" s="43"/>
-      <c r="V137" s="43">
-        <v>1</v>
-      </c>
-      <c r="W137" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="X137" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y137" s="41">
-        <v>0.36830000000000002</v>
-      </c>
-      <c r="Z137" s="14">
-        <v>48.63</v>
-      </c>
-      <c r="AA137" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB137" s="29">
-        <v>54.54</v>
-      </c>
-      <c r="AC137" s="29">
-        <v>70.709999999999994</v>
-      </c>
-      <c r="AD137" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE137" s="29">
-        <v>116.93</v>
-      </c>
-      <c r="AF137" s="29">
-        <v>9.9</v>
-      </c>
+      <c r="U137" s="115"/>
+      <c r="V137" s="115"/>
+      <c r="W137" s="103"/>
+      <c r="X137" s="103"/>
+      <c r="Y137" s="118"/>
+      <c r="AA137" s="29"/>
       <c r="AG137" s="29"/>
       <c r="AH137" s="29"/>
       <c r="AI137" s="29"/>
@@ -11870,46 +12041,102 @@
       <c r="AQ137" s="29"/>
     </row>
     <row r="138" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="111">
-        <v>133</v>
-      </c>
-      <c r="B138" s="111"/>
-      <c r="C138" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D138" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E138" s="113">
-        <v>-49.406999999999996</v>
-      </c>
-      <c r="F138" s="113">
-        <v>123.38</v>
-      </c>
-      <c r="G138" s="111">
-        <v>87</v>
-      </c>
-      <c r="H138" s="117"/>
-      <c r="I138" s="112">
-        <v>70</v>
-      </c>
-      <c r="N138" s="112"/>
-      <c r="O138" s="115"/>
-      <c r="P138" s="115"/>
-      <c r="Q138" s="115"/>
-      <c r="R138" s="115"/>
-      <c r="S138" s="115"/>
-      <c r="T138" s="117">
-        <v>0</v>
-      </c>
-      <c r="U138" s="115"/>
-      <c r="V138" s="115"/>
-      <c r="W138" s="103"/>
-      <c r="X138" s="103"/>
-      <c r="Y138" s="118"/>
-      <c r="AA138" s="29"/>
+      <c r="A138" s="80">
+        <v>26</v>
+      </c>
+      <c r="B138" s="80">
+        <v>1</v>
+      </c>
+      <c r="C138" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="83">
+        <v>-9</v>
+      </c>
+      <c r="F138" s="83">
+        <v>-109</v>
+      </c>
+      <c r="G138" s="80">
+        <v>109</v>
+      </c>
+      <c r="H138" s="102">
+        <v>98.59</v>
+      </c>
+      <c r="I138" s="82">
+        <v>145</v>
+      </c>
+      <c r="J138" s="83">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="K138" s="83">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="L138" s="83">
+        <v>-110.25</v>
+      </c>
+      <c r="M138" s="83">
+        <v>-108.3</v>
+      </c>
+      <c r="N138" s="82">
+        <v>5.8</v>
+      </c>
+      <c r="O138" s="13">
+        <v>1</v>
+      </c>
+      <c r="P138" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="101">
+        <v>1</v>
+      </c>
+      <c r="R138" s="101"/>
+      <c r="S138" s="102">
+        <v>1</v>
+      </c>
+      <c r="T138" s="102">
+        <v>1</v>
+      </c>
+      <c r="U138" s="102">
+        <v>1</v>
+      </c>
+      <c r="V138" s="84">
+        <v>2</v>
+      </c>
+      <c r="W138" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="X138" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y138" s="85">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="Z138" s="14">
+        <v>105.39</v>
+      </c>
+      <c r="AA138" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB138" s="29">
+        <v>286.8</v>
+      </c>
+      <c r="AC138" s="29">
+        <v>72.17</v>
+      </c>
+      <c r="AD138" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE138" s="29">
+        <v>95.3</v>
+      </c>
+      <c r="AF138" s="29">
+        <v>57.97</v>
+      </c>
       <c r="AG138" s="29"/>
-      <c r="AH138" s="29"/>
+      <c r="AH138" s="86"/>
       <c r="AI138" s="29"/>
       <c r="AJ138" s="29"/>
       <c r="AK138" s="29"/>
@@ -11922,96 +12149,96 @@
     </row>
     <row r="139" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="80">
-        <v>26</v>
-      </c>
-      <c r="B139" s="80"/>
+        <v>25</v>
+      </c>
+      <c r="B139" s="80">
+        <v>1</v>
+      </c>
       <c r="C139" s="81" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D139" s="80" t="s">
         <v>22</v>
       </c>
       <c r="E139" s="83">
-        <v>-9</v>
+        <v>-6.2</v>
       </c>
       <c r="F139" s="83">
-        <v>-109</v>
+        <v>-107.2</v>
       </c>
       <c r="G139" s="80">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="H139" s="102">
-        <v>98.59</v>
+        <v>98.42</v>
       </c>
       <c r="I139" s="82">
-        <v>145</v>
+        <v>141.4</v>
       </c>
       <c r="J139" s="83">
-        <v>-9.3000000000000007</v>
+        <v>-6.43</v>
       </c>
       <c r="K139" s="83">
-        <v>-8.6999999999999993</v>
+        <v>-6.13</v>
       </c>
       <c r="L139" s="83">
-        <v>-110.25</v>
+        <v>-107.48</v>
       </c>
       <c r="M139" s="83">
-        <v>-108.3</v>
+        <v>-106.83</v>
       </c>
       <c r="N139" s="82">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O139" s="13">
         <v>1</v>
       </c>
       <c r="P139" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="101">
         <v>1</v>
       </c>
       <c r="R139" s="101"/>
       <c r="S139" s="102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139" s="102">
         <v>1</v>
       </c>
-      <c r="U139" s="102">
-        <v>1</v>
-      </c>
+      <c r="U139" s="102"/>
       <c r="V139" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W139" s="84" t="s">
         <v>86</v>
       </c>
       <c r="X139" s="84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Y139" s="85">
-        <v>0.42830000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="Z139" s="14">
-        <v>105.39</v>
+        <v>104.1</v>
       </c>
       <c r="AA139" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB139" s="29">
-        <v>286.8</v>
+        <v>286.36</v>
       </c>
       <c r="AC139" s="29">
-        <v>72.17</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="AD139" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE139" s="29">
-        <v>95.3</v>
+        <v>94.1</v>
       </c>
       <c r="AF139" s="29">
-        <v>57.97</v>
+        <v>56.07</v>
       </c>
       <c r="AG139" s="29"/>
       <c r="AH139" s="86"/>
@@ -12026,98 +12253,102 @@
       <c r="AQ139" s="29"/>
     </row>
     <row r="140" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="80">
-        <v>25</v>
-      </c>
-      <c r="B140" s="80"/>
-      <c r="C140" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D140" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="83">
-        <v>-6.2</v>
-      </c>
-      <c r="F140" s="83">
-        <v>-107.2</v>
-      </c>
-      <c r="G140" s="80">
-        <v>44</v>
-      </c>
-      <c r="H140" s="102">
-        <v>98.42</v>
-      </c>
-      <c r="I140" s="82">
-        <v>141.4</v>
-      </c>
-      <c r="J140" s="83">
-        <v>-6.43</v>
-      </c>
-      <c r="K140" s="83">
-        <v>-6.13</v>
-      </c>
-      <c r="L140" s="83">
-        <v>-107.48</v>
-      </c>
-      <c r="M140" s="83">
-        <v>-106.83</v>
-      </c>
-      <c r="N140" s="82">
-        <v>5.5</v>
-      </c>
-      <c r="O140" s="13">
-        <v>1</v>
-      </c>
-      <c r="P140" s="13">
+      <c r="A140" s="37">
+        <v>61</v>
+      </c>
+      <c r="B140" s="37">
+        <v>1</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="41">
+        <v>-35.4</v>
+      </c>
+      <c r="F140" s="41">
+        <v>78.5</v>
+      </c>
+      <c r="G140" s="37">
+        <v>61</v>
+      </c>
+      <c r="H140" s="43">
+        <v>41.01</v>
+      </c>
+      <c r="I140" s="40">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J140" s="41">
+        <v>-35.6</v>
+      </c>
+      <c r="K140" s="41">
+        <v>-35.01</v>
+      </c>
+      <c r="L140" s="41">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="M140" s="41">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="N140" s="40">
+        <v>5</v>
+      </c>
+      <c r="O140" s="12">
+        <v>1</v>
+      </c>
+      <c r="P140" s="12">
         <v>0</v>
       </c>
-      <c r="Q140" s="101">
-        <v>1</v>
-      </c>
-      <c r="R140" s="101"/>
-      <c r="S140" s="102">
-        <v>0</v>
-      </c>
-      <c r="T140" s="102">
-        <v>1</v>
-      </c>
-      <c r="U140" s="102"/>
-      <c r="V140" s="84">
-        <v>1</v>
-      </c>
-      <c r="W140" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="X140" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y140" s="85">
-        <v>0.434</v>
-      </c>
-      <c r="Z140" s="14">
-        <v>104.1</v>
+      <c r="Q140" s="54">
+        <v>1</v>
+      </c>
+      <c r="R140" s="54"/>
+      <c r="S140" s="43">
+        <v>1</v>
+      </c>
+      <c r="T140" s="43">
+        <v>1</v>
+      </c>
+      <c r="U140" s="43">
+        <v>1</v>
+      </c>
+      <c r="V140" s="43">
+        <v>3</v>
+      </c>
+      <c r="W140" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="X140" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y140" s="41">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="Z140" s="28">
+        <v>49.71</v>
       </c>
       <c r="AA140" s="29" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AB140" s="29">
-        <v>286.36</v>
+        <v>55.29</v>
       </c>
       <c r="AC140" s="29">
-        <v>71.209999999999994</v>
+        <v>69.72</v>
       </c>
       <c r="AD140" s="29" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AE140" s="29">
-        <v>94.1</v>
+        <v>110.02</v>
       </c>
       <c r="AF140" s="29">
-        <v>56.07</v>
+        <v>12.01</v>
       </c>
       <c r="AG140" s="29"/>
-      <c r="AH140" s="86"/>
+      <c r="AH140" s="29"/>
       <c r="AI140" s="29"/>
       <c r="AJ140" s="29"/>
       <c r="AK140" s="29"/>
@@ -12129,98 +12360,28 @@
       <c r="AQ140" s="29"/>
     </row>
     <row r="141" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="37">
-        <v>61</v>
-      </c>
-      <c r="B141" s="37"/>
-      <c r="C141" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D141" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E141" s="41">
-        <v>-35.4</v>
-      </c>
-      <c r="F141" s="41">
-        <v>78.5</v>
-      </c>
-      <c r="G141" s="37">
-        <v>61</v>
-      </c>
-      <c r="H141" s="43">
-        <v>41.01</v>
-      </c>
-      <c r="I141" s="40">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="J141" s="41">
-        <v>-35.6</v>
-      </c>
-      <c r="K141" s="41">
-        <v>-35.01</v>
-      </c>
-      <c r="L141" s="41">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="M141" s="41">
-        <v>78.959999999999994</v>
-      </c>
-      <c r="N141" s="40">
-        <v>5</v>
-      </c>
-      <c r="O141" s="12">
-        <v>1</v>
-      </c>
-      <c r="P141" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q141" s="54">
-        <v>1</v>
-      </c>
-      <c r="R141" s="54"/>
-      <c r="S141" s="43">
-        <v>1</v>
-      </c>
-      <c r="T141" s="43">
-        <v>1</v>
-      </c>
-      <c r="U141" s="43">
-        <v>1</v>
-      </c>
-      <c r="V141" s="43">
-        <v>3</v>
-      </c>
-      <c r="W141" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="X141" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y141" s="41">
-        <v>0.75349999999999995</v>
-      </c>
-      <c r="Z141" s="28">
-        <v>49.71</v>
-      </c>
-      <c r="AA141" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB141" s="29">
-        <v>55.29</v>
-      </c>
-      <c r="AC141" s="29">
-        <v>69.72</v>
-      </c>
-      <c r="AD141" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE141" s="29">
-        <v>110.02</v>
-      </c>
-      <c r="AF141" s="29">
-        <v>12.01</v>
-      </c>
+      <c r="A141" s="111"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="111"/>
+      <c r="E141" s="113"/>
+      <c r="F141" s="113"/>
+      <c r="G141" s="111"/>
+      <c r="H141" s="117"/>
+      <c r="I141" s="112"/>
+      <c r="N141" s="112"/>
+      <c r="O141" s="115"/>
+      <c r="P141" s="115"/>
+      <c r="Q141" s="115"/>
+      <c r="R141" s="115"/>
+      <c r="S141" s="115"/>
+      <c r="T141" s="117"/>
+      <c r="U141" s="115"/>
+      <c r="V141" s="115"/>
+      <c r="W141" s="103"/>
+      <c r="X141" s="103"/>
+      <c r="Y141" s="118"/>
+      <c r="AA141" s="29"/>
       <c r="AG141" s="29"/>
       <c r="AH141" s="29"/>
       <c r="AI141" s="29"/>
@@ -42333,49 +42494,14 @@
       <c r="AP1001" s="29"/>
       <c r="AQ1001" s="29"/>
     </row>
-    <row r="1002" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="111"/>
-      <c r="B1002" s="111"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="111"/>
-      <c r="E1002" s="113"/>
-      <c r="F1002" s="113"/>
-      <c r="G1002" s="111"/>
-      <c r="H1002" s="117"/>
-      <c r="I1002" s="112"/>
-      <c r="N1002" s="112"/>
-      <c r="O1002" s="115"/>
-      <c r="P1002" s="115"/>
-      <c r="Q1002" s="115"/>
-      <c r="R1002" s="115"/>
-      <c r="S1002" s="115"/>
-      <c r="T1002" s="117"/>
-      <c r="U1002" s="115"/>
-      <c r="V1002" s="115"/>
-      <c r="W1002" s="103"/>
-      <c r="X1002" s="103"/>
-      <c r="Y1002" s="118"/>
-      <c r="AA1002" s="29"/>
-      <c r="AG1002" s="29"/>
-      <c r="AH1002" s="29"/>
-      <c r="AI1002" s="29"/>
-      <c r="AJ1002" s="29"/>
-      <c r="AK1002" s="29"/>
-      <c r="AL1002" s="29"/>
-      <c r="AM1002" s="29"/>
-      <c r="AN1002" s="29"/>
-      <c r="AO1002" s="29"/>
-      <c r="AP1002" s="29"/>
-      <c r="AQ1002" s="29"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ140" xr:uid="{C695B7AE-06AA-E041-8ED9-9E8BCF995C96}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ141">
-      <sortCondition ref="C1:C141"/>
+  <autoFilter ref="A1:AQ139" xr:uid="{C695B7AE-06AA-E041-8ED9-9E8BCF995C96}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ140">
+      <sortCondition ref="C1:C140"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI1002">
-    <sortCondition ref="I1:I1002"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI1001">
+    <sortCondition ref="I1:I1001"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/faults.xlsx
+++ b/faults.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spc/Cirilla/Projects/OTF_relocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1391415-6134-8341-B4EC-80B9D7DCAD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C7164-467F-2946-8580-7428175147B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="7000" windowWidth="24860" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="1160" windowWidth="24860" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="otf" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">otf!$A$1:$AQ$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">otf!$A$1:$AQ$140</definedName>
     <definedName name="fault2" localSheetId="0">otf!$C$1:$W$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1357,10 +1357,10 @@
   <dimension ref="A1:AQ1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U127" sqref="U127"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1987,16 +1987,16 @@
         <v>35</v>
       </c>
       <c r="J7" s="27">
-        <v>-7.53</v>
+        <v>-7.7025579999999998</v>
       </c>
       <c r="K7" s="27">
-        <v>-6.4</v>
+        <v>-6.5817899999999998</v>
       </c>
       <c r="L7" s="27">
-        <v>-14.1</v>
+        <v>-13.973114000000001</v>
       </c>
       <c r="M7" s="27">
-        <v>-10.85</v>
+        <v>-11.353294999999999</v>
       </c>
       <c r="N7" s="26">
         <v>5.9</v>
@@ -4125,7 +4125,9 @@
       <c r="A36" s="80">
         <v>23</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="80">
+        <v>1</v>
+      </c>
       <c r="C36" s="81" t="s">
         <v>92</v>
       </c>
@@ -4625,7 +4627,9 @@
       <c r="A42" s="44">
         <v>48</v>
       </c>
-      <c r="B42" s="44"/>
+      <c r="B42" s="44">
+        <v>1</v>
+      </c>
       <c r="C42" s="45" t="s">
         <v>103</v>
       </c>
@@ -5636,7 +5640,9 @@
       <c r="A55" s="80">
         <v>24</v>
       </c>
-      <c r="B55" s="80"/>
+      <c r="B55" s="80">
+        <v>1</v>
+      </c>
       <c r="C55" s="81" t="s">
         <v>24</v>
       </c>
@@ -9688,7 +9694,9 @@
       <c r="A109" s="37">
         <v>72</v>
       </c>
-      <c r="B109" s="37"/>
+      <c r="B109" s="37">
+        <v>1</v>
+      </c>
       <c r="C109" s="38" t="s">
         <v>99</v>
       </c>
@@ -11941,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="T136" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" s="43"/>
       <c r="V136" s="43">
@@ -42495,7 +42503,7 @@
       <c r="AQ1001" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ139" xr:uid="{C695B7AE-06AA-E041-8ED9-9E8BCF995C96}">
+  <autoFilter ref="A1:AQ140" xr:uid="{C695B7AE-06AA-E041-8ED9-9E8BCF995C96}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ140">
       <sortCondition ref="C1:C140"/>
     </sortState>
